--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -484,14 +484,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAMAAwEBAAAAAAAAAAAAAAUGBwMECAIB/8QAPhAAAQMDAgMFBgMGBQUBAAAAAAECAwQFEQYhBxIxE0FRYXEUFSIygZFCobEjM2LB0fAWNlJyczR0gqKy4v/EABoBAQACAwEAAAAAAAAAAAAAAAAEBQECAwb/xAAwEQACAgIAAggEBgMAAAAAAAAAAQIDBBEFIRIUMTJBUWHwE3Gh0RUiI4GRwSRCsf/aAAwDAQACEQMRAD8A9UgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHDWVMFFSy1NVKyGCJqve964RqJ3qcxBay07Hqe1NoJ6uemh7Vsj+yx8aJ+Fc9380Q3qUXNKb0vE52ucYNwW34FdTW9zu7JZ9NWiNbdGqp7wuM3YROx4J1VP72O3Z9T3mWoiZWWujrKd72xuqbTVtnSJVXq5q7onn3HTvOkJrpqFjbhDnTFupk9kooH4SWRE6ORP76eZGcLJLRerpU1lPp5tprKBeVroHuRjkcipyvTZFcmOioW7rx3TKcI7SX8b7NvpLn56Wl5FTGzIV0YTlpt/Leu3S6L5eW3t+ZqYOGpq6elajqqeKFq9FkejU/M5IpWTRtkie17Hbo5q5RfqU2nrZc7W9H0ADBkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHUuiPmt9ZBSvRtU6ByM33RVRURfuZS29GJPS2UbUHE+lpbk+22Kgmu1ajlZ+zXDOZOqJhFV2PJMeZHcnEa/oqufSafpHrlcYa/+bs/YzzhteI9NaxhluTOSNyOpZnOTeFVVE5voqb+WTeaxr2zKj3q9F3a5VzlC9zYQ4dKMK4J7XefP6dhQ4M58SjKdtjWn3Vy+vaUui4X2yonR19vFdc6t/4kdyoi+q5X8zoxNm4XashidNNLpi4LjL1z2LvH1T82+aGg0S4q4l/iOLUFpg1FQV9orflky+KTqsT06OT++mUIlXEbJy6OQ9wfJry9V8iXbw2uEenjLU1zT8/R+jLIxyPajmqjmqmUVFyiofpm3Cu+1NPNUaTvmWXKgVWwq5fnjTuRe/CYVP4VTwNJIeTRLHscH+z814MmY2RHIrU1+68n4oAA4EgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAj9QXemsdoqbhWuxDC3OO9y9zU81XYx7hhV3rUXEOqvSyKyDlX2rvZyL8kSemEVPRV7zqcTtQ1GrtSwWOzZmpoZezjRq7TTdFd6JuiL6qbBozT1PpmwwUEGHSJ8c0uP3ki9V/knkiF30I4GI+mv1LF/C9++RRKcuIZa6D/Trf8AL9++ZmPGzSXYTf4goI/2Uio2ra1Pld0R/wBei+ePEkuE2pffNq9x10ma+jbmmc5d5Ik/D6t6emPBTUqymhraSamqo2ywStVj2O6OReqHmrUtqrtCavb7NI5qxP7ekmX8bM9F8f8ASqf1O+HOPEMd4lj/ADR7r9+9fI45sJcOyVl1r8su8vfvfzN5gVW1EeU3RybfU77PhvLk8f6ELZbtT6hs1NeKP4Uf8M8ffFInVF/vwUmpV5bxGviifop5+cJVycJLTR6CE42RU4vaZTuK2nqh7INS2TLLrbsPdyJvJGm/1VN/VFVC06N1DT6msUFwp8NevwzR5/dvTqn808lQm1RFTC7oZDVNdw11wlTGjk03dXYe1OkLv/znKfwqqdxY0/5dPwH3484+q8V/aK+7/Du+Ou5LlL0fhL+ma8D8Y9r2NexyOa5MoqLlFTxP0rCzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABnnGDVvuS0+7aGTFxrGqiqi7xRdFd5KvRPqvcXHUV4prDZ6m41rsRQtyjUXd7u5qeaqYZo+01fELWdRcbtl1Ix6S1K92PwxJ5bfZF8S14bjRbeTd3IfV+RU8TyZpLGp78/ovMuHBXSXsVJ7+r48VFQ3FM1ybsjXq71d+nqXa4ax07bq2WkrrxRQVMS4fG+TCtXGd/uTzWtYxGsRGtRMIiJhEQwTX+gqu56xulXBeLJEk8qOSKeq5JGfCibpjyIWVkyybXbPxJuJjQxalVDw+rNgumrLDaqlKe43akp51Yj0ZJJheVei/Ui9b2Gk1vpVslBLFLMje3op2rlrlx0z4OTb7L3Gf8T9D3G7aljqaWstbGJSRR8s9UkbstymcKnTzNV0RQS2vSNpoah0b5YKdjHOidzNVcdy96HOq2VM1ZB80dbqo3Qdc1yZhXDbU0mldQvprgjmUFQ7saqN6fu3IuEdjyXZfL0N8q1b7wpntVFa5EVFTpjJlnG3SXZyf4hoI/geqNrGtTovRJPr0X6L4nf4PambdaFliuEi+2Uic9M93V8afh9W/pjwLziNUcylZtK5/7L35f8KHh1ssK94Nz5f6v35/9NYIrVFjptQ2Sot1WmGyJlj0TeN6dHJ6KSoKGE5QkpRemj0E4RnFxktpmacLL3U0VTUaRvq8lfQqqU6uX54035UXvwm6fwr5GlmecVtOzzwwaisuWXa24eqsTd8ab/VU3XzRVQs2itRQansMFfDhsvyTRov7uROqenenkpPy4RuisqtdveXk/s+0gYc5UzeJY+zuvzj912E6ACuLEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHFVwMqqWanl5uzlYrHcqqi4VMLhU6GV6mH6GDcSdQVGsdUU9ls2ZqWKXsokau0svRX+iboi+GV7zZNH6fp9NWKC30+HOanNLJjeR69Xf08kQj9MaDsum7g6tt8czp1Z2bVmk5+RO/l22yWoss3MhOuOPRyhH6srMHDnCyWRkc5y+iB5/4h8ONSXTV11uFBb4p6aolR0bkmYiqnKiboqp4HoAFYWhg3FXRGoLtqaOrt9rdUwJSQxK9r2fM1FymFXJrWgaKot2jLPR1sSw1MNMxkkaqmWqidNifABxVdPFV00tPUxtkhlarHscmzkXZUPNWqbPW6F1cxaSR7Ujek9HP/qbnoviqdFT+p6aKzxB0vHqmwvpk5WVkWZKaRfwv8F8l6L9F7iz4Xm9Ws6M+5Lk/uVfFcHrVfSh34819juaP1BT6lsUFwp8Nc74ZY87xyJ1b/TyVCaPM2nL9etBXmeFaZzXPXlmpJ0VEeqdFTHf4KmcmgtuuvtXNRLbRx2Ogen7+TKOVPJVTm+zU9TvlcJddjlGSVb7G372cMTi6srUZRbsXakvaRot8vtrslOst1rIaduMo1zvid6N6qUHgpE+Wp1FcaaF1Pa6qpT2aNU22Vy7eiKifl3HdsvCu2Qze1X6pnu9Y7dyyuVGKvpnK/VTQKaCKmgZDTxMihYnK1jGo1rU8ERCNO2mmqVNLcnLW32Llz5L7kmFV990brkoqO9LtfPlzf2OQAFcWQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB5on19qeG5SyNu86oyZyoxyNVmzl2xjob7pC/0+pLFT3Cnw1zk5ZY87xvTq3++5ULHM4ZbiRU5aafkVuFxSnMk4Q2mvMmgYrp/Vt8qOKq0E1wkfQurJoVgVE5UanNhE27sIcvGPVF5tGpKemtlwmpYPZWyK2PCZcrnZVdvJDdcJtd0adrbWzR8XqVMrtPSejZcgxGC3cUJ4Y5Y6ydWPajmr7TFuiplCX0xbuIsN/oZLtVPW3tkzOj543IrO9MJvkxPh0YJv40OXqZhxKU5JfBmt+hq4MLpdX3+xcRFoLxcpp6NlWsMrZETl7Ny/C5NttlapeuL2o6nT+nYkt8yw1tVKkbHoiZa1Ey5Uz9E+prPhtsbYVpp9PsfgbV8TqnVO1prodq8S9Ayfgzq64XeurrdeKx9TIkaTQukxlERcOTbr1RfuR/FjWd2pdTttdjrZadtOxqSJFjL5Hb4zjuRW7eZsuF2vIeNtbS3vw0avi1Kxlk6em9a8dm0DJlmpbZxCfPRJaa174WUkTZHNljYrpUT41VFTxKFfNRa0sdxdQ3K7VUVS1rXK1JGO2XpuiG9HCnf3LIt+W+ZpkcWWP36pJeeuR6NdHG9zXOY1zm9FVMqh9mLU1s4orJE/2yTlyi5fURKmPNPAluJ/EKqslb7osvZpWtYizzubzciqmUa1Omcb7+KGn4bOVka6pxk35Ps+Z0/E4QrlbbCUUvNdvyNTBidNp/iTcKdlY+6zwOciObFJVqx2/i1qYT0U4bNr/UOmL97t1bzzwtcjZe0RO0jRfxtcnzJ3+aG/4VKSfwrIya8E+Zz/ABaMWvjVyin4tcjcgZ1xlv1wtFkt0torH06zzqjnx4y5vIqpuvcVfhhxCrnXttv1BWOqIKpUbFLLjMcnciqidF6euDlXwy23HeRHWvLx5HW3ilNWQsee9+fhzNtBSOL93rrNpRlRbKl9NO+pZGr2YzyqjlVN/RDl4TXWtvGkI6m5VDqioSaRnaORMqiLtnBw6pLq/Wd8t69Tv1yHWOra5636FyABFJYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB5o0PZ6e/auqrdVJhk0VQiO72OT5XJ5opJ6EvNVoTWM9su2Y6WSRIalF6Nd+GRPLf7L5Evwy01erdr5aquttTBTNbOiyvbhu/TC95ZOL+jJb5TR3O1QdpcYE5JI29Zo/LxVP0VfI9bkZlUsjq9jThKK/Z+/6PIY+HbDHWTWmrISf7rl7/AJKBpffjK3GFT3jPun/mdrjx/m+nz09iZ/8ATj54daUv1JrW11VZaquCCJ7nvklbhETkcnX6oTHGXTl4uupqeot1uqaqD2VrFfE3mRFRzsov3Q3dtcc+H5lpQ1vZoqrZYE/yvbnvWvkcFJPxRSlhSnjm7Dkb2fwQfLjb8i4cPJNavudSmq2KlEkPwK9saLz5Tpy+WSpwX7iTBBHDHZ38kbUY3NH3ImPEl9MX3X1Rf6KG62tY6B8mJnupeRGtwu+ckLJrlKuS6Na+Xb+3qTcWcIWRfStfo+z9/Qg+PVn7C60V2iTDKlnYSKnc9u7V+qL/AOpWtXX6fWFXYKaHLpmU0cCp4zuXDl/Jpt/EexP1BpKspIGc9UzE0CdMvbvj6plPqZdwu0XdYtXU1ZdrdUU1NSI6VFmby8z8YaiffP0O2BmVdVVlj/NXvXv6HHPw7etuutPo2a3/ADz+5Fta3QHFBiOc/wBkgkTLl3V0L27r54z+R9aApZNV8SfbalvMxsz66XO6JhfhT7q37Fx41aUr7rVW+42mjlqpWsWCZsSZciZy1cfVyfYk+DOmKqx2qrqrnTup6yqeiIx6fE2NvTPhlVVfsZsza+p/H3+o10fX34mK8GxZvV9fpqXS9PfgaKedeNH+fqj/AIYf0PRRh3FbTF7uetZKm32ypqKeSKJrZI25blEwuV7it4HOMMluT1yf9Fnx2uU8ZKC29r+zbaf/AKeP/an6HnW98ruMEiVWVj96xo7m/wBPM3HXu6HouFqtiY13VGoi/Yyvipw/rLrcVvNiaklQ9qJPBzcrnK1MI9q9M4RNvJDHCL66rpRselJa2Z4xRZbTGVa24tPRq5g/H1IU1NQq3HarR/tMdcc64z+Z3aXWXEChpvZZ7HLUSsTl7aWjkV3Tv5Vwq+Z0rTojUer9Qe8dTslpqd7kWV0qI17mp+BjO5O7fp5qS8HF6ja77prST7HvZEz8rr9Sopg+k2u1a0d3imsi8PNJLPjteVnN69iVi56WVeHtn1FRMXKNfHVo3/kcjZP0RfoppXGayV1zslshtFFLUdhPlWQtyrW8iom3gTnDy0y0+gKG23elVjljkZLBKn4XPdsqeaKbV56oxIWRfPpPa9Hs0s4e8jLnXNcuitP1WjLtQ6r/AMR8L4Yap+blR1cTJs9ZG8ruV/16L5+pfuB/+Rmf9zL+qGX6n4eXu23mogt1BVVlEq80MsTebLF6I7zTp9Mmt8I7ZWWrR0dPcaeSmnWeR/ZyJhyIq7ZQzxF0Rw9UyWnLevmY4asiWbu+LTUdb+RdAAeaPTgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEbd75a7OsaXS4UtIsmeRJpEarsdcIH320sWhR1xpE9uXFL+1T9t/t8eqdCua409cLldqOvtkMaywwui7aOsdTTMyqLjPK5rm+Sp1IS4aFu9fbLFFUSUKVdBS1CLJEnI1k7nNfE5qI1E2Vu6oid643ANDprrQVVXV0tNWQS1FJhJ42PRXRf7k7uh1qHUllr6iSCiulFUSxsWR7YpUcqNTqu3chRLdom+UFu1D2ctK643WgZG+VZFRFqHOesrl22REft6HetOi7nbr1DI+spKmjhtMlBFyQpArFVUwmEzlNuufoAWq36psVxldFQ3ehnkRiyKxkyKvKm6rjwQ+bfquw3GrjpaG7UVRUSfJHHKiudtnZPQqOk9EXOz1umZ62pbWxUNK+KSF8m1LIrcc0WGpzJjLcO8closVlmodTahr5WwpBWvgdBy9URkfK7KY23AJmetpqeppqeaeOOepVyQxudh0iomVwnfhNzry3u2Q0lVVS19KynppFhmkdIiNjenVqr3LumxC6v05UXy96fninkgp6OSZ00kMyxSojo8JyKiePXyK+3RNzp7RLHC+Congvy3WFlTMru3jRERGvfjZy7rnC7gF1g1HZ57ZPcYblSPooNpZkkTljX+Lw6p1ORb7akloY1uFL2lcnNTN7RMzJ4t8Sj3LSd5u9BqyomhpKSsvEcEUVK2ZXtaka/M9+E3XfoncdS3cPLlSXy31T5qeWC3V7EpG865jo07Ryp0+bmeiY8GoAXpNVWFa/2FLtRLV9p2PYpKnNz5xy48c7E0ZvYNNX61agnmcxX0ktxlqf2dw5Gcj3Z3i7Ncrj+JMmkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH/2Q==</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>data\product_images\Light Switch_20251207_235626.png</t>
-        </is>
-      </c>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAECAwQFBgcICf/EAFoQAAEDAgIEBwgLDAYIBwAAAAEAAgMEEQUhBhIxUQcTMkFhcbEIIjNygZGhshQjNHN0oqOzwcLRJCUmJzU2QlJiY2SSFTdTgpPhFhdDREVUdcNVZYOEpLTw/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEAAgIBBAMBAAMAAAAAAAAAAQIDETESEzNBITLwIyJDUf/aAAwDAQACEQMRAD8A+qUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARUyyMijdJK9rGNFy5xsAFgnFYSLwxVMw5iyF1j5TZBsEWqlxhzR3mHVrj4rR9KxJMeqx4PBql3W9o+1B0CLmX47i7vA4C8+NP9jVYdjOkzj7XgULfGmcfqoOtRcecQ0wf4PDcNZ4xefpCjjdNnnweERj3t5+ug7FFxpi01dm6swyMfs0t+2RUmm0qeCJcXiaD/ZU7GnzklB2iLj4MPxZtuPxCeU/tT6vY1ZkjJoqdxnMjQB4WOYv1Okg2y6ldDpFSZGDa5o8q8J0o4Rn4RXVGHTOcKmO7deMB3URe48hXmNfwkaWtmcG4uRHfvCKWJtx/KoPsE1MDeVNGOtwVBraUbamD/EC+NH8Iulrv+OTjqjjH1VYk080qkFnY9XAfsua3sCD7QdiNE3bVQfzhUf0rQ3sKmMnoN18S1mnOkUMD5ZtIcTDGC5IqHBefVvCDpbVSPc7SPGGsccmNrHgAbtqD9HW4jTO5L3HqY4/QroqWOF2tlI97d9i/M1+lekT+Xj+LO66yQ/WVh+P4xJy8WxB3XUvP0oP0vrMZoqJzRVyOh1tmvG4A+WyqocXoK5xbSVcUjxnqg2PmK+MO564RK2THI9DtJKyerwbFTxMBmeXvpZjyHMccwL5WXQV9NpFQ41PE+plbU0U5YHg2zabX/wD29B9eF7R+kPOqHVELeVLGOtwXnOB4rLiGD0lVLHE2WSMF7QwWDth9KzfZDt0f+G37Fz7sNdEu2NZSjbUwj++FbdiVE3bVwfzhcaKiTmLR1NH2KzUV0zG2bIQ47LAKTmheiXanFqD/AJqI9RupGKUjuTIXdTHfYvPzW1J2zyedWX1MzuVLIetxWe/H/F7b0oVsTuS2Q/3SsOXHqCGUxzyvikG1r4yCvPC4k3JN991lVAkxTB6ljnF1ZRs42J52uZ+k0nnU70z9VjHG/l6LS11LVx69PPHI3odsV4zRDbIz+YLw7Ca6elr2SAksvZ45iF6LC1jgC7PdkPsTFni8LkwzSXUmrpm8qohHW8Kg19GNtVB/iBcy0Mv3zRz8w+xXA2PVuG+ldO5DHRLfOxWhbtq4fI66gYvQnZUNPUCfoXNufZ9m7Lbyjn24vLM7cyp3oXty6huIUzuS9x/uO+xUzYlTQxmSVz2sG12obD0LmWO79gPlWc4ll3Ri51c28zhuIU7y9ttIMaw6d4bHVx6x5ibdq2AzXjuldK/D8StTlwpZm8ZENwO0eRdVwY4lPUU9VSVEjn8UQ5mtmQDzLFM8zfotC3xRFeqHcIiL0uIiIgwKyIVWIU8UmcMQMzmnY51wG36sz1gLPWHe2Kv94b6xWSXhEVodhVvjBzKOMO5BMZzsrix7m9wqxrlFXUuFa1HHnUiPeUFTyNUi6wSswsCxHjVeQtVSUWUgDnFwoVXMtsvFtLdBKI49WYlA0mWqltIwm4Bb3oI6wAuF4SNHRQaOx1bWBpjna3IczgfsXt8pM2k+JU7s2xsa8DpL3fYuN4cIGx8H8zrf7zD2lc5bfOlkKqaxzmuc1rnBg1nEC4aL2ud2ZC1mN14w+idILca7vYx07/IoNFpZiHGzCjid3kZvJbndu8i50hVFxc4ucSXE3JPOoQUEKFUVQUG/0Ce5mm2AOY7VcK6Gx3d+F9p1eFNxKrkrpBrPnJeTbavirQQa2mmBjfWxesF954MxrsJpHDO8Y7SgxcPpRSUjIWiwBJ9KyrK5UANkAG5W9YEkAi4Xlv8AFpdq8KXkNFysCR5e8lXqyS51AetYy5S2lQQpCFQUK5DO+mbPJG4tJj1Ljc5zR9KoKs1h1aOU7zGPlWLVPtCTwyG4YxpItkCumiNmt6gtc4WcetZrJA0AnIAZ3WMMa265J3pdkUzPDIB0qzI/aea11YfIZI8+ldplziFQd3wOexVOfbVvvVu/fnxVVLyGdayq9EA6QHyrZRHb1LW07rFbBjtoCK5nGmeza10L8207Gho3awJK22g9KKeuqSOeMD0rVXD8axEc7RD6pXRaKi1XN4g7VIj+0fvRPin97dMiIvc8giIgwiA7Fng/2DfWKyuLb0rFB+/Th/Dj1is1BSGAcyqsERBaeLKJjJ7Hk9j6nHap1Ne+rrWyvbO11XKMlEZu1BVHrcW3jNXXsNbV2X57Kq6hQSBtVRKxKgWlPSsgysHOseZ4e4EK15JW1KIV0ZcXAfwzxkn+xj9d65Ph7kA4PJvhMI9JXTF2rphjPvcfryLieHqQ/wCr2S/PVwj0lcp5bfPjKmSOOVrJHsZI3VkAdYObcGx3i4B8i4THK819aXNPtLO9jHRznyrb6RV/FQexoz38g77ob/muYUEKFJVJQQVSVJUIOh4PBradaPgc9dCPjhfc2j8/3joPeWlfDvBoQOEDRwkEgV8OQ8YL7WwMkYJh3weP1UG3ndrFp6FYkc2MOdYXPpUa92gHmWNM/Wd0BePJP+Uu9eFskkknaUCKVzaQoOxVKkoKSsbEcqF/vkI+WYskrExM3onD99B8/GrXlJ4dG498etXrh0ZDgCCLEFYpPfHrV0H2s7rLOL265PSqZ+Qa3Zaypafaz1KzGSczzhVt2EeRdGF0cs9SvPALQscc6uk9iCuLrWwgzWuj2eVbCnKiubhd9/MX6DAPk102ihvVz+IO1cpTm+OY2f3kI+SC6nRE3rJ/ex2qx5o/eifFLqURF7XkEREGAD9/nD+GHrlZ61VQ8sxwlpz9jD1yr+u921x7FdbTbNJA2kBUGeMfpX6lh6u/NTZXpNr75wRYNKtiV42WVKJo2kyPP6R8ipz5yila0m0WSylFdJsQ7EUlUcDIPwwxj3uL15FwHdDztg4NpZH7G1kJ6+VkvQJR+FuMe9RevKvMe6bP4sHdNfAPQ9cp5bfJ08r6iZ8shu5xufsVtSpUFBUFVFUEoKXKlSSoQdTwXN1+ETRtv8fD6wX2nghvgmHHfTRH4oXxjwSC/CVo3fmrYz5jdfZuB/kPDPgkPqBBlSOs2w51jlXZ+UOpW14L/aXorwhVBQpUUVJVRVBQQViYl7k/9emHy8ayisXEfcg+E0o/+QxWn2J4b47T1qdYlpG5QeUetG/pdSxjdchFsb1q60betWmZFvWrrdp611c1VslUPoUHYgQXYgs6LZksKLbZZ0WwKK5iE3xnGhukgHyLV0+iPuuf3sdq5em/LOOn+IiHmgjXU6I+65/EHar/ALo/eknxy6lERe15RERBp6r8vH4KPXKyAser/L//ALUeuVkjYtxwzKURFvTOxWZqiGFzGyyxxuebNDnAFx6N6vHNalrw3jpxqipnkcyNz2EgAO1Gty5ue2V7lSVbGGeKdrjBLHIGnVJY4Gx3G2wq6tQJWF0FS0xipZIyKfUyBDjqkHfnmN1ulbYKwiURFQQoig4OTPS3GPeYfnJl5b3UDtXgyZ04jCPiyFeoON9Lsa6IYfXmXlndSm3BpTDficXzci5Ty6Pk4yO6FLHkusVbKqj5ag2uH4fHPTvqq2qbSUbXcXrlhe57rX1WNG0gWJJIAuM8wqqPCYMQjc2grmPrQXalNLGWOlaNmobkFxH6JI3C5WTFFFXQYLQPMkfG8Y1rmAOvI+TVBINssmg9SuYrPxgpsVE7hLHMYIQyBrAeLcCLlpFrNcy2R3c10HMlQtlpJEINIcTiaAGsqpWgDYBrFa1B13BKSOEfR8jb7Kbt6ivs/CMsHw8bqaIfEC+MeCQX4R8B6Ki/maV9nYP+SKC+32NF6gQV1Js5oAu4iwVol4z711toG1Vz+GHN3pzVtmbgRa7rk+QrwX+0vRXiFbTcAjYUDiT3rct91DBaPqv2qm12MaR3pH0KNKg4k2IsfOoKpvdrD0qoqCFjYh7mZ8LpP/sMWSsav8DCN9bR/PtWq/ZJ4b13KVpsjiXaoaGDaXc++yunasUcgA2LS4ggjbmsY3W7Ijc4PDZA3PYW7CrxcGAkgnPIDaVitJ1W3tk8AWHTZZIzkj3XJ9C6sJe6Ti78VnuDgqmODgCPSrOsda+qNcnU5Rts+1VtPtsoGzWHYEGVEc1nQZrWxlZ1O7sQc5SAjFMcJ56tnzEa6nRH3XUeIO1ctQm+J438LaPkY11WifuyfxB2pXzR+9JbxuoREXteUREQaar/ADgHwX66ygsSr/OIfBfrrLC6V4YnlKIi0gtSY5XU7mxujDqed7zr32tdrNGXMWu27cwVtljyUrHVAnY+WKXIOMbrB4GwOBuD17elJgiWvlil9hxsmdGTLVRSNLCbXMgeRYjYAPLmclt1jR0gFQJpZZZntvqB9g1l9tgAM7ZXNzZZKRGiUoihUShRChDz9uel2Oe9wD48y8s7qf8Aq2pP+px/NyL1GI30tx7xYB8aZeW91OfxcUQ/8zj+bkXGW3ycVVHy1c1W7gosBsCiuhoxV1ODQTYZE2apoOMZIxsYe9jHnWbIBa+RLhrDkm2y4Vxs1VpDWx0rYYHU7QyWWZtKIWwbDK82Nhz3cduqNmQXOQzy08zJqeR8UrDdr2OLXA9BCuy4pXy0ZpJa2pfSlxeYXSuLC4m5Nr2vfO6CMZqRW4tW1Tb6s8z5BfbYuJHasNEQdjwRf1i4L0SPPmjcV9nYaNXDaIbqeP1AvjHgiZr8ImDNOzXk+bevtGi9w0vvMfqhBRUcsG1wBYjoVrWYCTYEk3FhmVel8IVRdeC/2l6K8DBZgB22zVsAFurc67cttlcUHbsF1GlJADmtbzG9twQqoAAWAA6lBQUrHrc46f4bSfPBZKx6zZSdNdS/OK15SeG8O1YxABcxzdt9VxbcZ83nWSdqpAsSsUh1stgtLgGDIEFxtYZbFcvqua47G3v0BS4ZOVbRY9YK6sKNRhdrBx1bcoP59/XbnVcZ1y542OOXSLWupLGEWLGnntZVnmQSDtWXAcj1LEtkr8BsXdSI0eHn74Y0f44jzRRrrNEj91z+IO1cpQtArcYI/wCef83Gur0S91z+IO1K+ZbeJ1CIi9ryCIiDSVh/CQD+E+uswbFg1h/CZo/hPrrOC3XhmUopRbZQilRZARLIqCIiAnOETnCg88p89KdID0wj0yry3upz+Lqh/wCpx/NyL1Gk/ObSA/txf9xeWd1UbcHuHDfibPm3rlLo+WCqCVJVBUEFEUgIIsosrzmWNlQQg7HgcH4xsJ6BMfkZF9mUQtQ0o3Qxj4oXxtwOWHCHhxcbARVHn4h6+y4MqeEbo2D4oQUSZvKpVUnLKpXht9peivAqbKVKyqlQVWVQUVCx6vbR/Dqb1yshY1YbPofhsHaVa8pLepvUA5JvWcbtdWBclVjYqGbVXzro5I5x1KoKl4tYhSDkgqCux7HdStAq63kOPQUGlw73XjJ318noYwLrNEfdNRkb6gz8q5LCzeXFTvxCb6q63REn2VPllqDtVr5i3idQiIvY8oiIg0Nb+dDPgf11nhYNWL6UN+B/XWeNi3XhmREsi2ylFCm6AiIgIihATnCKRtCK87ox+EOPn97H2PXk/dWG2gmFjfiQ+bevXMOYXY9pAf30fY9eRd1kC3QnBgf/ABH/ALblylp8tOKpVRCWUVFlU0ZhFLdqC5KO+Vkq9NylZKDtuBpmtwgUN9ghnPyTl9kMyhj8RvYF8fcCzL6dUx3U8/zbl9iFuqxg3NHYsWnTUQxnnvyl1D+WUXjn5l3jhO1SoBspuoIKpVRVJRULGrPC0Hw2H6yySsar8LQ9FXEfWVrykt5dBsPUrTXbFeAyPUs43a6W7fKro2qhozV1vK8i6ORYq3zrIcNitPb3xQUhXm5wv6j2K0ArjPBuHQUVp8OILsS+HS/Qur0RP3XOP3Y7Vx+HGxrzvrZj8YLrtDzernP7u3pVr5i3idWiIvY8giIg0lWLaSNJ2OpLDyP/AM1nDYoxSBzmNnhbrTQ3IA2kc4Wsw7HsNr2HiKqLXadV7CbFp3Ec3lW6yktooVDJY38iRjupwKueRa2zpCJdE2mhFKJs0hFKhUEG0IpG0IOKwaM/01jxtkZo+xy8e7r1mroXgfTiJ+aK9zw6JsNRWSu/277+YuC8W7rmnmrND8DZSRPlLK9znBgvYcWVy9uj5LsivSU08Z9shkb1tKtbNqgiyKUQS83KpAUqpltYXQeicB0Ln6dUoa2+tDM3zsK+vJsrdQXzF3O1Gyo06o3NexxZHI5wBzA1SvpeaUOebEecLjkbox38soELHFxOq63Up1SNq8suyFKWUpsQqSqlBQUqBEZpYLC+pOxx+MpWxwdjeKrZX2tGxpF99ytV5JQITksi1lY9lMJAvtNlfabrNHS0qgMlcY3NSxtwrkYz8i1tnQ5p1QrT2m91m6l2BWnNVGKGmwVxrSGuvssexXQxXjHaJ/Ug52kp3MFRf9Kpld53LqNDoy2eocf1R2rW4rqU1U6PLLM9ZW30PeJBUuaMhYXWqR/Vm0/zdIiIvW8wiIgLWV+A4XiE3HVdDA+b+0DdV/8AMM1s0QaMaM0TG2hdMwbtfW7VbfgM8edLXOb0EEdhXQImxy8lJpBAfapYJx0vsfSFYdiGO0xtUYRJIN8Vndh+hdeiuxxn+lccRIrKKqpyNuvG5vaFlU2k+GVHImz3ZH6V1JFxYrEqMMoajw9HTydLowU2mmBHiVG/ZO0eMCFkRzxSeDmjd4rgVado3hZzjpuKO+J7m9hVp2jkA8HUTDx7P7Qr1GmerdRMyngfNIbNYLn7FhNwSaLwVSPjN7CrVZhFdPC5gkikdYhvHPc5ov0J1GnAxaaUeJ0zX0L9aKB74TIDlI4OOsR0Xuuk0XoINJKWWbEI3SUzHasffFt3c5yWqoOCgMmaavEmtgDrmGmh1BtvYZ5eZel0FJBQUcVLSRiOCJuq1o5gsq4nE+CzAK0HvHNJ/XjZIPS2/pXIYrwBYLVEmOOjff8AWjdGfO0kehe2Ig+YcV7mqme5xphPH7zO148zg1cjinc24rFc0eIPaN09M7tbrL7MRB8DYlwF6Y0h+54qKsH7uoDT5nWXN1/BrplQvDajRzEczYGOLjB523X6NyRskFpGNeNzhdYxw2jJJ9jRC/6rbdiD440D0N0g0DoYMarGR0VXWyCFzJHASxQDN1m73Gw6BfevUtD2VulOMMpqUP8AYzHB08w5MbevedgC9pn0ZwWomEtThlJNIBYOljD7dV1sqWmgpIhFSwxQxjYyNgaPMEGkn0PweQe1wS07v1oZnNPasOTQ5zD9yYxWMHM2ZrJR6QCusRSYieV24eXRjF2HvZsOqW/tRuid6LhY7sFxFhPG4Y62+Cdrx5jYr0BFicVZ9L1y83koHs8JHUwn95CbecXWMaRxPeSRO6Nax9K9RVqSnhl8JFG/xmgrM4KtRkl5iaKp2CF3XcW865jHpsQoNIomGqhbh7acl0THXc+Una7cABl5SvbXYVQuOdLF5BZWYsAwmKTjGYbScZe+sYgTfrKzOD4+JWMkb+XCaE4JNjLzV4hG8UAHegktMp6Oew3rqZtDqF1zT1FdTnm1Jy4DyOuulAAAAAAGQARdMeOKRpm95tO3HSaKYhFnSYzrdE9OD6WkK3/ROPwZujoqn3uQsPmcPpXaorOOs+ki8x7cbrYjEAJ8MqBb9QNePQfoUCrhJtKx8R3PaW9oXZqC0OFnAEdKzOGrUZLOVhdTP5Lrjoz7FhaU1c1JgVbNhzWOq2ROdEJHarS7mvfmuuvkoKSTN9NCTv1AsefBMNqGhs9HDI299VwuPMs9nS92ZeJ4XiOIVkNHTyPdV4jI0Nk1Bcvfz+Re0aN4UMKw2ON4BqXAGZw53f5bFl0eHUVF7jpKeDpjjDexZSY8XTM2tO5MmTqjUcCIi7uQiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/2Q==</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>1100</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>145</v>
+        <v>750</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>1960</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>130</v>
+        <v>1150</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
@@ -691,9 +691,13 @@
           <t>Water Leak</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Water Leak</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>1250</v>
+        <v>150</v>
       </c>
       <c r="D10" t="n">
         <v>5</v>
@@ -717,7 +721,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -745,7 +749,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1450</v>
+        <v>345</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -801,7 +805,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -829,7 +833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -885,7 +889,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1350</v>
+        <v>610</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -941,7 +945,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>475</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
@@ -960,16 +964,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>NVR Network Video Recorder</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Nvr Network Video Recorder</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nvr Network Video Recorder</t>
-        </is>
-      </c>
       <c r="C20" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
@@ -997,7 +1001,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
@@ -1016,16 +1020,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Ruijie Indoor Wi-Fi</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Ruijie Wifi 6 Access Point (Indoor)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Ruijie Wifi 6 Access Point (Indoor)</t>
-        </is>
-      </c>
       <c r="C22" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
@@ -1053,7 +1057,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>580</v>
+        <v>750</v>
       </c>
       <c r="D23" t="n">
         <v>5</v>
@@ -1072,23 +1076,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Ruijie Outdoor Wi-Fi</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Ruijie Outdoor Wifi Access Point</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Ruijie Outdoor Wifi Access Point</t>
-        </is>
-      </c>
       <c r="C24" t="n">
-        <v>280</v>
+        <v>1250</v>
       </c>
       <c r="D24" t="n">
         <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAMBAAMBAAAAAAAAAAAAAAECAwQFBgcI/8QAOBABAAEDAQMLAgYBAwUAAAAAAAECAxEEEjGxBRQhNEFRUnOBkaETMgYHIiNhcbJCYnKCkqLS4f/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABcRAQEBAQAAAAAAAAAAAAAAAAARAQL/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAiqqmnG1MRnvK6timZ9mdNOznpzVO+e8FY1Vmf9fxKedWfH8SmrPfLOc98+4i3OrPj+JOd2fH8Sp098+6Onvn3CtOd2fH8Sc7s+P4ln098+5098+4Vpzuz4/iTndnx/Es+nvn3Mz3z7hWnO7Pj+JOd2fH8Sz6e+fc6e+fcK053Z8fxJzuz4/iWfT3z7onPfPuFa87s+P4k53Z8fxLGZnvn3VzV3yFdHO7Pj+JOd2PH8S59qe+fczV3yFdHO7Hj+JOd2fH8SwiZ75905nvkK253Z8fxKaNTarnFNfTv3TDKJnvn3a057ZkG0TFUZiYmO+BjP7cxVTumYiqO/+WwoAAAAAAAAAAAAAAAAAAADHVxmi35lPFaNyuq+235lPFaNwEqzCQRGEbKxgFdk2VsAK7JspwnAK7JsrYMAphEwvKAZ3IxRVMU7U4nEZ3vCc219Nu3NO1F6m3Nc1RczFVc5/TMTOMRnf07nnqo6FcA8LqOefUopma6aa64iiIqxV/pjp2Z/5T/HQvpLGtjUW5uRsURiZxirMdOYnM5zujo/t5fBgHHqbV2v6P05qjFzNURVjoc9qzrLXTTExmP1Yq2pnpnv7d27sl5TCYgHBtaya6opiZpoq2ZmIjNWYznp7sxDs0k39ur68Tjs3Y39mP4bRC0QKw1/VLnpxh1uTX9VuenGHWAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4BACASkEAAAACQEIlICFZhdEgqJQCckAC0JyrCYFY6/qtz04w63Lreq1+nGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4AQkREmQBOUZADJkATkygBIgAAAEmAVwYWQAtEIhIMNb1a56cYdTl13Vrnpxh1CgAAAAAAAAAAAAAAAAAAAMdV9tvzKeK0bldV9tvzKeK0boBCexCewRAAAAAAAAAAAAJyZQAZABaEohIrn13Vrnpxh1OXXdWuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4EJ7EJ7BEBIAAAAKAAAAACAAAHYC0JRCRWGt6tc9OMOlza7q1z04w6QAAAAAAAAAAAAAAAAAAAAY6r7bfmU8Vo3K6r7bfmU8Vo3AhICIneEoBIAAKzILCk1IyDQU2kxILCMpAAAABaNyUQkVz67q1z04w6nLrurXPTjDqAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvtt+ZTxWjcARuQmNwiJCd4ABIK1SzmVqmV+qbdi7XTETNFFVURP8RkFh6VpOXOXL+ktXqquT6dqiKp/ZqxHRnxPTOXfzc13JXK9/Qc102p+ls/vWYjYqzET0fq/kH2kh80/Cn445U/EOhq1FmNDp6qa6qPo10ZrmIiP1Yird0vaeROUuU9RyjFnW81mzNFU/t25pqzHrIPZYlaNzOlpAAntAAT2AmEohIrn13Vrnpxh1OXXdVuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG6FdV9tvzKeK0bgQmEJEJQSAIlKKgZyy1XVb/l1f4y2ljq+qX/Lq/wAZB+YNH+aHL8aeNJOk5OpxR9OdqzXE4xjxb3r2h5Oq2Yxcpj/o/wDrf8dWaNLy7ylRa2qYmm3XM7WZzVTTM8XhbWpiaK4i5ejMVbp3Zi5/7R/2wm7Gsyvdvw7q9XyBrqtZo6tPcu1W5tYu2sxiZiZ3T/D69+WXLd7l2bl7VxZi9brro2bVMxEU7MTHbP8AL892dXTOvtVxVdmIuxVszV0fdXOP/LHo+8/k7FurTXb1uJia7tcT053UxjiZtTcj6fSvG5SlpG5UISACexCewEwlEJFYa7q1z04w6XNrurXPTjDpAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvto8ynivG4EACBgAQidyQGdTHV9T1HlV/4y3qhSuIqpmmqM0zExMd8A+Ucq/gvkvl7kSa40elp5R1FFqZ1NymqZxGM7p7ow8TR+VOhpoqiqjR7U56Yi5GMxV/P+74jufX7XJWjtUU0WrOzRTGIiK6uiPdnzfSznFi9MZmMxFWN+O9N5q5sfLdP+WfJ9vVWLs2dFNNFyK66cV4qjamZjf3Tj0h77+HOTtHyZq6LHJ2mt6ezO3XNFGcZxHT8Q8vb0mkrrmj6NymqI2sVTVHR7uixotPZuxct28V4xnameJmQ3a6aWkblaYWhUSnCEigSgFoSiEg59d1a56cYdTl13Vbnpxh1AAAAAAAAAAAAAAAAAAAAAy1P20f86eK0boV1OdmjETP66eK0bgQEgBlAIlAAiWctJUmAVje8beovUZojSV3oznaovRT2zMb+2MvJYMA4tBZqomaqrU2qdnZiiqvanfM7+53QiIXiATC0KwkEpygBORBALQlWFoFc/KHRpLnpxh1OXXUzXpq6aYzM44w6gAAAAAAAAAAAAAAAAAAAARXTFVMxPaz2sTironv7JagMfqUzuqpn1TtRPbHu1xHcAxydPc2AY5MtgGOJnsVxPc6AHNie4xPc6QHP0wZ/r3dADnz/Sc/03AY5My2AY7X9e5tR3x7tjAMduO+PcmuI3zEerbADKmPqTE4/TE56Y3tQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB/9k=</t>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/4SEiRXhpZgAATU0AKgAAAAgABQEaAAUAAAABAAAASgEbAAUAAAABAAAAUgEoAAMAAAABAAIAAAITAAMAAAABAAEAAIdpAAQAAAABAAAAWgAAALQAAABIAAAAAQAAAEgAAAABAAeQAAAHAAAABDAyMjGRAQAHAAAABAECAwCgAAAHAAAABDAxMDCgAQADAAAAAQABAACgAgAEAAAAAQAAAb+gAwAEAAAAAQAAAb+kBgADAAAAAQAAAAAAAAAAAAYBAwADAAAAAQAGAAABGgAFAAAAAQAAAQIBGwAFAAAAAQAAAQoBKAADAAAAAQACAAACAQAEAAAAAQAAARICAgAEAAAAAQAAIAYAAAAAAAAASAAAAAEAAABIAAAAAf/Y/9sAhAABAQEBAQECAQECAwICAgMEAwMDAwQFBAQEBAQFBgUFBQUFBQYGBgYGBgYGBwcHBwcHCAgICAgJCQkJCQkJCQkJAQEBAQICAgQCAgQJBgUGCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQn/3QAEAAr/wAARCACgAKADASIAAhEBAxEB/8QBogAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoLEAACAQMDAgQDBQUEBAAAAX0BAgMABBEFEiExQQYTUWEHInEUMoGRoQgjQrHBFVLR8CQzYnKCCQoWFxgZGiUmJygpKjQ1Njc4OTpDREVGR0hJSlNUVVZXWFlaY2RlZmdoaWpzdHV2d3h5eoOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4eLj5OXm5+jp6vHy8/T19vf4+foBAAMBAQEBAQEBAQEAAAAAAAABAgMEBQYHCAkKCxEAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD+/iiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigD/0P7+KKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAP/R/v4ooooAKKKKACiiigAooooAKKKawyOKAG7x2p4OelQUq8GgCeoy+OBTWOaaOuKAHFieK8O+JXx/8D/CnX7Tw94jE7TXMfmkwqGEcZOATkj06DtXumxa/Mz9rOxsZvi9DfT28N28enwhY7kFo/vOeikc/n9KAP0C8HfEPwX4/tPtnhDUYb1V+8qN86f7yHDL+IrtK/P79mTxbqEd/qE/9hxW1rDCsQ+xLFGhcsCP7meB35rvvjZ+1NL8GrXStSvNHW9jv7+Ky8mGQmX94Dgp8mCcgACgD7Dorwv4cftDfDj4k3Y0bT7hrHVQSjWF2vlTB1+8oHRiMdAcj0r3SgD/0v79lbNOqNF71JQAUUhIAya+dPin8dbLwlG+n6AVmugMFz91fp6n9KAPoG8v7HToDc38yQRr1Z2Cgfia8p1f4/8Awa0JzHqXiG0Qjj5WL/8AoANflv8AED4jeKPFd00uq3UkxPQMTgfQdB+ArwDU7a7vMls80AftrYftL/AbUphBb+KbBWPQSP5f/oYUV7Fpur6XrNqL3SbiK5hb7skLq6n8VyK/m0vPC002SBU/hjXviV8NNRGr+A9VudNlU5IiYhG9mjPyMPqKAP6VaK/Of9nn9uSx8V3dv4K+MccemapJiOG+X5baZugDg/6pj/3yfbpX6KBlCjHNAB5dKy8cU7I7UtADAnFIExT+BWPrPiHQPDlqbzX72CxiH8c8ixr+bECgDZr8qP21vCXinx74w1HRvBoT7fb2ME6b5kg+WIlmCu5UBsHgZGa+m/Gn7c37NvgxXT+3Rqsyf8stOjafJ9NwAT/x6vyY+OPxx8JftHa3qCapNcaPFdXCNaFgkbiOHiIMfmQn1BPNAH6SfsgWck2gTxaj8zmaFJMn+JYcnp714Z+2Tq+h6H8SPB82tXEdnplr4vsGldziOGKGNWdj6Ack17B+ynfXdj8PbvUbLa8sd3hC44+WJVBOP6V8T/t26Z4i8b6t4Y8NWfl3Wp69rnlxRphEM0ieWqDcTtHQcmgD6y+JPgj4e6D8b/AvxU+Gupm8Xxjrw83yplnty2A5eJl6Z7jJH0r9NxX85X7OHwp+I3wy/af8H+C/iFplzpcsWoieOKUfuW2KSXjKkxtwPvLX9G1AH//T/v13jtUYc45pK+efG3xAlu9YOg2eUtkuBbMV4MjbsPz/AHV5GO+PpQBtfFz4gjQdMOnadIPMkX5mXsPQfWvzm8UahcahcNJKxOTXufxG1UX165ThRwAOgA6CvFWsTPKMUAcB/Yj3LdM1pQeEY25K16xp2ibgK7ix8MFwAFoA+e/+EKiOPkrOvfh+kkX3Oa+v7bwnvP3c1al8GZGNg/KgD86fEPw2SRDhOntX2T+z5+1bZ+A/CFx4T+M1xOyaXHusrlY3nlkiXjyWCAsWT+E/3evStjWPBKMGGyvn/wAY/D1Z4nEa7WI+Vhxg0Ae0eGv+CtP7I/ia71fT9OudSFxpMmwxPaFWlXdsDIGIwC3ADbT+leZ+LP8AgqglyHg+G/hn1CzajL/7Si/lvFfmLo3ww0n4tfErS2tJhpOsG4eI3sAGSyB1LEY2tkZxkHsfSv0+0n/gm18KdA8OWM2r6zqN9PE8cbMjLHuTGMH5T6detAHyp40/bi/aO8abojrg0mA5/d6fGsPHpvOX/JhXiFto/wAV/izf7oINT8Q3Dnl2Es/P+82VH51+1vgr9mX4GeCwsukaBBNKmMS3ebh+P9/I/SvoG1gt7OBbe0jSKNRgIihVH4DAoA/FHwh+wt8cvEhV9aittFibGTcyBnA/3I8/kSK+qfCn/BPTwJbov/Ccaxdai3eO3VYI/wAzub+VfoUcAZrzfxt8X/hr8O4ZZfFurw27QDLxLmSUDjH7uMFh7ZAoA8l8Y+Hfh9+zz8Kpn0GzkltYSEtrKa6dIXnccb29Gxzu3egGcCvw5/aN/anT4trpOjeFdGh0nUNGkW68+CR1UFl3I1sy4IVwwYFwHGBwM1+74uvCX7VPw3U6BZf2hpN7IwUXa+Wd1u/Xyz90hgCucdulfi/+0f8Asx3sHjzQvhR+zxo6Q3kv9pTva2qIpmktGCyE7+WxtYAbueAB0wAe1/sQ/Hf4tfG/9obwN4U+Jl/caovh/wC23ED3KBpVVrcg7plHzqCFALcj8a/onr+d/wD4JX3Wv+Ef2jtX8D+PdJn07Vn0uVFDIU2+W6M4dXwycAY6g1/Q0zZ4oA//1P78MZ4r4E+ITPo/iK8s9+xHuXmt5PQlt+36qe3dfxr77HtXw/8AE7yrnUp1kUFSxyp+vT8KAPD9T1mO8lEV2RFM3Y8An/ZP9OtWNOsNxG8YrIv/AAxb6hH5Eb7Q38LfMv681jxeAPiLp/7zwlqAUDpGWyn/AHzIMD8DQB79pGjhsccV61o+gCQKFFfJFjrX7TmikY0K11ED+6ACf++H/pXZWPxk/aescLF8NxKenymbH86APsqw8MggLt7VsSeFotvyrmvjCT40/tr3y+XoXw4trYHo0rPx/wB9SKKx7iw/4KPeNIzDHcaX4djfjKiJWAP0EzfligD6v8UaRpmlWUuoatJFa20Yy0srKiKB6s2BX5G/tG/tYeEwZfA3wTY6tqU+YWvYlJhi3cEQ8Zkk9CBtHvX02P8Agnj8QfiVeLqH7QvxBu9VXgtb2m4r9N0pwPwQV9Q+BP2Vfgx8EIBJ4D0WKO5Awbyf99cH/to33f8AgIAoA/Lj9mr9nzxF4JaPx/46iNrdFSLS1f7yb+DJJ6HHAX8+1fcXwk+PmpfGHxHrfgi30e4hj0CdUE45WQg7cMu35Seq4YjAPSvSfFukx3V/a6YvJuJo0wOuCwBP4Cvq7RPDOh+HUKaPbrFnqepP1JoA4LTfC2tSASMgi4/jOP0FdXb+E4x811KT7JxXYUmRQBnQaRp1tzFEu4dzya/Jb9sX9iLW/H/i6b4qxa7qFnazX8LXEWkQCSaG1BBeXaTl2XHAUHA/Kv17ooA+Gv2azL4J+FVunhuAX2Lm7ESsTHuQzEBjhSQcDpt/KvmT4hXnif4F/tGeHPjz430G9n0K00/Uo5rq1hLRR3d6xddw5ZEycZI4BzX68wWtta5FtGkeSSdqgcnr0p88MNzA9tcoJI5BtZWGQR6EelAH5Tfs8fG/Tf2lv2wrL4j2OlyaU1h4UntJ4ZGV/wB99pU5V1xuXa2BkA+3Ffq7XlPgv4H/AAo+Hfie/wDGPgjRLfTNQ1JQk8kAKqVznCp91Mnk7QM16tQB/9X+/AcdK/P/AOPNrq/g/wAW3F7YIZ7GaMzvEBukBJ52j+Jeuccr7jFfoBXnHxI+Hlj4/wBI+yyN5VzFzDJ6H045A+lAH52aN4l0rVY1urdx5fTePmX6ZHT0wQK9i8OTQz8wMrj1Ug/yrhtd8C654Cvni1Kw+zJK+fNRR5bnpu3Lxk+/NbugR2UzIzIrEdDjBH0NAH0j4djDbPSvbtGiQRhl9K+dfD8VsCpjeSM+zn+ua9v0a3jkQJ9pmH/A6AO34oyB+FZY0sHrPMR6b68c1fxf4nTW7jQdD8K3Nz5EiRi5nfED5ZRuB5+VVOScdsUAe0zanYwnaZAW/uryfyFc3rMt/ewmOGLyEx9+Tr+CD+uK5PwVcfEqXxVft4qsYLLSPs8ItFRgWEmBvBweec9QMYGM9vR7+JrsCNDtHr/9agDxrSvDy3Xi23IBcQHzpGbnOz7o9ByeB0r3PIArP0+xttPQrCOWOWY9TV5gD0oATfTO+aMYoxQA7L1NUAz0FPTPWgCSiiigAooooA//1v76w5707eKb5b+lHlv6UAQzRRXEbQzoHRuqsMj8q8U8efBbTvEMDXnhK4/sW/A+Vo0VoW/34yMfiuK9x8t/Sjy39KAPzh1pf2lfhxKRe6Ra6lbJ0nhR2BA7/Ixx/wB8io9O/ad+Itn+7uNCtQ3/AF0kX+lfpF5b+lUZ9H0+6bddWsUp/wBtFP8AMUAfDtt+1F8TbpFhstFslY9Pmlc/kMV3+ia/+0h41ZdqwaVbtx5vkBMD28wsT+Ar6mttLs7Pm0to4v8AcRV/kKt7H9KAOE8LeDptF/0zW9QuNVvSOZJ2+RfaOMfKv867iniNx2pSjntQA1QCeaCChxT2QntTfLf0oAXBfp2p23IxTQjjjFAWRegoAQfK2D9KkAA6Uwo57VMFJ6UANop+w0bDQAyin7DRsNAH/9f+/iiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigD/0P7+KKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAP/Z/9j/4AAQSkZJRgABAQAASABIAAD/4QCARXhpZgAATU0AKgAAAAgABQESAAMAAAABAAEAAAEaAAUAAAABAAAASgEbAAUAAAABAAAAUgEoAAMAAAABAAIAAIdpAAQAAAABAAAAWgAAAAAAAABIAAAAAQAAAEgAAAABAAKgAgAEAAAAAQAAAKCgAwAEAAAAAQAAAKAAAAAA/+0AOFBob3Rvc2hvcCAzLjAAOEJJTQQEAAAAAAAAOEJJTQQlAAAAAAAQ1B2M2Y8AsgTpgAmY7PhCfv/AABEIAKAAoAMBIgACEQEDEQH/xAAfAAABBQEBAQEBAQAAAAAAAAAAAQIDBAUGBwgJCgv/xAC1EAACAQMDAgQDBQUEBAAAAX0BAgMABBEFEiExQQYTUWEHInEUMoGRoQgjQrHBFVLR8CQzYnKCCQoWFxgZGiUmJygpKjQ1Njc4OTpDREVGR0hJSlNUVVZXWFlaY2RlZmdoaWpzdHV2d3h5eoOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4eLj5OXm5+jp6vHy8/T19vf4+fr/xAAfAQADAQEBAQEBAQEBAAAAAAAAAQIDBAUGBwgJCgv/xAC1EQACAQIEBAMEBwUEBAABAncAAQIDEQQFITEGEkFRB2FxEyIygQgUQpGhscEJIzNS8BVictEKFiQ04SXxFxgZGiYnKCkqNTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqCg4SFhoeIiYqSk5SVlpeYmZqio6Slpqeoqaqys7S1tre4ubrCw8TFxsfIycrS09TV1tfY2dri4+Tl5ufo6ery8/T19vf4+fr/2wBDAAEBAQEBAQIBAQIDAgICAwQDAwMDBAUEBAQEBAUGBQUFBQUFBgYGBgYGBgYHBwcHBwcICAgICAkJCQkJCQkJCQn/2wBDAQEBAQICAgQCAgQJBgUGCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQkJCQn/3QAEAAr/2gAMAwEAAhEDEQA/AP7+KKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAP/Q/v4ooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooA/9H+/iiiigAooooAKKKKACiiigAooprgkcUAIZB2/wA/pTgQeRUFOU4OaAJqjL44H+f0prNk0g5OKAFLE8GvDviV8f8AwP8ACnX7Tw94jE7TXMfmsYVDCOMkgFssCckHgc4r3TYtfmb+1nY2M3xfhvp7eG8kj0+ELHchmj+/Ieikc+/P0oA/QLwd8Q/Bfj+0+2+ENRhvVH3lRvnT/fQ4ZfxArs6/P79mTxbqEd/qE/8AYUVtawwrEDZLFGhdmBGTlCeAeuTXffGz9qaX4NWulaleaOt9HqF/FZGGGVjLmUNgp8uCcgADvmgD7Dorwz4cftD/AA3+JV2NG0+4ex1XJRrC8UxTh1zuUA8MRg5AOfavc6AP/9L+/ZWBp1Rop6mpKACikJAGTXzp8VPjrZeEo30/QCs11ggueVU+3qf0oA+gby/sdOgN1qEyQRjq0jBQPxNeU6x8f/g1oTmPU/ENohHB2sX/APQA1flx8QPiN4o8V3TTatdSTknIDMcD6Dp+Qr5/1O2u7zJYn5qAP21sP2mPgNqUwgtvFNgrnoJJPL/Vwor2LTdX0vWbYXuk3EV1C3KyQurqc+6kiv5tbzwtPOSQDU/hjXviV8NNRGr+A9VudNlU5Iic7G9njOUYfUGgD+lSivzn/Z5/blsfFd3b+CvjHHHpeqSkRw3y/LbTt0AcH/VOf++SfSv0UDKFG05oAPL/AM/5NKy5HFOyD0paAGBOOaAmDn/P86fkCsfWfEWg+HLU3uv3sFjEOd88ixr+bEUAbFflR+2v4S8U+PfGGo6N4NCG/t7GCdN8yQfLCS7BXcqA2DwMjPSvpzxp+3N+zb4MWRP7dGqzJn91p0bXBJHbcAE/8er8l/jj8cfCX7R2t6gmqTXOkRXVwjWjMEjcRw/6oMfmQn+8CeTQB+kv7IFnJPoE8Wo5d2mhSTJ6ssOTyOvNeF/tlavoeh/EjwfPrVxHZ6Za+L7BpXc4jhihjVnY9cAHJNew/sp313Y/D271GyKvLHd4QyZwdsSqC2Ov4Yr4m/bt0zxF431bwx4as/Lu9T17XDHFGnyIZpEEaoNxOB0GWPuaAPrL4k+CPh7oPxw8C/FT4a6obxfGOvjzTFOs9uWwHZ4mXOM55GSOe1fpuK/nK/Zv+FPxH+GX7T/g/wAF/ELS7rS5YtSE6RSg+S5RWJkiKkxtwOWX8a/o2oA//9P+/XeD0qMO2Bk0lfPPjf4gy3esnQbPKWy3AtmKnBkfdhznP3V5GO+D7UAbfxc+II0HTDp2nSDzJVyzKeg9Afevzl8UahcahctJMxJJJ617n8R9VF/euU4UcADoAOgrxZrE3EooA8//ALEe5bOMn3rSg8IxvyVr1jTtELAV3Fh4YLgALQB89/8ACFRNjKVnX3w/SSInZz9K+v7bwn5h+7mrU3gwkY2igD86fEPw2SRDhOntX2T+z5+1bZ+A/CFx4U+M9xOyaXHusrpY3nlkiXjyWCAsWT+EnqvBPFbOseCEYNlK+fvGPw9WeJxGpRiDtYcEH1oA9o8Nf8Faf2R/E15q+n6ddakLnSZNhie0ZXlXdsDoGIwC3ADbTn6jPmniz/gqil0Hg+G/hnnkLNqMv6mKL+RcV+YmjfDDSfi18StKa0mGk6ybh4jewAZLIHUswxtbIzjIOeD1wa/T7Sf+CbXwp8P+HLGbV9Z1G+nikjjd0ZULJjGCdp9OvX3oA+VPGn7cf7R3jXdE2uDSYGz+70+NYeD23nc/5MK8QttH+K/xa1DfBBqniG4c8uwln592bKj86/a3wV+zL8DPBYWbSPD8E8qYxLeZuJMjv8+Rn8K+gbWC3s4FtrSNIo1GAqKFX8hxQB+KPhD9hb45eJGV9aittFibGTcyhnA/3I9xz9SK+qfCn/BPTwLBGp8caxdai38UduqwRn2ydzfyr9CycDJrzbxt8YPhr8O4ZpfFurw27QDLxLmWUA4xmOMMwznjOM0AeTeMvDvw+/Z5+FU0mg2cktrCwS2sprt0ieeQcb3yMhsc7t3oBkgV+HH7Rv7U6/FxdJ0bwro0Ok6ho0i3fnwSOqgsu5GtmXBCuHDBnAcYHAzX7wC78JftVfDdToFl/aGk3sjBRdr5bbrd+pjPKkMAwJIPQ4Br8Xv2kP2Y72Dx5oXwo/Z40dIbyb+0p3tbVEUzSWjBZSS/LYKsAN3PAA6YAPbP2Ifjv8Wvjf8AtDeBvCnxMv7jVF8P/bbiB7lA0yq1uwO+ZR86ghQC5yDjnmv6Jq/nf/4JX3Wv+Ef2j9X8D+PtJn07VpNLlRQ6Mm0xyIzh1fDJkAY6g1/Q0zZ4oA//1P78MZ4r4F+ITSaP4ivLPfsSS5ea3k9GL79p91Pbuv4199jOeK+HvicYrrU7hZFDKWOVP1PH4GgDw/U9ZjvZhHdkRTMehOAT32n+nWrOnWBZhvBGax7/AMMW+oRmGOQqG/hb51/Xn9ax4vAHxF04+b4S1AAdRGzbk/75kBA/A0Ae/wCkaOGx6V6zo+gCQKFH418kWOt/tO6KcjQrXUgD1VQCfxRx/KuysfjL+09Y/LH8NxMenymbH6E0AfZVh4aBAXb1HWtiTwtFt+Vc+tfGEnxp/bXvlMWhfDi2tgejzM5I/wC+5FFZFzYf8FHvGkZhjuNL8Oxv/EoiVgD7gTN+WKAPq/xRpGmaXZS6jq0kVrbRgl5ZmVEUDrlmIFfkZ+0b+1j4TBm8DfBNjq2pT5he9iUmGLdwRD3lk9CBtB9TxX02P+CePxB+JV6uoftC/EG71Vcgtb2hcqfbfMcD8EFfUPgT9lX4MfBCAS+A9FijusYN5OTNcH/to33fooFAH5c/s0/s+eI/BLR+P/HUTWt0VItLV/vJv4MknoccBevJJ5xX3D8JPj7qXxi8R654It9GuIY9AnVBOBlZCG24ZduVY53LhiMA5x39J8XaTHdX9rpi/MbieNMA84LAMfwHevq/RPDOh+HUKaPbrFnq3JY59SetAHBab4W1qQCR0EWRzvP9Bk11Vv4TjB3XUzH2Tj9ea7CkyKAM6DSNOtvmiiUt6tyf1r8lv2xf2Itc+IHi6b4rR67qFnaz38LXEWkQCSeG1DBnlKk5dlxwFBwPXpX690e9AHw3+zWZfBPwqt08NwC+xc3YiV2Me5DMwDHCMQcDpt/KvmP4h3nij4F/tGeHPjz430G9n0K00/U457q1hLRR3d65kXcOWRNxxuPQHPNfrzBa21rn7LGke4knaoXJPJJx60+eGG6ge2uUEkcgKsrDIIPYg9RQB+U/7PHxw039pb9sKy+I9jpcmlNYeFJ7SeGRlk/ffaVbKuuNy7XwCQD1445/VyvKfBfwO+FHw68T3/jHwRolvpmoakoS4kgBVSudxCpnamTydoGT1r1agD//1f78Qcc1+f3x6tdX8H+Lbi9sEM9jNGbh4lBaQMTyVHVl65xyvuOn6AV5z8SPh5Y+P9I+yyN5VzFkwy+h9CRyB9OaAPzs0bxNpWqxrdW7jy84Lg7lB9CQOD2wQDmvYfDk0Nx80DK49VIP8q4bXfAuu+Ar549SsDbJM5JlQDy3bpu3KMZPvg1u6BHZTujNGrEdDjBH0NAH0j4djDbM9K9u0aJBGHU54r518PxWwZWjkljPqJGP8ya9v0a3jkQIbmcf8DoA7fjvRuA79KzBpYP3p5iPTea8b1jxf4oTXLjQdD8K3Nz5EiRi5nkxA+5lBYE5+VVbcTjsRQB7TNqdjCdhkDN/dX5j+Qya5vWpr+9hMcMXkIR/rJev4ID/ADIrk/BVz8SpfFV+/iqxgstI+zwi0VGBcSYG8HBOcknqBjAxnPHpF/E92BGh2juTzj8KAPGtK8PLd+LbcgFxA3nSu3Odn3R6Dk8DpXuZIArO0+xttPRlhHzOcsx6k+9XmAPSgBN/NNJ5zRgjrSYNAD9zmpagBPQVImTyaAH0UUUAFFFFAH//1v76w5zzTvMX/P8A+qm+W/pR5b+lAEM0UVxG0M6B0bqrDIP4GvFPHnwW07xFA154SuP7F1AD5WjRWhc/7cZGPxXBr3Hy39KPLf0oA/OHWl/aW+HExF7pFrqVsnSeFJGBA7nYxI/FRUenftO/EWz/AHdxoVqG95JF7/Sv0i8t/SqM+j6fdNuurWKU+rorfzFAHw7b/tR/E27RYLLRbJWPTLSufyGK7/RNf/aR8aupVYNKt24MvkBMA+nmF2P4Cvqa30uzszm0to4v9xFH8hVvy5D1FAHCeFvB0+if6Zrmo3GrXrDmWdzsX2jjHyr9eTXcU8RuOcUpSRuSKAGoATzQQUapGRm5waZ5b+lAC4MnTtTtuRjvTQkg4x1pQsi9BQA0fK2D9KkAA6Uwo5OcVMFJ5FADaKf5bf5//XR5bf5//XQAyin+W3+f/wBdHlt/n/8AXQB//9f+/iiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigD/0P7+KKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAP/ZAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAb8BvwMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAAAQMCBAUGB//EAEIQAAICAQEEBgcGAwYGAwAAAAABAgMRBAUSITEGE0FRYXEiMlKBkaHBFDNicrHRI0LhFUNTgpKiJCVUY5OyNETw/8QAFAEBAAAAAAAAAAAAAAAAAAAAAP/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/APuIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEASCABIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAAJIAEgAAAAABAAAAAAAK7b6qY5tthBeLwWHjtdqZXau2cuPpNJPsQHsK5xnFShJSi+TTymZHiaNTPTy3tPZKpt8d3k/NcjrabpBu4WrhvL26vrH9gPQAo0us0+rhvae2NiXPD4rzLwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyCSAAAAAAASQSAIAAAAAASBAJAEPkeG6qzUaiajKut77+9ljPHsS4nuZeq/I8dOMZ5UoppvlgDOvZVXDrtVJvtVccfPibdWh2fU/uVY0sZsbl/Q5u7bD7qxv8M3lfEfapw4Wpx8ez4geo2ZuZsVcYxisLEUku3uN44exNXVCq6VtkI+kucvA6D18X9zTda/wwwvjLCA3CDRlqNXJZUKal4yc39F8zi7W21qtn6umMbozU095SgsdncB6kHF0fSLT2pLUxdMn/MvSj+696OvXZG2KnXKMovk4vKAzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAASBAAAAEgQAABJBIAAAYz9SXkzx2VjLPYXPFM3+FnkYccAYQshOOYSUl4MywnzOA5yrtcoNp55o7sW3FN82gPRaSqquitwrhFuKziKRbJ4RjUsU159lGzGmOPSWWBpTlwZ47pTL/i6fCLfzPW630Npxri8QenbcVyzvLD/U8b0of/AB0Mdlb/AFA6mn2TZHYi1ysbnuqbh2buP1KNNqbKZ9ZRZOqXa4Pn5rkz1Oj07t2FDTqW650KOe7geX1OyNfoeNlXWVJfeV8V+6A9Dsba9mps6jVKO+/VnHhvea7ztI8Rsmx/bqcdssHtlyAkAAQSQAJAAAAAAAAAAAAhtJZbSXiBINO/aNFXJ777onO1G2bXlVKEfHmwO7kjeiubx5nk7to6mfO+Xkng07L5y5zb94Htush7cfiTvxfKS+J4CUzDrJR9V4A+h54DJ8+hrdTW8wvsj5SZuUdINo0tZtjYu6cc/MD2pJ53S9KapPd1VMoP2oPeXw5na0ut02rjvae6Fi7ovivcBsAhMkAAQBIAAAAAAABBIAAAAAAAAAAACrVPGmtfdB/oeTrT3kj1WueNHe/+3L9DysHuyzjOE2BxdobP1ehsxqaJRTfCa4xfvOvH1V5GV/Sq7UxcaaKIQf8Ai5nn3cER/Ml44A9LFfw4+SN1cEjTfCKXgbnYByNdx2u/DTL5yf7Hi+k7ztFruh+57HWS/wCbX+FMF85HiukMt7aT/KgPpGiW7pao90Ui/B802dtzaOz5/wAG9zh213Pei/qvieo0XS3SXQ3dbB6WePWlxhnz7PeByNkve2zUv+6/qe6XI8F0de/tuj80n/tZ74AAAIAJAAAAAAAAAEN4IlJRWZPCOdq9a3mMOC7wNjUa2FWVD0pfI5Gq1llnryeO7sKrbMmrKQE2WZKJyJkytgYyeStlmDFoCpoxcS5xIcQNdxMd02dwxcANZxEJzqkp1ylGS5OLwy9wMXWB2Nm9Jr6moa1dbX7a4SX7nqNJqqdXSrdPZGyPeuzzPnbgW6TU36K7rdNY4S7e5+aA+jEHK2PtmraMdyaVd6XGHf4o6wABkASAAAAAAAAAAAAyAAMLbqqY711kK4985JIDMHJ1PSHZtGUr+tfdWs/M5Oq6Xy5aTSL81svov3A7G3ta9Lp4VRinLUS6vLfJY4s89Z6UJQTabTWVzRztdtnXa+yuV7rSreYxhHC7vMV6+MuFnoPPbyA0v7N1dFsVBq6DksyXBpeKO9CWbI/mRQpZWS3TcdRV+ZAeqkTftLR1SdctRCVi/u68zl/pjlkS5lEkoxajFRWc4SA0LLJX6nU6l1yrjNRjCM+bSzxa7OZ5Dbb3tqWY8Ee0vXA8Pth/8zvfc1+gFSLIHUl0b2gtJDUVKNyksuEfWX7nMxKEnCcZRkucZLDQHa6LLO2KvCMn8sfU94eH6ILO1s91TfzR7gAAAAAAAhgCQQAJIlJRWWGzn6y/eyuxAYavUOTfHh3HNtnlmd08mtNgYSkVtmTMWgK2Q0WYGAKt0bpduk7gFG54Dc8DY3fAbngBrbngNzwNnd8A4eAGo6/AxcPA3NzwMXWBpOHgVyrN51+BhKsDQSlCSlFtSTymuaPXbB2ytbH7PqGlqIrg/bXf5nmpVleJQlGUG4yi8prsYH0PmDm7E2mtfRieFdBemu/xOkAAAEgMquvqojvXWQrj3zkkBaDkanpHs2jKVrtl3VxycrU9LpvK02kUV7Vks/JfuB6vJhbdVTDfushXHvnJJHg9Rt7aOo4PUOEe6tbpzpylZNzsk5yf80nlge71HSPZtOcXO191ccnK1PS2TytLpV+a2X0X7nmAB09Tt/aV+c6h1x7q1g5tkpWz3rZynJ/zSeWQQAQBMYubxFZ8gCSIlBM3tPszWXY3KJY73wOlR0aulxvtjDwQHnq5WUS/hTaXanyOzsedup1FclRPdhJb04xbivedmjo/oqsOxStf4mbj2bo2knSt1JrdUmovzXJgNRr9LTZ1c749Zz6uHpS+CyzWnqrrP/j6K1rslc1Wv3+Rv1VV6eG5RXCuHswikvkcna3SHZmy7FVq78WS4KMIuT+QFkvtSrlK/qvy154e9/seH2q97aGpx7WPkezt11FullZW3uOOctY/U8btzadOs1VcqNM4QrrUJTXOb7W18gPcbF6R7P1NcdPZP7PdH0VG3gpeT5G9trQ6fU6K6d9UZThBuM8cVw7z5bCcbI8GmmdLRbT1ul08tPTqJdRKLi6pcYpPu7vcB3uhaztC145V/U9qeN6DrOp1D7oRXzZ7IAAAIAABgAACq66FS45y+UVzZrb875Ym8Q7Yrlj6gXaq3dg0jlXT55NjUzy3+ho2SArm8lMiyRg+QFbGDLBkkBgkSoFiiZJAVqJKiWKJlugVbhO6WqJlugUbo3C/dJ3ANfc8CHA2dwjcA1HAwlA3HAwlADSlAonWdCUCqcANXS3WaPUQup9aPZ3ruOhtHpRqqq97TaKG6168puXyWDSnWUSbrTfY+YHF2v0s12pvhDr9XpXBZctNbFb3DtTi+06Wyem2rnXKLdcuCUFZlyXDta5s1NobM0+rfWQhFT7sczi103bNunqNLHFkU1jdz8gPUazb21rV/EunVB+xHdXxOa7ZWTc7JSlN85SeW/eadF2io2N9oplKvaV9rjfWt5pwzz4+42I9XNKVTw+58gLU0ZIpy4vElgsi88lnyAyJNinQaq7HV0Sa8VwOlp+jmqnh2ThWviBxQsvhFN+R6zT9HNJW11spWeHJHSo0Ol06XVUwXkgPF0bN1mox1dEsd74HSo6NXzw7rYwXbjiz1SXcAOPp+j2jqac96x+LOlTpNPTwqphHHci4AOQAAdgAA1NqXvTaK22PNR4Hj9fKGzYX3UuTsfKXbJv+p67aVXXaeUGsqXBnhNdsXV/2ctK7J2yps36pd8e5+K7GBo656/QavT/bNU7LbYNyrUnwT5rHvKq1mPE3dLsTXPUfa9oTi3GG7CG9vPPYvLmakp6au111XqyK5T3HDPxAwdCct6OYy70ZxlbXwnHfj3rmWRLIcQPW9ApKf2qa5eiuXmewOZ0dqjTsbSKEd3Nak/Fvjn5nTAAEAAAAKNVqFRBcN6cnuwj3svORdPrtbdPPCt9VHw5N/PHwAnekm5SlvTl60n9PAtpkuo30+MmzS1M3CmySfFRbRsYjXRVXHlGCSAqtZqzLpsokBgzFmQAxwZJEpGaQEJGSiZJGSQGKiZbpmomaiBWomW4WKJKiBWok7haomSiBRuEbhsbpG4BruBg4G04mDiBqygVSgbjgVSgBpSga91SlFrvWDoTgUzh38gPPVWtNxl6yk4vzMdRBWPefBvgzG+S/tDVOPq7+EvFJJ/NMmbzXLyYGxo9gvU43lw8jvaPo1VDi4p+ZdsaX8GtvnKKb+B24S8QOTq9haR0wdkE92SwX6bQaOj7vTwT78G7q+NK/MimIGccR9XgvIkhMkASQSAAAAAMACrUamnT17901GOcZ8Tny21CdnVaLT232YbwlhfuB1TGUowjvSaS8TyOu27tSTlCrc07XB4jlr4lnRrU6i3Xzjq7LL5Tj605t4x3ID0dtyksQhKXjjC+ZpW1ybz6MfJZZ04V781HsfM2I6WlPLgpPvfEDzOpr3U222/E8A61Le4cMnvKpTnsqu2yTlJ15bZwOi2zqNpbSdGpi3Wq3Lg8dqX1A4MOtp+7eY+zLkbNWri/RmnCXjy+J6javQ2+rNmz7Ovh/hyeJryfJnmbdLKqxwurcJx5xlHD+YH1XZDX9m6aMXlKqH6I3TznQaLjsZrLwrWopvkuB6IAAAAAAg4cfRv1UJc1dJ+58Ud04mvi6rnqIr0Wt2xeHYwMLUpwlF8msCm3fpipevH0ZLxRi2msp8CqalGe/DDfau8CyTKpGSsjZxj70+aMXzAxJSBkgCM4oRRnFAEjNIRRZFAQkWKJMUZpAYpGaiZKJmogYKJKiWJGSiBTujdL90jAFG6YuBsYMHEDWlAqlA23ErlHPIDSnE5+1dXHQ6aU3h2S4Qj3v9i3a219NoU64tW3+xF8vN9h5HU6m7WXu3USzJ9nYl3ICI57Xlvi34mxVXPUThRBZlY93y737kU1QlZNRim2+CSXM9NsrZq0sestX8aSx+VdwHR0kVCcYx5JHUhKMVmUkl4s5UUpWpOUku3deMnL1W3np9SoabTxsUnurhmU2B6bUWxlUlFt+kvS3Xj4mMTS2ftOO1NC7OrlXZC1QshLsf/5m4nkDMyRjlGcYTfqwfm+AEkFkaJfzNLyWTNUQ7VnzYFGfj3LiZxhOXZjzNhJR5cCQKVRx9KXuRnGqC/lTfe+JmAOL0oX/AAlS7Os+h4TW6idWqs3JyhhKLcZY4YyfRdr6GeuphCuSUoyz6XJnE2j0e0mn0Ur7K+t1M5JTnvPHuXIDxOzdpJ62OllCe5Y+En2P9T13R2GNoPC5QZZ0Z2Ns3rr57qndXj0X/KmuZZsGG7rLPCD4gei0/wB57i+bxCT7lk05XOhSnCqdsuyMWk38Wkaeqv1+qqlV/D0sJrDcXvzS7cckn8QOW1ubBrXdp1/6nP6AxztS6Xs1Y+LX7HV2so1bNshBYjGvdS7lg4vQzW0aPaE/tElBWqMYybws5/qB9DPJ9PYx6rRvdW85y4444wi/a3SW3Z21ZaZaeFtMUt5qWJZfd2HK6TbW0m1q9I9JNt1uW/CaxKD4c19VwA73Q2ONiwftTk/nj6HcOR0Tju7C06/M/wDczrgAAAAAES9VnNv5vuOlL1Wc2/mwObOuVL/hLMHxcO7yIjOM1mLT8O42LCiyqM3l8H7S5gVzinx5PvRX10ofeR3l7S/YzcbI80prw5lbknwfB9z4MC6uyuzjCaZakc+dUXx5S+BirdRV6s213NZA6iRbFHLhtKUfvKV/lZsw2ppv53KHmsgb8UZxRrV63SS/+xWvzPd/U2arap+pbXLykmBZFFkYkRw+1fEtigCRmokpeRlwXagIUTLBjO+itendXHzkka1m19nVrMtbp/KNib+QG3gYRybekuzK/VtnZ+WD+ppX9Lq1w0+llJ/jkkB6JorscYRcpyUV3tnjtT0m2hblRlXTH8EePxZx9Vrbr5Ztuna/xybQHstdt/Z+mTULOukuyvl8eR5jaXSLV6vMKX1Fb9jn72c6FOo1Et2Fc5+CidbRdF9dfh2xVMPxc/gBwkm+fFs6Oz9karWtblbjDtnLges0PRzRaTdlOPW2L2uXwOnuKMUopJLlhcgOPodlUaFZS3rO2b+hsTjg2pIpsQGsuM8d6PO37N2itbVbpIx365Pdm2se89NpqZ3ajdg0mlltnTr0MU82WSk/DggOdsbZk9PpJQstUtRba7bZ44Zfd5HUhpYx9ZuXyLa64V+pFIzAxjCMfVil5GQAAAAAAAAAAwtrhbW67IqUZcGmZgDz+s2A4Xx1Wz7Jwujy3ZYeO7PavBlex6p06u1WwlFqPJrxPSEYWc4WQNRVznyi/eStG2/Skl5I2wBqT2dprIShbX1kZLDUmea2p0PjiUtnSTT/ALm1/o/3PYDtA+W6mi/TWuvVVzrsXZNPODHC7eR9M1Wj0+rqdWqqjbDukuRw5dEdM796GptjV7DSb8sgdLo5Fx2LpU/Yz8eP1OkYVVxqrjXBYjFYSMwAAAAADGx4g33HOv8AA6bOPZNKcodieE+7jyApmVMtmVMARKKksSSYJQGD08HyzHy5GD0U/wCWefNGyjOIHNnorXyrz5M1p6S2P93NeaPQIziB5aVElzi/gVyqx/L8j2O6nzSfmiVRU+dUP9KA8Xutcm15MN2LlZZ7pM9r9i00udMPgZLZ+kfOiHwA8PvW/wCLZ/qZhJSl6zk/Nnvls7Sf9PD4GUdDpY8qK/gB886jL9Gtt+CM46a2XKuXwPoi09C5U1r/ACosUVH1Ul5ID59XsrXWeppbfDMWbVfRraNnrKFa/Ez3AA8nT0Pzx1Gqf+VHT0vRvZ1DTdbsf42dkAVU6emhYpqhBfhWDNoyAFMkVSRsSKZgUTRr2I2Z8m3yXM05p3LKyqs8/b/p+oFuyFvX22dm6lHyydU0dmR9GyWObSRvAAAAAAAAgCQQSAAAAAAAAAAAAAAAAAAAAAAAAAONtKvqJSsUXKt53o5z3v8AVnZNTXpRrc2spLigOHXc3FtJzguGFxlHw8TNSU470Wmu9FK0fUXK2qyUoyi97L+hrU6mNk2rZQrt5ZjLDl2cV7gOgEU79kHicVNe1Dn8DOuyE5bsZel7Pb8ALkWRK0ZxAtRZErRZEC2JZAriWxAsiiyKMIliAyAAAAAAAAAAAGM5xgszaiu9vBX12993XKXi+CAzfLJrXWxjLcS3rPZjzXn3Fjrsm822YXsw4fPm/kFCNcd2uKjHuQGrKp2cbuXZBcl595hbwTNmZQ4uc4w9oDb0Ud3Tx8eJeRFbqwuRIAAgASQAJIAAAAAAAJAAAAAAAAAAAAAAAAAAAAADC2G/BozAHn7q50Te4t6HbX2ryNK+mvUp2Qe7Nc2uD8mej1el65b0OE/1ONZWoWvKxPkwNDR1X02OFjbjj0cvPHOTclGM47s0pLufEMlMCFXu+pZOPhnK+ZbHro8tyfxj+5jEsiBlG1rhKqafhh/oWxvrXrNxfimjGL4FsQM67q5PEbIN9ykjYgUbsZL0oprxWSY0Uf4Nf+lAbUS2Jqxpr7E15Ta+pYqId9n/AJZfuBsEZKlRDvs/8sv3J6iH4n5zb+oFhi7a4vErIp+LMfs9PN01t97ijNQhFYjGKXggMOvhnhLPksjrW/Vrsfux+pY5RjhNpZeF4mvPV0RUn1mVFNy3VnGHj9QLM3PlGEV4vL+AdcpetbLyisFNetrs3Go2JTnuLfg49meTOPdtix7QnOdV32CqxVdZDgt7OHnvWf0A78Ka4PMYre9rt+JYQuRIGMiqRZIreXwSAqs7lzZZp6t305es/kZRrS4y5loAgkAQAAAAAAAAAAJBAAkEACQAAAAAAAAAAAAAAAAAAAAAo1Gmrvjia4+0uZeAOHqNn3VZcf4ke9c/gafJ4fA9OU3aWm77ytN9/JgcJMsizds2WuddnukvqaV0J6aSjcsZ5PsYFsS2JrQmnyafky2MgNiLLYs14stiwNiLLIsoiyyLAvTJKlIzTAyIZIA85qNJqvtV0K65SjprHqaH2Sk8ej/7fEzns3Vz00oRjiU9Nh5lj+I57zO/2EZS5vAGnLZ6VmnlVKWKrXZLfnKTl6LXNvxNZbDqV8m77Xp3b1v2d43N7Oc/0N+zXaar17oJ9yeWa0trVylu0VWWS5LhgDoEZKqeukt67EW/5YloENZJXAAAAAJBAAkgEgQCSAABIEAAAASBBJBIAAAAAAAAAAAAAAAAEAACQQAJBAAAAAY2Vwtju2RUovmmZADh67YfFz0zf5c4ZyJLV6d466yLXY+P6nsyq/T1XxxbBS+gHkltDWQ/njL80EWw2vqlzqrfxR1tRsSD40Tx4SOfdsvUVc6m13x4gI7btXPTx90mWx25Lt03+40epa5przCr4gdBbcl/03+/+hktu2dmmXvkc9VmSrA3XtvUv1aa15tsxe1tdPl1UfKJrKBfVpbLH6Ncn5IDGWs1036Won/lwv0K92dj9Oc5P8UmzpUbLsf3jUV8Wb1Oipp5R3pd8gOXpdnWWYeNyHe/2OtptLVp16EfS7ZPmXgAAAAAAAACSCQwIAAEkAlAQSAAIJDAgkgICQAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAxlCMvWin5oqlo9PLi6YfAvAGt9g0v+CviStFplyph70bAAwjTVH1a4ryRmAAAAAAACSAAAAEkEgCAAAAAAkgAAABIIAAAASAAAAAAAAAAAAAAAAAAGBgkARgYJAEYGCQBGBgkARgYJAEYGCQBGBgkARgYJAEYGCQBGBgkARgYJAEYGCQBGBgkARgYJAEYGCQBGBgkARgYJAEYGCQBGBgkARgYJAEYGCQBBIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB//Z</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1105,7 +1109,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
@@ -1129,7 +1133,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -1153,7 +1157,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>1750</v>
       </c>
       <c r="D27" t="n">
         <v>5</v>
@@ -1181,7 +1185,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>99</v>
+        <v>1100</v>
       </c>
       <c r="D28" t="n">
         <v>5</v>
@@ -1209,7 +1213,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="D29" t="n">
         <v>5</v>
@@ -1237,7 +1241,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>99</v>
+        <v>350</v>
       </c>
       <c r="D30" t="n">
         <v>5</v>
@@ -1265,7 +1269,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="D31" t="n">
         <v>5</v>
@@ -1293,7 +1297,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>99</v>
+        <v>400</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
@@ -1321,7 +1325,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>99</v>
+        <v>550</v>
       </c>
       <c r="D33" t="n">
         <v>5</v>
@@ -1349,7 +1353,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>99</v>
+        <v>1050</v>
       </c>
       <c r="D34" t="n">
         <v>5</v>
@@ -1377,7 +1381,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>99</v>
+        <v>450</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
@@ -1448,6 +1452,126 @@
           <t>data/product_images/Smart Screen_20251128_143404.png</t>
         </is>
       </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nice Automatic Gate Motors Sliding 2500Kg</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NICE automatic gate motors sliding 2500kg</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4600</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAMCBAUGCAcB/8QASBAAAgEDAQQFBwgHBAsAAAAAAAECAwQRBQYSITEHIkFRYRNCcYGRscEUFTJScnOh0QgjNUOCkrIWM2JkFyRFU2Nlg5PS4fH/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBf/EACARAQEAAgICAgMAAAAAAAAAAAABAhEDMQQhEpEFUXH/2gAMAwEAAhEDEQA/AOqQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADeFnsAAtK+o2dDPlbmjFrs31ksbjaTT6SbjOdVrspwz78E2MyDSdR2/p2qbp6JqtdLthGD90mzV7zppt6FTyfzLcQn9WtV3H7MCWUevA8Wl02PzdJpr013+RVT6am31tJp+qu/wDxKPZweS0Ome1bxW0mqvGFdP3ozWndK2g3MlG5hdWmfOnBSj7U/gB6ADG6Vrul6tj5uv7a5fPdp1E5L0rmjJAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGv6ntNb2tSdKjHytSLw23iKfxNfu9durvKlc7kH5sOqvzJRu13qFraL9fXpwfdnL9hhrramhHKtqM6j75dVfmalLPFvj45KM5ljv7TFz0M1c7R39VvclCkv8EePtZjK91XrvNatUqfak2ROEksvEV3yeCKVzbw4Opvvugs/iZ3aJBulrO+j+7p/zMpd3Vlyaiu5Iuqm195N4zjC7y3vbSzvKTpX8LevB+bUipf/AAt3Jy5tv0sF+MNvMelLQrDQNOpalpTqxhKsqVSi+tFbybTi3xXJrHieX/PtRfRhN+mePcj2zpfo+W2BvpLnSqUqq9U0vic8RZ1wibZl61cS4qNNenL97EdVuX51NeiCMXB5RJA6aTTcdgNSu/7c7P7lZxk7+jHMUk8OaTXsO30cLdHS3tvNnF/zCh/WjulGMmoAAyoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPJtS/aN0v8Aiz/qZaNl3q37UvPvp/1MsshFdOtOnxi36OwtqGqXE6EVmMXlpuMcN8e8lfJmLtl+q/ifvMZC8lUlUeaknJ97eT6mQpEsVgylqSLJYvJEuRLA2RIipFCKohGA6QqPl9h9chz/ANVlNfw9b4HMizvM6w1u3V3o2oW+E/K21Wnj0waOVMdVPhlpG+NX2HIki+JHHGCuJ1G3dF63ukXZlY/2jR/qR3Ijh3omWeknZlf5+k/xO4Y/RRzyWPoAMqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADybV/wBq3n30/eyxb4l9rLxq979/P3lhJhH1tYMZbNKH8T95kDG0H1H9p+8xkLlPPIkXMiguBMjLO1a5ElPkRokp8jZEi5H1HxcipIKqUd/qvzuByTeLyF5Xo4/u6koeyTXwOtlw9RyxtlQ+TbW61RxjcvKuPQ5tr3msOxj44K4kMHwJU+B2G7dDsHPpN2aXdeRfsTZ27HkjifoTWelLZyP+Zb9kJHbK5I55LAAGVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwPJtbWNZvs/76fvMezJ6+n893/wB9L3mMknnJlFJjqHKX2mZF8mY+guE/tMlFxAljyKIR4FaMsVWiWmiJE8eBrZFSK0UxKkVp9xk5s6V6HkOkHV1jCnOFX+aEWdKRXeeB9Olm7fbOncYe5dWlOSfe4txfuiaw7Hn8eRJHiRw5EkeB2G/9BcHPpX2dx2Vpv2Upnay5I4w6AYb/AEr6BjzZVZeyjM7PXI55X2sAAZUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHlm0Kxrl996zGPxLzaaFSntBfzozzmq3KlJ8JcFxT7H+HvMdGqqibjlNcHFrDXpRmj62myzt1xqcPOZeIsaE8Sq/bZKi6XIrS4IhjJskjJ4MsVKo9xKlyIFJk0WaixIipPJQm2VLwKqRLvPM+nfSflOztpqcFmdlW3J/d1ML8JKPtPSFViu3L7lxLfVLOjqum3NjeUN+2uKbp1Iy4ZT7vHt9I6HJqZWmZParZ682a1ipYXycsdajWSxGtT7JL4rsfqMSuZ23sen/o5Rc+lnSXz3KdeT/wC1JfE7KOPP0aov/SnZPsVtXz/IdhmK0AAgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB8gAPKdqVjX777z4Iw1SO88puMkuElz/APa8DObXLG0V79pf0owsjFFEKr3lCqlGT4Ra+jL0dz8C2pRzUqrGeuy5klJOMknF80y2oW0JTk5Trbu9xSqywS1F0oNRzuvHeW9e/s7b+/vLen9qqvzPPIbJ65cyrwvqLrfrpeTrV9Rkl5Pe6vVWXy9DL232Q+QyoO81HSrNLeSSo5c0+xucln2HL55XqPRnh+NjN5831Gz19q9FoQlJ3sKijz8mnLBg77pKsKGY2lpWrvslOShH4sytPY3T69uqd7c3l1ReG4b8aUH3cIJe8yljszolko/JtLtIuPKUqam165ZJZy3q6dOPL8bxe8scs7/dRokds9p9WbWjaalHvpUZVH/M+Bs+wtntI7u9udqKkpU6lOEaFGc4vceW5PdjwWVg2yMcRSXJcMdhInjkaw48pd5Zbc/J87i5cLx8PDMJ++79q4pJYSSXgVHxcSrsOzzmH2l2f0/aOwdpqdHfgutTqReJ0pfWjLsf4PtyeR6z0R6tbVJS0m5tr2j5sZvyVReDz1X7Ue6Bjeh5l+j5sxrOldJUKuo6Zc29KnaVs1Jx6nHdS6y4HUhoOyl1QtNTlK5qRpxlBxTk8LOUb7GSkk4vKfJosu1fQAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA2Dz/AGtvq9TVbi0VacY08btNSwpZSfrZLdDF7ZVYPaO7cZKSe7xTz5qMJvJ9pDKVX5NOepQpWzjJtONTeUV3t4XsLahdQqpOnJSj2ST4MxvYvmU264z9JGpZWCS35z9ISo9Wuvm/Sry7UN90KM6qj34WcHOV3f3Gq1pXmoVHWuKvGUpcV6F3LwOl5wjUhKE4qUJJxlFrKafNM06PRjs67x1pU7p0201QdZumvDHPHg2yxEfQtXuq+ytV3DnK3jcSVs5vPUwuXhnOD0FLBBZ21GztoULalClRgsRhFYSROiirBXFcOJ8SeV3FcSbFUUfcH1ReFw4FcYrHF+wCjBIqTccvqrvZVy5YRNa2lzfPFrRnUXLeSxH2vgTSraUKSXWbl4Gy7EXDlWuKEcxpRipKLecPJ9sNlG8Sv63/AE6Xxk/gbFY2FtYw3bWjGmnza5v0s1Iq6ABoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUdstn53W9qFim7iKzUgvPS7V4ru7TbgKOcdobS4uVXr3lwo22HJvnupeBb6XShTtd+zreWgn1l2x9R6/tjs1veUv7CnlvjWopc++SXf3o82jodL5XTr6ZU+S1f3tNrehUj3pdj8OXajlZqj5b11LBfW8l1s95Dc2trb1oOrVjCVR4jGUlHL8D7G0rxlJZju54PvAvFUS7SpVku1FrG1qPnvP8C9o6fUcU5KMF3sSoKrnksk1LeqSxGLz4cSWnbUYcXmo/HkTSqxjHDajHuXBF9j5ClhfrJcV2JkqlGP0IpePNlzY6be3/G2t5bj/eT6sfa+fqNhsdlKcUpX1d1H9Sn1Y+3m/wACyGmrRU6tRRgpVJvlGKyzM2Ozd7cJSrbtvB/W4y9huFpZ29pDctqMKUf8KxkuDUisPY7PWNthzp+XmvOq8V7ORl4xUUlFYS7EfQUMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGh7YbOOjKeo6dHqZ3qtKK+i/rLw70b4GsrBLNjxyEba+cJ16VKVxT+i5RT9a7i8VKEXmo16EZTbDZt2kp32n027dvNSlFfQfel3e4stP0XVdRSdG1dGk/wB7cdRepc2Y0IXUhH6EEvFriU0p1Lmr5O2p1K9X6tOO81+Rt2n7G2tNKWoVql1L6i6kPYuL9bNktbaja0lTt6UKVNebCKSNTEaTYbK39xiV5Uhawfmx68/yX4my6ds9p9i1KNLytVfvK3Xfq7F6jLgugwACgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABgYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP/2Q==</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nice Automatic Gate Motors Sliding 500Kg</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NICE automatic gate motors sliding 500kg</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2350</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAMCBAUGCAcB/8QASBAAAgEDAQQFBwgHBAsAAAAAAAECAwQRBQYSITEHIkFRYRNCcYGRscEUFTJScnOh0QgjNUOCkrIWM2JkFyRFU2Nlg5PS4fH/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBf/EACARAQEAAgICAgMAAAAAAAAAAAABAhEDMQQhEpEFUXH/2gAMAwEAAhEDEQA/AOqQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADeFnsAAtK+o2dDPlbmjFrs31ksbjaTT6SbjOdVrspwz78E2MyDSdR2/p2qbp6JqtdLthGD90mzV7zppt6FTyfzLcQn9WtV3H7MCWUevA8Wl02PzdJpr013+RVT6am31tJp+qu/wDxKPZweS0Ome1bxW0mqvGFdP3ozWndK2g3MlG5hdWmfOnBSj7U/gB6ADG6Vrul6tj5uv7a5fPdp1E5L0rmjJAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGv6ntNb2tSdKjHytSLw23iKfxNfu9durvKlc7kH5sOqvzJRu13qFraL9fXpwfdnL9hhrramhHKtqM6j75dVfmalLPFvj45KM5ljv7TFz0M1c7R39VvclCkv8EePtZjK91XrvNatUqfak2ROEksvEV3yeCKVzbw4Opvvugs/iZ3aJBulrO+j+7p/zMpd3Vlyaiu5Iuqm195N4zjC7y3vbSzvKTpX8LevB+bUipf/AAt3Jy5tv0sF+MNvMelLQrDQNOpalpTqxhKsqVSi+tFbybTi3xXJrHieX/PtRfRhN+mePcj2zpfo+W2BvpLnSqUqq9U0vic8RZ1wibZl61cS4qNNenL97EdVuX51NeiCMXB5RJA6aTTcdgNSu/7c7P7lZxk7+jHMUk8OaTXsO30cLdHS3tvNnF/zCh/WjulGMmoAAyoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPJtS/aN0v8Aiz/qZaNl3q37UvPvp/1MsshFdOtOnxi36OwtqGqXE6EVmMXlpuMcN8e8lfJmLtl+q/ifvMZC8lUlUeaknJ97eT6mQpEsVgylqSLJYvJEuRLA2RIipFCKohGA6QqPl9h9chz/ANVlNfw9b4HMizvM6w1u3V3o2oW+E/K21Wnj0waOVMdVPhlpG+NX2HIki+JHHGCuJ1G3dF63ukXZlY/2jR/qR3Ijh3omWeknZlf5+k/xO4Y/RRzyWPoAMqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADybV/wBq3n30/eyxb4l9rLxq979/P3lhJhH1tYMZbNKH8T95kDG0H1H9p+8xkLlPPIkXMiguBMjLO1a5ElPkRokp8jZEi5H1HxcipIKqUd/qvzuByTeLyF5Xo4/u6koeyTXwOtlw9RyxtlQ+TbW61RxjcvKuPQ5tr3msOxj44K4kMHwJU+B2G7dDsHPpN2aXdeRfsTZ27HkjifoTWelLZyP+Zb9kJHbK5I55LAAGVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwPJtbWNZvs/76fvMezJ6+n893/wB9L3mMknnJlFJjqHKX2mZF8mY+guE/tMlFxAljyKIR4FaMsVWiWmiJE8eBrZFSK0UxKkVp9xk5s6V6HkOkHV1jCnOFX+aEWdKRXeeB9Olm7fbOncYe5dWlOSfe4txfuiaw7Hn8eRJHiRw5EkeB2G/9BcHPpX2dx2Vpv2Upnay5I4w6AYb/AEr6BjzZVZeyjM7PXI55X2sAAZUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHlm0Kxrl996zGPxLzaaFSntBfzozzmq3KlJ8JcFxT7H+HvMdGqqibjlNcHFrDXpRmj62myzt1xqcPOZeIsaE8Sq/bZKi6XIrS4IhjJskjJ4MsVKo9xKlyIFJk0WaixIipPJQm2VLwKqRLvPM+nfSflOztpqcFmdlW3J/d1ML8JKPtPSFViu3L7lxLfVLOjqum3NjeUN+2uKbp1Iy4ZT7vHt9I6HJqZWmZParZ682a1ipYXycsdajWSxGtT7JL4rsfqMSuZ23sen/o5Rc+lnSXz3KdeT/wC1JfE7KOPP0aov/SnZPsVtXz/IdhmK0AAgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB8gAPKdqVjX777z4Iw1SO88puMkuElz/APa8DObXLG0V79pf0owsjFFEKr3lCqlGT4Ra+jL0dz8C2pRzUqrGeuy5klJOMknF80y2oW0JTk5Trbu9xSqywS1F0oNRzuvHeW9e/s7b+/vLen9qqvzPPIbJ65cyrwvqLrfrpeTrV9Rkl5Pe6vVWXy9DL232Q+QyoO81HSrNLeSSo5c0+xucln2HL55XqPRnh+NjN5831Gz19q9FoQlJ3sKijz8mnLBg77pKsKGY2lpWrvslOShH4sytPY3T69uqd7c3l1ReG4b8aUH3cIJe8yljszolko/JtLtIuPKUqam165ZJZy3q6dOPL8bxe8scs7/dRokds9p9WbWjaalHvpUZVH/M+Bs+wtntI7u9udqKkpU6lOEaFGc4vceW5PdjwWVg2yMcRSXJcMdhInjkaw48pd5Zbc/J87i5cLx8PDMJ++79q4pJYSSXgVHxcSrsOzzmH2l2f0/aOwdpqdHfgutTqReJ0pfWjLsf4PtyeR6z0R6tbVJS0m5tr2j5sZvyVReDz1X7Ue6Bjeh5l+j5sxrOldJUKuo6Zc29KnaVs1Jx6nHdS6y4HUhoOyl1QtNTlK5qRpxlBxTk8LOUb7GSkk4vKfJosu1fQAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA2Dz/AGtvq9TVbi0VacY08btNSwpZSfrZLdDF7ZVYPaO7cZKSe7xTz5qMJvJ9pDKVX5NOepQpWzjJtONTeUV3t4XsLahdQqpOnJSj2ST4MxvYvmU264z9JGpZWCS35z9ISo9Wuvm/Sry7UN90KM6qj34WcHOV3f3Gq1pXmoVHWuKvGUpcV6F3LwOl5wjUhKE4qUJJxlFrKafNM06PRjs67x1pU7p0201QdZumvDHPHg2yxEfQtXuq+ytV3DnK3jcSVs5vPUwuXhnOD0FLBBZ21GztoULalClRgsRhFYSROiirBXFcOJ8SeV3FcSbFUUfcH1ReFw4FcYrHF+wCjBIqTccvqrvZVy5YRNa2lzfPFrRnUXLeSxH2vgTSraUKSXWbl4Gy7EXDlWuKEcxpRipKLecPJ9sNlG8Sv63/AE6Xxk/gbFY2FtYw3bWjGmnza5v0s1Iq6ABoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUdstn53W9qFim7iKzUgvPS7V4ru7TbgKOcdobS4uVXr3lwo22HJvnupeBb6XShTtd+zreWgn1l2x9R6/tjs1veUv7CnlvjWopc++SXf3o82jodL5XTr6ZU+S1f3tNrehUj3pdj8OXajlZqj5b11LBfW8l1s95Dc2trb1oOrVjCVR4jGUlHL8D7G0rxlJZju54PvAvFUS7SpVku1FrG1qPnvP8C9o6fUcU5KMF3sSoKrnksk1LeqSxGLz4cSWnbUYcXmo/HkTSqxjHDajHuXBF9j5ClhfrJcV2JkqlGP0IpePNlzY6be3/G2t5bj/eT6sfa+fqNhsdlKcUpX1d1H9Sn1Y+3m/wACyGmrRU6tRRgpVJvlGKyzM2Ozd7cJSrbtvB/W4y9huFpZ29pDctqMKUf8KxkuDUisPY7PWNthzp+XmvOq8V7ORl4xUUlFYS7EfQUMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGh7YbOOjKeo6dHqZ3qtKK+i/rLw70b4GsrBLNjxyEba+cJ16VKVxT+i5RT9a7i8VKEXmo16EZTbDZt2kp32n027dvNSlFfQfel3e4stP0XVdRSdG1dGk/wB7cdRepc2Y0IXUhH6EEvFriU0p1Lmr5O2p1K9X6tOO81+Rt2n7G2tNKWoVql1L6i6kPYuL9bNktbaja0lTt6UKVNebCKSNTEaTYbK39xiV5Uhawfmx68/yX4my6ds9p9i1KNLytVfvK3Xfq7F6jLgugwACgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABgYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP/2Q==</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Circutit Breaker 64 A smart</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Circutit Breaker 64 A smart</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>360</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAASABIAAD/4QF8RXhpZgAATU0AKgAAAAgABgESAAMAAAABAAEAAAEaAAUAAAABAAAAVgEbAAUAAAABAAAAXgEoAAMAAAABAAIAAAEyAAIAAAAUAAAAZodpAAQAAAABAAAAegAAAAAAAABIAAAAAQAAAEgAAAABMjAyNToxMjoyNCAyMTo0MDo1NAAAD5AAAAcAAAAEMDIyMZADAAIAAAAUAAABNJAEAAIAAAAUAAABSJAQAAIAAAAHAAABXJARAAIAAAAHAAABZJASAAIAAAAHAAABbJEBAAcAAAAEAQIDAJKQAAIAAAAEMDAwAJKRAAIAAAAEMDAwAJKSAAIAAAAEMDAwAKAAAAcAAAAEMDEwMKABAAMAAAABAAEAAKACAAQAAAABAAAEOKADAAQAAAABAAAEOKQGAAMAAAABAAAAAAAAAAAyMDI1OjEyOjI0IDIxOjQwOjU0ADIwMjU6MTI6MjQgMjE6NDA6NTQAKzA0OjAwAAArMDQ6MDAAACswNDowMAAA/+0AfFBob3Rvc2hvcCAzLjAAOEJJTQQEAAAAAABEHAFaAAMbJUccAgAAAgACHAI/AAYyMTQwNTQcAj4ACDIwMjUxMjI0HAI3AAgyMDI1MTIyNBwCPAALMjE0MDU0KzA0MDA4QklNBCUAAAAAABBjovE6LwfDEo1FnfifZViR/8IAEQgEOAQ4AwEiAAIRAQMRAf/EAB8AAAEFAQEBAQEBAAAAAAAAAAMCBAEFAAYHCAkKC//EAMMQAAEDAwIEAwQGBAcGBAgGcwECAAMRBBIhBTETIhAGQVEyFGFxIweBIJFCFaFSM7EkYjAWwXLRQ5I0ggjhU0AlYxc18JNzolBEsoPxJlQ2ZJR0wmDShKMYcOInRTdls1V1pJXDhfLTRnaA40dWZrQJChkaKCkqODk6SElKV1hZWmdoaWp3eHl6hoeIiYqQlpeYmZqgpaanqKmqsLW2t7i5usDExcbHyMnK0NTV1tfY2drg5OXm5+jp6vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAQIAAwQFBgcICQoL/8QAwxEAAgIBAwMDAgMFAgUCBASHAQACEQMQEiEEIDFBEwUwIjJRFEAGMyNhQhVxUjSBUCSRoUOxFgdiNVPw0SVgwUThcvEXgmM2cCZFVJInotIICQoYGRooKSo3ODk6RkdISUpVVldYWVpkZWZnaGlqc3R1dnd4eXqAg4SFhoeIiYqQk5SVlpeYmZqgo6SlpqeoqaqwsrO0tba3uLm6wMLDxMXGx8jJytDT1NXW19jZ2uDi4+Tl5ufo6ery8/T19vf4+fr/2wBDAAICAgICAgMCAgMFAwMDBQYFBQUFBggGBgYGBggKCAgICAgICgoKCgoKCgoMDAwMDAwODg4ODg8PDw8PDw8PDw//2wBDAQIDAwQEBAcEBAcQCwkLEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBD/2gAMAwEAAhEDEQAAAft7baKlW1bbVttWSrUkm1bbNZSVNmpSVHPKTnWY2Z9kqipSJVlZE5tiJXUqSrOUoaplZOWVk6lbattq22m22pW2W22rbalJyZlbatkqrJ2l22rbZlSlaKTtmttqyVJrbakpUmk7ak7attq22pO2rJUmttq22rbattq22rbattq22rbattq22rbattq22rbattq22rbattq2yq2yhYiVJEIgqrKkrjT5KtjttW21bbVlJVW2S0raWWdlKuUlWiKSpLDbZm2SSZKts7bbNlEGSspKlttpttq22WJtqyVJmykqrbZZW2rbattqTtqVlJmSraVOUqUe2ZttpcMg2k7attqyVJrbJrJUmk7ak7atsmlJ2rbJpSdq22rbattq22rbattq22rbattq22rbattq22rbaZW2rbattq22rbRLO2pSkkVUkSVZZILZpytVLttNttq22rbatqr5j5/ovrNP5zL4Puv0Ynwr3X0/zSVJV1eQrfJnAeZ+jfdyvj37C7vmduc+Nce/7tV8G7k+l+8p8K9y7/gSbmvl3n9X7JX+aj7z/tv0eV4n7V6v5orbP5yd8bcj5v6P9875L9z6vk/Qp8P9u38dWyqSrZbbZZWTmlZKq22pO2oidqykqaycmtEcFTjwGmf0LoeZspfpm4+L/sRp5tqydqyVJrJ0VGya22rJUmttqyVak5Sa22rbattq22rbattq22rbattq22rbattpspMzTtobbR22rbattpdtpFKSqGIki54iCrGyVNbbNUu2tttq22rIX5Xn6Hyr5arfE/2IlW2fpPfv/wDPPr/Q+D/SPlbX5j+p/nj5oa6z+K/rn6r+lqh39z/IPzN8o9Ry3x39PY4PZ8PT+wehe+HfafyZ8pcRCfif67Vtk73v6E/nP13ofBfplwfQfKP0X4J825N18d/Vn2NfeoPftf48+ePoxm+28zKTlVWSqtuD818v6H6G3zxufu+h988avoffPGj9D754WE+ht4V7D6HjWyU7v8vJFjFwsLxnzv6o86rwS6+jueWV3UZqYSiiYZAuSpLyImKyVJrbaslSa22rbaslSa22rbattq22rbattq22rbatsOZVLx3yR5n3n2O1/PsHn/o/6F789HUv6Ap+AhQ/QHfAGj9/z8CCl/QPfnyFdf0MV+eMq/6G789ztj+gKPz9aV+htr+br+X9Orf4a+ufW/KOwXCu340mTmlYeqp210bbVkq0N8PfXf5w+L+wtcr2v539z8S3Qc/dW2y7+1eY0u38ZP0X88fol3/Gd14l7Z8C+/8AkPlaFb4j+rE/fPx7+jP0H4cb4E+wvzm15E5Ptng/s/iuuabPvTthp7B53R7Tx1fT3zN+kXo/Fdvhk+p/mjKSpWVtlspKq8V8H94574D9j81rPpzzHl9LzFLz0HzvofMldDbC4Xruh6P0fnxRwPben4X0Pz9/zP2/5N+Xw6HqsOlnngufZsp5yu3N2P0h457B+Z/qj7eax4vu+l7gew4+7rPpb5Z+qP0f8zwii+4+EjbUnbVtk1ttW21J21bbVttW21bbVttW21bbVttW21bnOj8mx9T5I4FO+L/sNO2x73v2D8Z/cfr/AJh2fkn0L4x6f5RU0dxW4/T+i+E954bh6ftvyV9feB830nAfWXzR3uXpd9615Z6j6n5m4+Jfqv5v5vouF2V4/wCwJ+jfnTot/nf0vs+X6j7T+OtsPXkVh5tK/J2fQrJVW2ZhvmH5Z6Tnfjv69L+hvyN96+r+VeRfCH6mfJ+nL8w7b5r+httMvrH3n497D9p/KfEfnf8AQ/zn4f7Eray8j9F+qPpapJ9t/IHyj823NN8l/UhP0e+R/uv2vyDxX4W/Vb5QW+VMrfO/vycpUfWfv/xD3P63+Vkqie/4TKSqZW2WykqrxXyL1756/Ov2/wBUM5498G/tPO+V649h1q3/AGeUz5Xm3Xne3T9r5f6dy+t9Lcv1HL/pn4F+Tvp/md/5XqetUHP75P6q78n7bh/qPl/c/TeD7z8m/YvD+6B2/qeT5X61wvdeX7V79S/LX1H9x8AoZB/ffn+21J21ZO1bZNKydW21bbVttW21bbVttW21bbVttW21byP1zmcPX/NNXa8V8Z/YacrZ9ifvz4F++/V/KrhhxHZ+p+Webs3rbD6y7+feu868/wCq+jOA7v5D0XvLjyv1Tl+r9O9a8l9M9b8j8f8AniB+H+zpyk8/va/oPoHq+f8Arvpqu0+1/jhOyd+Tba0r8nY9CsnUrw/24Gfo/mDv04V436/5T7Ghfufjqm7in3835V8q/QCq8v8AU/i/6E9kBt5lxW7nvR+G/P6s/Spr87+0fnF9Be+9m3n3PgHqld6n5x+eKv0DeeN+uUHrnmxva/G/RA0htOL5b8e+6u58n9O/Pr6F+gNpwIKlXofAzMSrZSVLKyVVlJVXH/KP24x+f+w+JN9m7yPrfjOPs9NfNfLfXqt/P+MVfZmx9D4x9W92d9Pm2PM9Ij6780/H8X6rQF/KxH6rJZvyuv8A9NHnJ0fLRPqpP57+k/K2+qFBvlbfVEC+dfqKqtfr/jljmPovm9smtk6ttqyVJrbattq22rbattq22rbattq22rbattqwi6byH5E/RfnPL/RfzWT9+sPM/SvhG/8As9Jy+Knf2Vjn8WI+1sL4ha/dWtPiqk+8Ir4Qe/cUq/xO8+zc3L8Hb72y9XwST7zu2w+U/sG+t/b/ACaSj3ofDZKcZWRrRhtsdttmtlJlxBka22bNXxj9meZ6Xjvlv0ZU2nmPcdq4phWdK0WrGXf5LkEdnyIuZ683VVw3dcp2C3lfnX0tpvnlt7KlbqfSfE/bqXtqVkqWmYmbKSpbbaspOpWTqVtpttpdsmlZOa2Tpdtmttq22rZOpSdq22pO2EiJg2SpNZKk1ttW21J21bbVttW21bbVttWydWSrUkidSsnUrbVttW202UlVbZVJyki22NttLttW21bZUip0tmRWSyKw8yq2TNsiGpjZW22XSv22bK2022Uy7JzKqJ2ltk6MrbNbJyytlZ22yqrbTK2yysnUrJVSsnZsogSUrbLKUlU2UlS221ZSdSslVbbTK21bbS5KktbJ0u2zW2TSsnUrJ1bbVkqTW21ZCx1ttSdk0pO1bbVsnVttW21bbVttWSpNbbVttW21bbVttSttW21JUlU221K2y221bbNbbVttLlJVLlJU2alJU6q2Sc8nZtMnJZdtlbKSpWVts9K3ZSlSdmCtky7KTpJyttJVszKycttsspSVLbbJK2xttlttqykqpW2zbKSqiREqy1JVWUlWdts1ttWUlVbbTbbVttLkqTW2ToqttWSrUnTqjKTW21ZKk1ttWGQVTtqSnattqydq22rbJpWTqVk6ttq2yaVk6lZOpWTqVkqrbaspOpWTpspKq22pWTqVk5ZWTmlZOlVtqyk5s1KSp0JhqdFIhLSkp1pttLttmylJysTD1MVJ2eitsyqoL3z5qyp/FvOmvtvl+P8AMXvcLf459Mr1DpfBvYUnHpnwN97CN5Jc/LpvpPp/j70Jb2Hu/wA/fr6m3q/5q/o7ncP03w37fN9D+ZdB8k19Z9L8WfRVOifPt7N9Y2tDyFVlz82VK32enwToFuuD8nelV9e8x4b5HX0N7P8AMS69b7L4c+nq7Sj8v8ir6xo23yrX1t7D80/S2i8rwFV49X0/c/Cn0JXS9Z8r8nX3b55SeJ19F+teA+x15/6Z+b32fXVdD8vej11d38m+01YO/nj2Su2oPC+hr6YvPh77fpWTq22rJ2rbJpWTqUNSamYmttq22rbattq22rbalbabbaspKq22rbattq22l22pWTpVbbXNWTnVWTmtEJaVk5ZWTplKSrKVk4MrJ1M9srETs1uc6Ni18hcXc2gutX596+7eC+meZ+lpelevfD31OV+S/vT4L+9EuP8Akj7s+fDeu+MedekreAe+eRdArcB9z/HP01Xzi/7HzaH1R88/QfxdH1b6B+MPvCvBe04rtVb2zxz2PxuuI9F89+llvme6Eavn76b+VH9eweT/AEd8219w8R6kCvg36e+YPp6uK8i9a8jr7k+I/tv4ia+17yhumXwXj+v8Ere3+Ee6rUnm3MuK+iOC9Q+cGb7c5Tla6Xx/1M/CzPfPPQ/D5fs+krrCuF+jfir6Hrxj3vwXlZrj7i+TPrMLtsbJUmtsmlJia22rbath6iYeomHqJh6iZKq2duqqtY6ZhnUU2zlFBxIEjTJk7alZKq22l22ZdttM1ZOaVEZ7ZOK7J0yslS222crbIysnBlZOWa7ZpSVJe0Ttb4A9X8x96yvmf6t+TPtot8hemedelhfWfVPLPUa+CvvH4T+7EuS5ntvi2rrqvO/Yluc4D3LzSq31/wAl62vN6H7T+fZvfPCfUvMatPXfKfU6867PkOyVvaPG/ZORrxLnvPjLekda1f18/fWXyj9Z14n516HT19G+Fef/AEVXzb9PfPdVXsfkX0/8z19ufEf278VMv2fcUtw14NVW3zXXotl537utT+d+j8A16XSXPz1X6H/JXODquZfdvwtXf9lxns1fNvtnz97pTD6T/PLvqD9J/N/0pXyV93/CH3fW21JSpNRCs1tstttWyJpOUmttq22rbalKSWrGaSmz07fNXVbJq6ts1JRcHNGwkzFQzcyrCWllHY8XdMt1tnz221zyVJeydnbbRU7KVk5WzXbKzbbatsnNtk5oO2aUnbS22ajRmkric5Kpy22Ushey2aO9QTK1Jyk0gkZbSqZkLUqCSJVHbEWUlWpkY6phLVlkrnVGnUxfxqG2e6kpVmVKFpaykzUjXFKhGrbaslWpK41KEvUiVJqNMUiZ1ShWpKsmlZOrJUmttq22rZKaVk6lJ2rbattq22pTprY1W0/QeTZt3jPh4l9Ua+d+kTVu6/Tc25e8LL6XvFjTegWnG9Oyqqur4NmFM6W6tuPu9Et9ttjsidDtkzKjSllJgMvK2SpVsLbasOIVtk7STtmtsmlZO0ttlOmFZjbaspKktthK20u21J20221LmJVlKSqGUlSnEGSlZOrEGRW22pW2rbattqyclk0RmMoUmttqUlSa22rbattq22pO2rbatE6k7attqyVJrbaslSa22rZM1CVJrbattq22rbattqXcVxlbyXmmkKt22YfPbZ+md15Z7+17ANfA59HK0jJpZsuz89Ztn6f7R8yfQxrDj+g587aJ1bbS3Vxxt1sLZO3Qm2yspO2dlRpVqSrNdtpsMiVYemKTttJO2ayVJawi8mvTSB+fOb+e/Yfud/wvee3+P+ZLrFvy2HonnXMm9lX4P0q3p28ze16Uz8sslvS/PGLKvXQ+O1tfQcsuQVuqtvO6uvRbLgquvR3PkTpa07fypM3rSPOrhbs+Vo3tek7attqyVDZdkpk22Z9tq22rbattq2yaUnattq22rbak7attq22rJUmslSa22rJ2pO2httHbattq22rbattqtRPFLp8wx2/Brn5uXje76eVt9dc76ObeP+veZcvd5TzHQeJth0nXeb+s9/lt/rfzf0TLr49qpPP3ZSVVttWUlVWttylrslvkq0GVsqq2yrlJysrJ1KHkzRGy2ytQ8ndEpO1aptlLp85MPo9Pm/Z1nRbdnx3mHpEmbPyJHrJJfM59I1co/v8ALePvvT0NeaB9XGt5Y+9JQrG4vutXnVf6TYV5w29Fc1w1X6VlvLjemLm4lr6SyW86f9+ineTqUnJpSJTouTtSdtW21bbVttW21bbVttW21bbVtk1ttW21bbUnbUnbVkqHSk7VttW2VScpNbbVttW2VSTisRPkGGmgOS7AdeQekWuI2SkORm6HDwT5s/Q5mcfkj3f0tOiHqLbl03p4UNgpQyVttSttWWjVbW3KWjrc6JbNW2FttSY0TbJyylJVNtss123QuUnNKUNWbbJSkbbEbbKmINUykqTLk7TbbVtlKySQuttqxBkW22rKTNSRKptlJW0xNL2TW2zKlKktJ21bbVttW21bbVttW21bbVsnVttW21bbVttWydW2TW2ipHtW21bbVnTWzEtEJy1WmdSElzQ4Llmz9vmnkNIWdQ00XODQNdClk/pKkxKtG1TkRRuG6fkmWRkzQybVttStlUnE1DUrVaXHK2Ulxkq0TJUOk5WmTspbKylZOVqZ7bqXbbOzF9yefZwDPxzmPnf237qu+C7z3/xPyt/T7fif+gcHyi3r1l4N6RVhvP3ld/c8jZZ3E9byTqbsj+Vqr0628oVXddL4N6ata+ReteP17f472FVN6O28cTXYd55mRbtug8Ut67pny+l7c3mBHvU6jiQm9XNU21bJ1K21bbVttW21bZNKydW21bbVttW21bbUnbVkqTWSpNJ21bbVttU3FfYqzXK2emySUlJB1ttMpO0u200N3NOFd8V2vlLra9z5vZNelCqrNZWTqVk6qKmdNdFykqrbattqUpKqVtq22pSkqp9b80/ZLdKVMNtqSRKs2Vtq22pntuhdtls0d5G8ja+zK5foau1hXT4PmHpcy2XkDr1Wa80bep6vHSevStyVza6byW09FWt5qr0xVeal9FVXmHePyLU3H+kqrx619Lmbyh56XlvOW3p6q80s+40vE0vqCdLzkPpc15dQdhSV6NagPSdtW21bbVttW21bbVttW21bbVttW21ZKk1kqTW21JSpNbbVsnUrbVZLIHN4C45dX5XpGVRoOkuuQtFKeg5towvr/wAvvlulecx1K2or+gjvPOt5B1txOPnmP0Nf+XdlXdK5bowCIXWtc9GzKpQyVtT4VxtjKUlVK21bbUpSVVlJ1PrTn3jLbKGSspKltlak5Wzq/bdSqyVVtstlJUpyVbREqSpWyk5bbatMS1O2zbK2pa0LrKSqttqykqrbZWVtlttpVbJaTk5pWTq22pWTq22rbattq22rbattq22rbattq22rbasnak7aslQ622rJUmttqzhu/p8BQ8dVUV3oo57pFVV8n6AprnqbuIrjKT1BvUGVlmrIL1rzwQLHReR+d/ov5x8zq9k9b819G7sSOmqtceqp2WmEraXEGYN4bZefdh5vV7ilSfT41q01ttW21KUlVZSVVttT+0555LbKSqspOpW2Wr9tuu2ws1dcpn1cU28Q5rwP2v7qt+C7v3vxfjPPvdPMNeK0fueDrrXddQ13lVQZW6R5wblbuqrnUV6xwXb8LTHoOYuKYdPxlrXYbgVrMvVPNRq3T9v5D0sve4ea22MnbG2yaVk6lZOpW2rbattq22rbattq22rbatk6lZOpWTq2Tq20VI9q2TqUnattq1xVXQm8MPIE09x3hbxl9n3DWC3Uq5Lp1c2iY7bVttVA2dc21QWTB5pm38e9t2bMnuzxFJUVyk6lbasQahfPPo3ZPcdFqyt1Vtpdtq2VqykqrKSqtsqsrTVhZ1dpKnKy221V8QndVylQsye4N4sz9xnl+oqrhKun5veb+kZsaHifVNVHzfoGW89j0Nat55vRorzTm+ubV6PxnblrhFd4mvNmHrWF5kr0laXiXY96qbzDtLvS7ZOlttWydW21bbVttSttW21bbVttW21bbVttW21J21bbVkqTW21ZKk0nbUnbVttW2VR7IK87gK9pWM3V0JujKv0rcoylMnNVN8xLSXLJzT0bZMzzzT0TzinhNtFVtq22om2pW2pW2rKSqlbalKSqlbattqVtqykqrKSqsQZGtMKWtHwDy7bVttNV7bTPbatMalTRAz7OkhO05SbM5XmGtadEqylJVWUlUqsEkylAPStsLbYyiDJnbaGtLN01s1cUpOTSskdE21bbVttSttWUnUrJVW21bD1ESlVbbVttW21ZKk1ttW21D21ZKk1ttW21bZxVsA7XHSupOpW1xT/plVy6OpVVES31c+16pdcUbr001q7uqqp4+yZtO9syq21bbURSVVttSttWUlVKUlVbbUTbVttSttWUkk3JF8s6/nb0wgydGeUl1VxtgqttW2xar22me21aiveby6/B6oND89+8/VPWcZ2f0P4XwcsPTX8/zrobPz2uhtOcpFb1GpXwkvQ3rPm6p+/oQzUvq/nJ6tegngFvUD+e1NdUjm/Q6tVcJ3dfOH0f4b0rXEe1cA4q56/meCrqA9t5RXa33llrXrWia22rbalZKqyk6lZOrbattq22rbattqyVJrbatGRW2TW21bbVttWsq27EsadlqHG0QZymm+cam2PNNl5daRoqreO6FrgLNk+ddtiqttWVlVlJ1K21K21ZSVUpSVVttRNtW21K21YwSTfPvfv+l59H6kq6MVWlTfylUlS220221VO20z22rROY8kHs9j6UFGrbzeW5r05Kjz8Po2W8wv8AtFTeWn9L1VPM+gaXzA3pcTeO9b2yq8u720XXANvSctxPUvdXGdeZLXn9P6smuBR6Dq8p6Tr5rzN16CuvLL3ttSk7VttRMmalSdSsnUrJ1KydSsnUrJ1KydSsnUpO1bJ1ShSaydq22rbaXbaZV5Xus9BrQRWidq22pOyaJkqrbasA9DT7kOn8/YBfCLom20qttMpSVVtlVttSttWUnURSVVttRNtW21K21ZWVSVZVJVlVY2KFy5SVLbbTbbVU7bTPbattq20RnbQ2YP1olM0tcSyztlZSkqraoZzdGqmf08IlS22YU/UnQw1DYqTtWyVVttW21ZSdSslVbbVloXU7attq22rbattq22rbattq22oe2rbak7attq22pOyqtZKLHRJAHm20VkLRW21YgyVttW8977zSHb+b9lx+gfZKmXbalbalKSqspKq22pW2rbJoygkpW2om2rbalbKrKTNSpKqykrq8KgsqVbK221bbVT7bTPbasye8snVxLPxTnfD/AG77ktuF7r2vxXy31Lyv1TXhquOaelU347h/XKXzbGFr/tfMfS5qvzT2TzOuvpOw8uWtnB6ar/UyasZppZez5Vt0c13Y8z01bbVlJ1K2zDbattlttoq21KUNVKyZqdtW21bbVttW21bJ1ShSa22rJUmttq22rbas5bWIj8j13BppfVvQ8jXW1fSeZqaF/wAz5pH6f6fnuhlUHj0V3u4Xua56nreormK8NhqsqSoyVJVW21KUPURQV0vbUrbVttWIMlK21E21bbUpSVVpialSVVnTWyqy2yrlJVW21bbVT7bRdtqzJ7lfx1n7bsPp6y2TO3zXnW9Gg5cVU+mKa5nl/TtXG8F7lzC1J6LtMri+0VQOE9Cy3O1fcJa44XbJrit2urgec7bnpen6MRZspOpWTqVtq22rKSqttqVkqrbatMal5GomTqVk6lJyaVk6ttq22rbJpSdq20VOTqVkqrW9bZrpmT3ZtFLYna3hXu9Ct8up+jzV0pdqoae1eyvDOOerzvu+QumubsWL7RcpOrKSqttq22rE2pW2pW2rbasQZKVtqJtq22pSkqrTE1KkqrXNP0cu2y2UnVts1ttVPtmXbattqXKVVomFaYnS5SVVspLSlDIsrbTKmJpeTllJyqSko2oThQLmgY2OSqG20dtqVk6VW2m22pW2ZcpOVlbattq22rbattq22rbattq2yaUnattq0TpU7Zmytln7lC8ddto8SrsqtlYJum1EUz5yuzNyNqteqiZleb+heM12NB2PBsrsytpJVtLlbVttW2VSsrVttSttW2VSSJVSttRNtW21KUlVaYmpUlVObmttJdtq22rJ0VOTqq9tpntsrbbVlJVWmFLbbVlJ1ESlTWIMispyZ5NSIoqlbrQ0hJrMVO0luNSNa6JVa2owmtnXWOWD1lVtq22rbalbattq22aVtlspOpWSqttq22rbattq22rZOrbattq22ayVJW22pSkuRP8AbZbbbVsGk0y6EfLOzl0EIInRk7Ky5SqqbyzsKSHR8lbVuoep2dVbZaZia22rKSqibaspKq22rKSqlbalbaibattqUpKqyksasFCcVcHiVXbattmkQnVsnUxydoqslS221ZSVUrbLbbVttWUlVKsUWlomJ03K+V+2cctz7PzmnW9qf+J+uy2j1wZrwRv5tTnH6L9F+e/aU26+1rnjTjJUyp21K21bbVlJVDbZjlJUtttW21bbVttW21bbVttW21bbVttW2zWSpK221Ksa64Rttkfciz4vv+eOFvHd4Lofg/vVqX1fyGy5fQ9ayVeZ9WqJZV5X1vn/AKSw450wsdESralbapmJrbalKSqttqUpOpW2rKSqsralbaibattqUpKq1fYXtUdq5PLtsBkqSZO2ilO1bbVX7bRcpOpW2Wyk5YmTNTtq22rWKbWaFp1orbTI4nuePF8A8Z9Kea3Jee5fDf2kN/Y4QpW+KLP6q+XevzhfQ3kvq/N0+jFFFvYLGrRFbKW22rbattqVk5pSk5ZWTqVkqrbattq22rbato1TsmlJ2rKTqVk6lJ2rbandi2PnpqC/8n6POp/Peu8A9DwXPpfo3z0l3tT6Z5E7ezM6Pon4fXbfie28X7ZXL9T5um9F07Vjpm1ftjtK21K21TMTW21KUlVZSVVttSttW2VSttSttRNtW21KUlVFv6m4l2yaVkpaWLZbZKa22l22mY7bRdtqVkqW22WVtqVk6lP4tpttrTbKm22rUl23VfP/AJ5+j1jL4b9t91cApSTWiSxNUV2VUosvMzwjV02e0RKTIXNtkwVto7bUrbVttW21bbMu2ynbaO21bbVttW21bbVttW21bYtWqlDx1D4l7B5B6PzfjfeeWexb83T/ADH7r5lD2zzf0LxLXHtu0rcMfSu5pbzxvs0+J+t+RJ0ehcZ1/IaZv9tpK2yyttUzE1ttSlJVWUlVbbUrbVlJVSslVKyVUTbVttStpq6ejJKlKk1k7S5OTpKTtmydtLttTHbaSttW22crJU0rbVn0WytlxNpttSttNttW2wHGtb6jQKIk1Ikk0hVhXUtWbqzlVc2avV8sOXpw8tqvm1UqZ5ZUpWz6tSJZVZOpW2rbJpW2l22Y7bLbbMdtq22Vdtpttq22rbalbas+Y24ZUpVlpX+O+4+M9/zvkzb1b556OX6PR88El9U82T7oXXXK9Aubu1J3k/ZcnyLq9Vq6nh1rmvbGVtqVtqmYmttqUpKq22pW2pW2rKSqspKqykqom2rbalHBZVZZOlUmEyrTktZOyysnTaITKvI1MSDJpZSdSttWUlS2exdq2na022rKSqttptslVVtqZ8j3HIrJJDuhW5FUTi+t5xWpmllWtbZVJym7KZVUarHc+GuqEcEvXywsCuUNRVSkTMpO1ZSdSsnUrJ1KydSsnUrJ0uytMnK1JytW21K21Ku60C1kTibtdbvi76wOHia+q4z1/j2BrEL5OWYezz1p/YY3mfXKGqux6vJfROH6prkrJk90x22mVtqVtqVtq22pSkqrbalbalbaspKqykqrKSqstCqVtqVc097KTJ0uTkVKcmttmttmttq22piQZK22pWSqs8Z3eZfSlVrttNtsq5SVVttSPMfTvPcm781RbuNQ3zRhTXaTLNeM7bgMW9Ip3h9Lhqy1rZUch2PHaSjIs2udtZsa5/dqlY8iVTrouR6w5pylGyk6phOZVSgitttW21bbQ22YbbLbbTbbVttSsnSkwyTW2dgxapq+q03Ex28Vww+1rHFW66RRxbFIldql4CwVmXOdJ51VpVdj57oHLnZs9tplbalZKqVkqrbalKSqttqVtqVtqykqrK2rKSqspKqVtqc2rN1IrD0CJTmttmtk6lZOWVk6lZOaZkGSttqykqrWVa5Vr+Yy6K21bbLZSVM221aiv9nMnJNKlBc0IuyyeN7ZsrBcqUw4it6GmUVwCzpLTqyrKebcrXuZip+SgGy3nScldmvds+e21bbM2UnKqsnTKyc0rJwlbYW21bJzSlDXnTomXbas5bWsz1qy5nNu53Lim61XMdDS52VolKq0Tqr1hNLvNPQ+Uqz4i/oNaw2xXbalbaspKqykqrbattqJtqVtqVkqrKSqlbaspKqytNTsurUmiWMnMu21bbVtk0rJ1KydSsnU1IMjW21ZSVVtom6VTZ3myeT6riMH7/BNqdtmspKlXbattq22rKSprJUlbbamPGd7xi3KeQe2eNtVHZuWTL0Vkt5VUtq9WZluXFV1pgzdkkJtMdtmspOipOyjKTpttmGUnKVZOgrJ1KydHbKlSuE0TDyxL6jtV0OFcLoxDaolpLcylJMJUV7as3cUNWQVhlpLOhu2vPTMLJlXudaFuty0FVbaspKq22pW2rbaibalbattqUpKqVtqykqom2rOWz+V2nRLOTmlZOpWTqVk6tk6lZOpWTqb7ZrEGqlbattqsLnmLvJndJe5NYXsw22pSkqrbaspKq22rbattqyVJqOS66pW5Xxb2hi14l2HbNDV+foFZZgdaEv3FUi7zU7sKC/fPbZ1Vk5pW2rbattq22rbattq22rJUnOUqFVttU6ExcGYLV7M1SlWvlUMxvU1TlYswSKFLmgCdpqjpe48oaYWFM9YeE2fnXZ8W/0MlSe/nVkql22rbKpW2rbasQZKyk6lbalKSqlbattqWsZK1rW2suiRsu2y22zW21bbVttW21bbU3xM0NSh0TDVSttWuqW5yNjk4akw9RMMlKUNVK21bbVttSslVbZNTCk1hFHXnVb1OW5l4RNEWDUccattqykqoN9TlZbnbaZ7bVttNttW20u21bbTbZSjZOgrJ1ESnUrJ1bK1JyktFM0StYZmebAeYMzMbBkTopyRghZz5z3vOtck6K8r5V9a6+8z0Xtts1ZKpcpKq22pW2rbasQZK22pW2pShqomSqttqUQaqdPG7hk2yWCsnVttW21bbVttW21bbUnbSpSpM2UlVK21Z8zXndHkqtttlsQZKykqpW2rbattqykqrbasNSaVtqoK3qeVzqlJB1ts0rKDRNRvqfas52XtY5roi3SYJtcttobbVttW21bbVttWUlSSdsbbattq2VmttqyVJrJUmttmUj+r63PSkRaCXRhDlFBXKKXI9Lqe41cSPt+Xmrtsy5W1ZSVVttSttW21Yg1UrZVbbVlJVSlJVW21KWg1P52bPbZrbatsmlZOpWTqVk6lZOaVk5bbaXDUmbKSqlbalbJroHVTaZ6qyVZlK0LqVJVSts1ttW21ZSVVkqTSdtSlJVSOL7bmFm1J0/FLavDSaXoXzf8ARXji3n3uXzX7gt6jyXWxpUnTVz9awsqe40y2yWCslVbbVsnUrbVttWUlSSdsbbKpOVqyVJrbaslSWttmVO2mc9XSXWTNIMhNRINohG4TTSHWpkKy1VibRvVHS9lmXgN0nNldtjK21ZSVVttW21EUlVbbVlJVSlJVW21KctrCU2ydFVEattq22rbattq22rbattqTslrbZbEGSttqyk6nV9zHRZaFUIqaZSdSlJUy7bUrbVttWUlVbbUnK1bbVq+yFXL0lgbO836BxLVadgzpVtzTmruqQ6ZbtYyKy73n7h1eJ2fPKTqVk6ttqyk6lbaspKlk7aspKqTtq22rbJaUNSa22ZdsRm6R5E87BGQa6p2TFSU6k7ZZWShpaUprZSYVXIXtA6bbG22pSkqrbattqUQJKVtqykqpSk6lbal2TJ8yqSpLLttW21bbVttW21bbVslNEw9WVs1kqStiD1Ew9W21ayrdV1Zcn0eWjvKSmilJVW2zSslVbbS5W1bZVJytScrVkq1cm5ds87kcQLTEdtFLwqB8L+eHnXj7nVlnl6EWFYYP0GidMdtq22rbattqVtqyk5bbaspOpSdFTtqydmsnZl22rWFffq1yNScdBhMG0SlWpOUmk5QqlOSsnK1aYC1w7WUaZqyVVttSlJVW21bbViDJSttWUlVKyVUrZVPHAyaIpO0Ntq22rbasMg6ylattmslWpOVqTtpclSZttltsqk5WZdsmtb1DvN+nS4RjqjbM221bbLK2zSttLlJVW21bbUrbSteU7Hjs2FR9hxlFmKPXLl+NRynvfCh7PxzvU26T0r5L9mz195VQ3fkfX9EevsDbbMNtq22rbZZW2rbattq22rRMVG2a2ya22Zdtq3Xc11eWikqaoxB1b+bSpMyUzK2GYbQpVlk7KpNHfcdoKLbMmUnVh+XGxf1NSVbJttW21YgyUrbVlJVWUlVKIM1WG20z22rRKa2TqJtqwyJaVtq22rbattqTkTSkwuk5WWSraXbJliMltFRGF266+y5tB5WZ05URRtlttqUpKmG21ZSdBW2rbZVTQdC2mqOJ6esWq+O7HiOrzuA+fvfvE/T+b9Ip+/8AEHy7FHoXiy6/Q/qPhvt/F7T/AKLlOm4/XLk51Vk6lbattlttqVtq22rbZrRMVG2pO2ZclSa22auL5lUc2lZ59TjLdCTmuGZfqXoPgj75XQaSxmw4q+UYd4nzrsKtdtFfm3e+eMqdsy7YIPzd0/B+qcHT65kq7+XbY2UlVbbUTbUpSVVlJVSnjGxlXlzoo1KzQ8TLDxM1ttW21bbVttWydSsPCTMKNlbS5Kki22S0SNpSdmttla56bh+5yYaTJGg8pLSUkSrJytWUnUrJVW20u21K21ZKstxhjZbjuf6AGuXhvif0JzHt/FmpvKTJ0+xeX877e1Ye6+ReucPrGuKVzw+x0e21XbaVW2rbZbbaspOpWTmlZOpSJ1bJzLk7Vts1lJfq/S+L+1fPvO9OHNmTn/CvSOIbHuvuf4w+z3l810Xg3N1oDT85L2fO8H3Vl9CdR5Z6q2vNcpaVbQ9s1ttXB9g+yPsrOm21K21bbUTbUrbUrbUqUKqwcV1i6bbONsmlYeomHqJk6tk5ZWTmttlttqSpKmlZEqqk7VtCKyVJZtthbbGV23E9IleQtOGiRkGzZKtMnK0qcqJo21TG1ZSVUrJVLlxlqul6fj1qFte0WlR+We0NOnyfFU9nzvofPsR9D6Bn2Q8fo8v6YK9g3YlqLdl22ZVbattq22W22rbatslpWTmXbJrbZrbate0XWZu68Q9lqMX8BZdRQMngNlS/ROvN0XuQHKdPP+Fe4+HY60nl3cczZdZ1dH2Fh0PrvN2DdPDI2d9okrttWUnUTJ1KyVUrbVttW21E21K21KUlVHsWL/PpjbPbbWScrEJyswSkmsx4iaTlZgnbQ22pOVhbbBdEjMoakldtm022l22m1jXKDehJQvmkjMNtE5Sa22rbak6YmykqrbaVW2pSVJl3IdfTrUvnnovmszOt6G0a483WpZaqzVldSkqgy0TLcdHx/XFVbZ122pW2rbattq22rJUll22lyVJm0TmZKkqVjdNUOsrkuhrOmRp5Lus15n6LmC1hkqnafP8A9E8qo+ZuQ9r8KsPY+hrfZ2r3let87t2CcnRZWlVbbVttSttWUlVK21bbVttRNtSttSiDbh6pHyUT5r9f+t33yM/CfWlj8mWunD9Tr+bL7Tg903kD/o4vUNwNnp5/V6psd+NeVtcE5W05k5WZB5O148nZl22FkqSdNExUbattqyk6br7Xl+o5rJUkMlKks2UnUpKhUtKtW21bbVlJVSk5hB+KttM7iai6rWNKrmGbXWp5S7q22BTlVeqkbHlR2XMX5Wx2zrttWUlVbbVsnNbbS7ZNKTsrbbUlJItIVsr3F3x7zO6RVK4ksxtiTVlJ2Ga4OewqlVt01RbzJA5b1TW1Cwrr/Me24lqEqSy5SdSlDVSttWUnVlbUrbUrbVth1JvFfT8XvttsiuJ7bwTi+j+fspXxP9OjxMk3IRTSAuxjE1pQ7bi7m58rh+P3W8+a1vw/Vlx8i9H0eV9X3fyt0/V4f005+ez6eV7ttvpfyrJUl22SqbbJeVk6XZKpttltk6nXd+cd5izyJ2bJGYbSdtNttW21bbVttWUnUTiu159bk/R+E7bHSp5XtvPds+ZcuJaAl9NNluzStFv3LVY/sDygc7MqslVbbVlJyyk7aLttW22b5KtaJytj0pym69Ztz3O8nr+hh8kqMPa9lp/HaDm9z2yw+dGPL2/Z9l8F+jdvy/1kTzftvZ+EtV087ct2qlWa5aCcLczevVVw1E5ZNKTtKrbVttSsnUrbUrbUrbUrJ1K47seIRvK/bfJPcsNXakq6sN8o/VHjfB9n8/B98YeF+reJI9hYY+h5avuqTm9egTZVvP6SMpSaDguoUkmLZLjWbWT5sxvG+PJ+hGGL9J/kVzmSZnur82dhq/TPEDWslDtdMJstVfrGZq7raR4p7Dbc7pSpLSdtPttHbaXbatlak5WpSVNVqO21GovvODV7FBGzVltRUwmrtxzlpXXFSTRdtpVbaspKlttq22m22UbbZ7bS1x9FyniOV5fofTuY4AXF9F0FJyXG8P0nq1D5SXh9i8rLW+V+BeeiWHR43nNl6EH0vmeWsrLep80PqKFz6PzXp3Z+FW+vF7Qnk+kRXMIlGcHaY3LMe1Y1y+esKJtq22rbalZKqVk6iZOpW2pTV1hU1ztEmHiKTzPreP683GCrWcEb6nbmtKps4rsnQim6Dc3rcDz/AK644Pofniq+pW3F9J8wx9BUPnfU+OK7blfM+rZYe5vU+9c9j9N/jEJC5pKlTSFzpsrKWTlaslWrTl0lcKrsjVNtztAjDtE7aO2TFW2l22rKSqs3LVLP6XgqVl6GqZTSmjlTTQzhdN1lVQy6a7B3V3rI3G8lgzW5RQVZNbbLbbIcp1svRRVcZxPF9R2HJYfm/Xpa8bxHH9H2HGv+p5ujh+n7I/qfF01sh/73wwG/VdJ6Hz/mj71p+2Xl9p6ERRxz3pl1RO7LRYrdqla51podtYQO5bZC4zGFayYBe1Rs+qb1zybFlQ9tWUlVbbUrbVlJVWUNVK21bYcvnFT0qOtedX0OeoZvU1SKtiy0mtxVV58mmqiJqJjTacmYh2mGjJje7n9P2bKU/iJVlTbKTSskiyVbVsrUrbS7bVlJUGtui47sMmkZBqydtaZKk1lJVLkqTSttWZvEV5a3u6+mAnwZW6TxQcTUHE1AWpUz7s+B7hs15SdFykkpgphYVslxmc/XVYegPx0Dfyv0FKZHyfVh8ycNlZh1dub0/jiD6jtfY/O/N+k9Feac/OW9gSmhjqoUmSIczqiFYSdMG22MnbVttWSpIsheE2d5IgtbXI1PriupmC5MLm02zQTbRDSlDVSsnUpSdRNtSGzpkysFuTbK1l+Wq1N0tqi19q50XSDrmQ9Sg3IA7EBuPb9k0rkg9Yxqh1qNquzhNexztiqttMrJ1K2yyttSsmaXlak5WpKtqV1XK3GLXidlZO2myVJrKTqUnKZtuJ6PMWcSpjyfM97wSqkJktAQcdCy4oaTam6mOqw6XnLQr0m21zxBkrmrWnfzPbWDZaJ8b9m+afP+rMOG3h/pzmqfMJ+N7Afee7+bUnod7Yep8a2cFU2QyKUknKkUZSa22rZKaUnY2SobyslNKydWw9RIQmi4Wo2CqiQhNOEhgSxXFDg8H866PNuir2NjojHOxNB21bImjZOpLNyyZXJwuNIjgLqlLWqsrEEHGwm6HaTM0PYdWYrFNVIbjNUTPpgm49v2CZriZSmcylU221KydRMnLK21KiNSiCLW21F6Otv8GRthtttLk7VttW2HNxb20rue6rbdCo829I4yqIgm8rtHktlN6KlBaT4x7b8VKpfYPJjS/VFvxXds3TrZvNFzdxUMoHTIk3U4KVZx8gfWnxD4/wBxcM/P63wf0/1Q/mPTPx/S/fIf/W/iskTujziEEvNVZOpWTmlZKWiJTjbJSYkITRB5NKw9SsPUrJzWw9RMPURKR0ZIx0YbZit3dXzd1g1ax6pWLcB0ds31qeHhljVXQcg0dXMWprbMjlRtko1rB00dlXTpu6os7UWYXSdssrJzWiVUPK1Bg0UFJkiDjYhO2ZNtpspKq22pW2WykqrbapKJdKyVVZ9LxHYYtO2XZO2l22rKSqo06sEyaVtqRQ9A0rzb4/8Asb4obLyj33yAyn7S7nyH2RWa/D3234zXib1n00ns3pHnHojPbXnKdToq+W6nj9Fs+P7PzqvVEUNlMrwr2fzdNeHTcqPXTvbLv7PqXNF0B5tNlXhF5uqjYWo0CzRUoRR0jTREpTSsnUpOS1OQmiQPNLSPUrCyxcCKMkAlnLYIKlrm9IbKDWe1g0bprfz4KN6uXya3C9zxrNkYhG5tYhUEdTOAulnL5u5p2YJaOYBKJtq22W22rbKpOUlW2TlbbKBHiZHb44urjSrZrbJpW2pWSpWykqrbaspOom2l3Ucvco92lSctdk4srbS7ZIlZOmVtpVZOqY2rgfjD7l83bL5F85988Gsvrv2vzLv8+iZRmvNOH9xsqpV2/PVPpvnfYMt9xl1W6rYcx09S68Z1VE1m7CqRYNV6nCmkNLc6tzHR2FVLZWXGauzBRWtLUcdJhAVnObEaLhJo8N8rEwc0ZI00ZI00vC1ESlFLhCFloSOiDbjpbbCpA1t6hChzJEdCzYblFBUpVJylVjDLRSJNpGfNHeauTtnFPCtyU4IBdGULZufBJlurZKaqUmF6F5mw5+i53GU2Pp+mB8fp+b2vaGniwU9b6rnk3X0/43ehbPDNx2aqpR38Vzir4QWmVYjLMs4HQ8pNKUnCU8YrB7PAPnrzbC95zmbt8ndNkqSq7bTEydLtk0pQyVWee+oea1U8nWdvLaqya52r6N+1yHZhKKYckKsjHzjOxOHRVXZ1Gkx57r2tc7YNrJpwVomay5q8rKf3/HrW69pTWbTYHTprmj2rKlvacNdIrmdXQNmjil56uq/HDUJiFaUyqCIImA4WOOGpKlAyDZRDMhS2GcSkKDQ02g6Kb4yaElwhZuoyqb5xNBWQzUGQaluQmWM5buGjkAujFbrzZxUWXxl5f1X1pVfLd94/3HuVf4mxy6fbK3xVhn6vtjbwhnh6vulV4/OXb6LSc2tO941nY9f3Upc/p38fgE7hpJBpWtHvPQt1z7gEV6RvPXVdmXlnlXYG7sTfPkiZrcN6tH1HfZaBpr0a6ZSc6qTtW21K202VtScrULkut5tV4OXZmUCnjyWqLcxoK5wSCqJViMpOaUnatT21TSkpzSGT8NNwmAzNstvRjBLRRTqXYsF1c2/GqrsR844qyZuXtUo+jRXLI6ZtLSTahmCpYqcLrxVaoqtT9NbFWeqtVmNipVeBDExkbKooNpm8H1N0uU02zjU1lzMzVbjSjxc0gyV0UkOVsTZWURC6UpOQr+PPsD4q+U/X23MXlZ4P7C2IVemTdRoXQeJlkqVrXKURN0YuTq+7MlX6p/EuGTNDQVNDxETC0StkqioSZcrHWRVZguwLLSIvk0H0rz7ts9HgyDXZO2l22qMhVEydMTV1PL1FZxgZbiqXYVWv3BNEicqCVbBUxOZoQTFW6XSZmSH42VnW3aa5ybls0xG8a0hEoqGzyWq3WY5gJKitClLaY1GTs0vLItJgzT99RKN0M88sV2isPTkcmaahuJFQxfxXPIv4NzYekStzbbpxm5hPSDrnI6HC5tfQqrnN0qq5lXUKrk1dVq5WOrQ1ygut1ckvpYqqs3CFlk2VttqVk7JlfCf3Z4X4v3/zxLpt8p+9yocZ9RZU/dWbro7x/O4Pev8ASdPg/OxvqW69HwfmF/8ASaOzwb01x0/0H5F5wOwG0wmx0rBdnpmZjKoK16kSpVDUrVsrUnK0yej56yzPVDUPPZWREVYNYq2qOJ5+u45vy+tr0i75Lr2zdGZbWelrsaxmt0tkqtXVjmOp8pnqeZrqcJFqVCU0rJ1KRKWVKCjaG3coqtDaN2q9L8EzdS9TeDJlHjLWCSEUcjVdOSNzzKJBJcRJJokmWHjZptDpVNs5TSF5Szp3UZGvl8+kXSr5dddKrlkZ3Up5pVdEvmlV0kc8tq51NL1i3aoKnBCWZKkarOjdZYGOihYmoOXIm9LfUKPz/I+mI5vZ4u56FVVrmwX1+bWCvnZ5+Y3VEdeYd3uhVkfaPXNisVWmE8Cyp2Utts1lbVtlUrJmp202ytScrUkw8jdmnnQpXNC1Qrc3wHpnPKwbRiWqtxYYqqyqx6JbKpEuL7UKpbzUqg12WjUK9mmJV1NSurbVq2rLVyqscwW09UxIs8GHNOEpVLhkzTcZh03G6HTaHQqDBxszAzc1ZSdSpQqXIXqy0ZY7hhqtXNCmukJy6q6jc6RWvlUTla0UxNR5mZkLUuAsWYhIpecLHTQ8RdAl1qa50qmedrphnaWmaH+phn+pgl8lpkJ+imWdamqXCWAdkUVLBqxuR0jaXpF8e3rsw8dMvTgpC09CLV6U2lObNxmHKFRM0PK1JytSVbVpiZp21ZSVLbbVttSttSRHTTCtvWi1QGyYGZNXTMqxDmcxoZAzrSadVXJaMjV4WkNVyamNVwSnLVwSpI1brqjU/JXrqwUwW0/lmun5GRmVwtuql6FUNKtSYLqGysq1qtKAs2yIoiwTRsLUXB1GwtKXCijYWosDyxMnVkq1DUrZy8jMzkzDU/XWpWuC0hpbZdVprVVUurVdUkLaxWzNY6qEa6RSoauNR5VuR1WZrALPUYGRKgRYaZQ8SzNik1AKrUlStSVKVLlIXS1p1d0KNiyds0lKk1ttLttW202VtW21bbUrbLbbVttSslVJEdMtcwu2TVEyu2atz7K8YCpGtyzFXZwBWSrS0ogC04M1JTszMyq6W1XTwjQjzwjIhnxGBqeFZkaeOGBqelYmadlamlIpJKTlKqaLoOeppiJMNMwW22pWTq22rbattqUoesyYMLGmDTCxi0xm0LVOa1mq8j/UwK6itsil6E0RKU1onVBUposj1GQldJA4XTDP9VQO51UI74FUs2LNoSZRNsnSq2VNtlUlW0qlJVW20vZbRnpO2W0TDUZWl2yZlJUmplKq22rbaspOpW2rbattqykqWwi6q5jdNq59n0DSueZ3zUVC06BoGo0Woqr5dioZMupMledK0EaIsRGBCDIwIQaqMZuailGRpwYB6KYBmjEGSlESVVXyvWcs0uD6mSXg6bIeoprnqqYJsndc+rpNXPmvZqnXbqquMaabKKmkSrVttSUL1IyoqNkURO1ZW1CxU1ttSVJ1KUlVaYVWVtWVtScrUIRh02buQ0ARUtNceJQ402gM5mVrLtMzWXGpvlDs+422bbbVomJo20qttWSpM2UlUu20u20220ytstttW21ZSVNaYnKyFw81bWDCmLSzatVrO1ZrV7d8JatC9BQYKmk7aZSkqlUURTFUlRlEGRophmWWYJqOcB6UYJqMYJmjEGSU3JdbysrjKSzb0bzn1HNqLnukpmm5HCZQSRMo9iTDSqKjbVCSpoJFKab5SayF6h7ak7attqTtq22WyVJa22pW2rTE1O2om2rbatMHpshaKbjImgIKmgJKllHtqJthK2wZZRFm2Vlv/9oACAEBAAEFAv8Ayxxwen8zx/1Ru3iHa9ljn+s3Jf8Aswd/DsvrLsVLsr+z3CL/AJEy8vbawg3X6wZC5fEe9TmDxJvUC/DHi9G7Hv4l8Y39puf9Od8exeJPEG7bk91v07dYf053x/0531/053x+Dty3bdkPct1s9qg3X6wbyZyeId6lNr4o3u1X4Y8XQ7z34PffHG5R7l/TnfX4Y8R75u+6bpussU1hvd5h/qbxHLukO17d4OrHL412Dbz/ALMDcQ4t+8IeJXL4Z33w3ewc7k/8iUpQSnxRvs263/e3uJbWbw3viN6sHve4o2vbZpVTyv6vdrMNu/rC3Wie0aFSybFYfo3a55UwQ79vc+9Xne2uJbWbw3v0G92T8SbinbtoKlKL8AbV7ntu6iW3vtsjRtEf+p/FXhWbxDLPunhTwi/9mGtq27wx41g8O7VNs22/75z0uW9Slr3eJL/TVu/01bP9NW7/AEzbv9M27/TMD/TMD/TMD/TVu/01bP8ATdu/03bv9N27/Tdu/wBN27/TcD/TcD/TcDh3QLcd0hf894v3P9HbT93Zd4uNnvrO8hvrb6wt2CluytlXd3Z2yLS2mlEMe9X6tx3Lt4I2337dn453X3Lavu7JvFxsl7YX0G4231h7nzbp7baLv7+1gRbWykhbRBDD97fN2k2qP+mV0/6ZXT/pldP+mV0/6ZXT/pldP+mV0/6ZXTT4vvVmPxbNHLa3cN5D2zQ80PNDzQ80P+jWxncpLSwlRtewbVtM1UuqXVLyS61/3xqUEjdd1hs4dz8T398pa1r7Y1aoZUPkTFKYpJGiGZb5MhV7tcswyhS4pUdwKsxyJabeZbXDLH3iubiBWzeMJo12V4mRP85443X37dPveE/E36Hk3K7Vf3z8AbZz7t+Oty9y2rtxfgzav0ZtR0fjLcff94+94V8SK2WbcbxV9fP6uttzm/mPGf7iKNc8t5ZT2E33tnubxEuc13L4WXNb3z3WRcO2q3Xcyr9Kbm/0pub/AEruT/Sm5P8ASm5Ozut1vLmGSeCP3m5fvVw/erl+83L226ufff8AfFfS4vxHuq9zv+9svlT+OIIT4esbCH+j3gO2iEHgOKKWfY4oz4z33xRtWyXcm72m+eJPrIiijh7eH/BVgpX1ixRw3PhTkQ+GLC92Xxdb7pZ+4bh38E7wrK2k5kf81u1+nbdvnlVPM/CPh5G7vcttudsu/uoQVq8O7ana9q4Pxfup3Lde2wbcvctzSAlPiHcP0ZtSlKUX4V8Nfpu3v7Kbb7r7qEFa/D+3o2va/wCY8Z/uPDdttSzu1nsc9xFs+3326XUXu93deH47dW9WKNrvP0PGNk2nYYrm2m8P7beRfpe5S/Dc67reHvP+0kuz2tV7aWe0zXtpbbau4sLqHbE2T8LW6T23He/cLmx3pV7Ntk+5Tdts/wAf/wB8XiCdUFh93xBEvcPB9oQm38Ox+47J9W6snsP/ABmvjDw1um67ps9tNZeIvrKFYkeFfEEqL7bb/bF+DZplb99Zf+NeG0LX4P8AAO1X1hP4lWmTfe+0TGDcrE9X819YW5dkJK1+G9rTtW1+K9gTu9mtCkK+54M273/eH4i3JO1bUtZWrt9Xm28q2f1g7rzbloQqRew7cjats8YeHE7rZrSpCvueDtq/SW7fzPjL/F9kwTu3i22mO4eDqJvby0uVbzuikR7j4qim/Su4wqtvCe6wzXvh7wglcW5bvpunhH/ag95/2knj4bX0WX8UhuUe4bFvCEJ2V+Ff8Qe9rmj3uxudxuH4XWtXbbP8f/3xeIoFzWH3dm/j/hRV2mPxJuUfuXh/6s/3ewf8Zp4s8W3+zbjtl5Lf+JPrIVSO3+sLcreHfN+uN9l8F/8AGQfWX/jXhWb3bwrffWLuFxGtZWrvtUSp9xsOP8zPMmCHdbxV/fvwdtir/d+3jjw3h93wXtfuG1cH9YO5Ce57Wduu6urG0RY2l3Oi2ttxuzfXr8EbV79unDt438M0+5xfgbalbftn8z4y/wAX1DtPFq0Q3O8LVuQ8YRiO93K6vrrb9/vryPxXcgbXtm93m1JPiC69/mmXcTeEf9qD3n/aSXtV6nb7u83hM9/vG7Q7jDf7rFeWD8PQqh213e1TT7qrqezbXLtxe2/4/wD74r+Kr37bF7Zffc8CL5mw3dxTx945XyfDv1aexsNP6afWH/tb8O/7W/rL/c9vBf8AxkH1l/414f8A+MNX7f3PBW1Fc1qjGP8AmfHG5LtNuwW8FvwVtvuG09pYo5o978CXcU6vDm9hVt4N364eyeCbSwIFBe3AtLW9mmvLnBbwW/AO0e8XnB+P9wXDt/JkfJkL8G7V+jdo7SoRMjfvAdyJleG99Sq28Gb/AHD2TwLZ2DSKfzW97f8ApGzmtpoF0dC6F0Lsd+vdvtrq5ub2XV6uj8JaX73n/aSdD9zbtvk3G4RHy0OjoXQuj23/AB//AHxLQFp3jZYb+Hctgv8AbV8O9pu+5WKFblfLubneN1vYrTcr+wce5X8NxdXl1fSRTSQLu9z3C/729zNay3e43t8Yt43SCDulKlPZfCd1eLsLCOFA0/mlIQp8iF+7wvh3G4WRvDf2abn9N7OLa5vLSzgTuNiq6Xe2sU+5b/su1rtJdtv4b+82jao7XxD4Wvp7O6srh7lvm07QbTffD27z3+9+G9rmn3XYbS1R4v8AC613Pivw3Zzw7tttxZncrAWe2+Idk3aX+ektoZn+jrF/o6xf6OsX+jrF/o2xf6OsX+jrF/o6xf6PsXFa28CnxZ8P7IX/AEe2N/0e2R/0e2N/0e2Nw7PtluP0bYP9G2D/AEZYP9HWD/R1g/0bYNFlaRK/3xlIUJLCrm2CxlP9Gdrf9GNrf9GNrf8ARja3/Rja3/Rja3/Rja3/AEY2x/0Y2x/0Y2x/0Z2x/wBGdsf9GNsf9GNsf9F9sf8ARfbH/RfbH/RfbHbbJbwFFmlP+ot9hvFeN7bcYt38VcpE3gDdb27j8M2f/NQd1T/xM/B23Wl/bbbaRbJ4w8fkpXs93NNf+AtH4wkVF4q2q7lU/Bm1WF3sm2+HtqsYPCW22Em5Wd/DY7pZWkivD21J/Si7/wAN7VPOP+Rzi2Bcfia38GJtPE6PA8yfD/izwgjxNaX/AIZuVXlh4f3AbxF4d3Ta7rYdgl2248SbJebu7a18VJnsvDfiLapdw8Pb3dX9la+IxLbeHd92pWw7IvaINl2Ne1XWz7Gra7j+idwmJXhGUbRJ4e3ncrsf+Widxv4dtttq3ux3Z3/ijbNuuba+gurSw8S7duVx/S3ahdbr4gsdok/pvsz2zxFYbtNN4s2qC54jg7/xptNjJtvi7atxXuu8Wm0R2Pivar+5u7mOytx422UqSvmIvfFe1WFztm62u7RXl5FY2/8ATjZHY+KtmvpNz3W12qH+m+yv+m+yuxvIb+0qA7/xttVkvavFu1bqrdN4tNoj2reLTdop/Gez280fjbY5FwzQ3Ee677t+zoi8f7UtcN3DcQQeLdqubrctyt9qttq3yz3h3nizarG7v/FG27cv+nOyNPjfZVqe6btbbTD/AE52R7d4k2rc17lulttVv/TnZHt3iTadzXuW4221W39OdkaPG2zSLzohfjbZkLs7uK+t918Q2G0SWF9DuNtfeKtqsLq+3i126z/pzsjg8ZbRcTbl4m23arj+nGyOy3Kz3GP/AJEPxRDz9k+r1dLzxVJzN98PXBPhLwHFXcD/AMZD9YX+O7H4Ptt12/ZfC0Gy3G5f8ZCj2PFN2uy2TwtssO+XfibaI9iv/Fk/vPh3ZJvd918Yz8rYYdJoDS13XmX26/V7O/FH+0Hw3s0e93niHZP0Fd21h/Sfw54n8OQ7Enw74Rtt6sdssEbXYeL7uS02TwnsFvvcviHaxsG6+MJzc+H/AKv/APaZfwifft+8GI2mw+r28lI3pcu5+IN88G2dhtHgG8lMWy6eIfHf+0H6uvY8T/8AGSX3hK23xG87aja9zsfAVmuN/WD/ALSvDPhiDfYd22+TY918WzquPDHhjw3Dvr3Swl2HdfFk3P8ACvhjw7Dvyovq9sopdyk9327lyLj8Dzc3Y/rC/wAd2S/Rt3hLwxYy77vXj/8A2j+GfDUG+otvAVna3Pjr/a1B4Jhn2nwfdS2m9/8AIh7ujmbb4FXju1+hV9f7JcYeDvACKhX/ABkP1hf454SvbWHZYpop0bl/xkCPY3+xN/tXh3dTsW5G123dE+P40Q7aYuRH45ua7VeQ8i/XLydr8LWxvLrwLNyt58Uf7QfAa44ty8dX0FxfeFoVwbJ9Yns+A/8AaM/HP+0T6uvZ3zwnDvlz42tRZ7L4A/2mT6eJPGO42Y2X6vLaTKX/AIyXcLBO52G0eFodhezf8ZD47/2g/V17Hib/AIySy/xPxb/xkW3f4g/rB/2leBtzsLG28Q3KN533xbAbfwx4AmhiT4suUX+9+KkGHwp4F3CzsVW27bdeL8Xz8nYbCzKvCv1eT1g+sP8Ax293QnZ/BlpDbbN4/wD9o/gbcrGxhtd0sL5fjv8A2t2V/aW3hvwpEq58Qf8AIh3KcoPD6/d/EOywe9TbbLh4a8AxY7Yr/jIvrC/xzb/Cm5bnbeGNsuNp2zcv+MgR7D8VeFfeR4Z8QT7TdfWF1bffRf8AEY3u597R4iRy9/36f3fw39X8OUO1q9x8VeKf9oW27XdbtNJbXOx322Xkd/YfWJ7PgP8A2jPxz/tE+rr2FSIS/rCNdv8AAH+0zdEKm3rcvDm57VH4J3OK8sJf+MmBCULlQqLZj/xIfHf+0H6uvY8Tf8ZJZf4n4t/4yPbv8Qf1g/7Sti8NXG+RrTf+Fd18XXab7wztex327iwlXsW6eNJEzeHdi8PTb4/DvhS42a8+sKfCw2S0z8GeALjlbp9Yf+OIsp12n1f33NsfH/8AtH2Hw5NviPDfhi42O58d/wC1r+je6e4eBdyjhuv9Txoq8A+WHyw+U+U+WXgXgXiXT/fEXKv3HePBMXNtefyLfwSimwq/4yL6wv8AHPBv+0F7l/xkKPY37cpNp23wz4gm3x+M7SK23jxLKqbwyYeZ4H2RS73dvE//ABknjSfDYtqvt8s4VS3Kdy8RyCTw74A/2qfWFpP4O/2g/WJ7PgP/AGjPxz/tE+rr2fHk0iN08S1PhjwB/tMm/wCMk8Ya7D9Xn+NL08S+JzTYfAksss+z6eIfHf8AtB+rr2PE/wDxkll/ifi3/jItu/xB/WD/ALSvq7/xX6wP9qm5f8YN9XXseONN78R6+D/q70U/rCnyvbfcfElvaeF5l22/fWGf45s+3x3Pg7wbee5734//ANo/1dfuH47/ANre06+HvD+niH/U46Uvj/M0dA8UvANWKEpuEqV/qzxLbyp3vwLbKRtl/DKm+8ORcrY1IX/SH6wEKVeeDxTY/LckLPiBHsbtZ/pDb7e43jw1doh3XxJuPja1932farfneC/BFqpe8+J45D4k8bySqfhaH3fZPHFrInerhap/BPgFChun1hRrVN4N/wBof1hJUU+BUkbO9+279K7baXe8eHLmKDdvE24+N7flbR4ASRts0a/6R+LUlew/V9VF94t2O7sNyu/EO97lbeC9lm2218QbPfbNut/vm975H4Q2eTaNu8SRyHxFZ6WniuORXiGw0sH4/SpW1bduu7bUmHbt78RXni2z908N/V6lSUeOIpDvW/fS+Dtu3LdNpNt4o8QyXHidUl54gt0YW17DNZeIfH/0t14RTTYd5tpts37xjL754f27ct12pO3eJfEM1943RIreNoSr9AbIFxeIf9TJ1N+VGBE0ibCMUR2VdwpUFgiv3ZpkQRJOQQtK3frohwT1/wBWadqV7UH3Kd1wwzNEUcQ7cPu8XSnfj9xcMMrTFHGOLGj0fF0oyApotbaNXBqAWEW1vF24/dOroOx17ce1B9yg+5xdB20PagH+p4hVyxrkuZoFIvpd1QH+lZHDfxSuG3mUnI0XdzRtVzcFcUtzMvtuI5ovJDbW23CT3a8XlL2hm/5HRGibmdFvHNdSXC3nR5re23ZuIaDLBJd17slybgtS1zaxTSoUhS76YW0yovZSs5L7wzV/5HIamlHut4ZpgthTWtKE3nimxtj4N8RK3a/a1piRdXaruWRag7azSZESQxuS+jQ7aYXFvdLxi+7DN/yOMQ6rpeNspdSytKE7put1u01h4Sggi8LWNnCt79cFCM6MyO4v0wuzttz3SSTZ0xRbRHydtvl6/d4OGX/U61pjRNusqjHuU6DbzJuEPeJrwXvuG+OzvLyC/WtESY7i3ma5Y4j71bZyXVvCcgoSXVtC0rQpKN0SreFyIiTHcQTsdvfLUKZvbMKqA/ebYIRJHKFbsP0ubm2SY7iCd++2gXKukPh+5murD/fxDoLlGcC+lb8S3SxHs210d0iU7ptO3p2ywe/f44su9u+Si2QZnc+82VptSIbi7QgRInVlN9+Kb/U27KIh8T308L8O7hci82dRPbfucNyudz36zRtlncXM93eWk+63d3tUD37K4e6bVbW1hZ7VbXVhtt4uDats2m3uba2H6P3WDb7I79fXlnNuVzd7RE4ZefDv9zJBZ/0dszbbh75YbcjYLDk7VcS8nZNthu7ewj9y3v8AR9md+vLVNzv27pRtlsjw/YcjaZpBD4X/ANpv+/jgHvG2rikRQu8vEJ3jYd3ub6XZthjsF9vEEJKpdFb3diKe2vrlbtrlE91suxw2My1YI4/zMUv+pby394h3La4r0bbsttYq2+2MET3f/axJGiZFktWzblL/AK1bovdbWde9gi53z/aZt3+03a7c3W22G8w2VvZ57luq7mKz8QTY7duUu72UpQKJ360kuLRPiO0EF5Hf7jt6fElkItstpkweHv8AEU/8ZJc3KLHfsgrxHv1pJcW6PElmIdptpRB4X/2mf794xVXbRTm2SwlX/QjYDNa2NnYI495oUTxbntVzaq3KNC9+sLSa6dh4eQmR3iqI/mopaf6lXDFI0W8MfcoQotUUaypCFtEMUbUhCmpKVAAAJQhDVDCthIAVFEtlKVBEMUffkQVfu8BPFpQhDwRmuKKR8uMKfIgJaEIj/wB9+v8AMwD+cMNuVJol+buzWX+bilfH/kYI01fB8XR4gvBLwDweDwLR0jOrq6/znBqVkr+chlp/qMkB5pP/ACJkWgP83k8nkHxdxdqjkguETD79yvGP+eilo+P+oLiYQR3l/iLPc4Z3ZXPvET3vnKv/ANAzOznu7HcZ7qC2TBuFldFciIkjeNtK91kI27bVqXYKWmNG37rFLuNryffP0nYBw39ncIh3OwuFrWiNMe67bNI75RTZ7Dd3KbyeYQQ7NNdK3Se6t7ZNtuFndvxBuQt3b3NvcQ/pfbTIqRCEHdtuDh5P6S/SViE21/a3bmuIYEJ3bblRoWFp/wB8o1PAfzsmiLRRNvKrJeZQ7Sbmx/evFa/z8UlHX+f3eph8WpmKvDaZjuO0e09+5x3K8l8SWcWz2nOXcXluvdby8sVvcYobm3v7jZDbIWpXhuzu7e122LcdvvFbVbQHcts/2sbPZw3N9PYwDfN8s7a0G/XSReXN3s8ltsky59u3H/EUI5e1btNz7aCPl+IZb22k3O8vLFS/ECI1x78tNpAbzZDDtsy5Nn8P7faS2Nvr4h2aziuLmeCKz36VA3Pe/EO220VlY/4n/vljFVK7lSR/N36qW8n0FreGY2+K44bdagiG55n3pl5yf6gjk/n5ohMi621btdso7S3FtG91So7wtKVuDPZt0l521bird7i+XvccglmvI7m1hqfDthbQz7bFY2cC7a59w3XbdN32EUuJhXxH4lFbfd7a5RPJv/MRZ+8G33DWy2u35+ybImae5Ap4kk5+zbgd5uL6TxHFIbe+rutp/SNPLSb1e1eHtNrtwR4g2EEL3FNd7v0z7duW87r7/ZWX+Kf75YRoe0i+WhSlSOxuVBV5crRNzFw2o3CYqnuE26Ir9EiiQAi5hl7zfS3e4rog9dy1LRG0qq47qjBy7qNEnj/qFC6f7879O6W93Ondd4caOWj/AHyp0HHtuUlAi1Uu24O3jM8+5S9W3x5S3a+ZO1XdbXbYad7brur9eU1r1ngBuUl7cbPccwOGcxNKwrtdGkf3Ly7RZptrtNx/PIXR8f8AkWEaqOg7T2SJ1oSEImsM121sLdywXKlpSbezskcye+t8FJGRhRy4nMvCKzTy7W4kq4RhFv009vtsUlbnw+SZuyJFIaFpkF0qq+/F75cE7ptUx95P88hdP9XcP9/UKWr+Z4Pi0wxI735rHckQW02vbfLk2m22sGCPD0NPuIWUlSsj3T7W4U/SezpyuT/Pokp/NzTJgju79RdruNXZ3IuIncbHaXM1ntUE9/8Aoyz2+1t7qztNuk37bYnNvFhBFZ7hbXyLD3P3r9N7cI7LdbO/d5uVnYBO/bcpA1HiSosPDkio3vsy47Lw2lSHd71YWS7O/tb5N5uNrYjd90tb6z5scFsjxDti5EkKH+++MUR31/mz9Lf7kuj9qd3NvHd2w2e6Qu1g93g/mE6KubEwX+yWpj/1DCT/ADW7V5PixUwV4bXONw2j2u22/wC1jdv9psn/ABjVhZwJ2zw3bwmKyQmHfNn/ANqHh63jWu5Sm33+wjRe7t4itYUOM1R4k0sVfxPcp/45vO2ymKLYLWE2l2hFlvNmhN7vniS0hEe+SkOS/wCZBsPvAs/99ydTwd1P7tDLNLKebIGL26S4P0vLH/rwGb25gYIP3uDshk7tec0I6P52a2guCEpSn/UEHtfzM8PPjvdtyFltUULs7b3ePtt8Uqd13RKl7cqGb+j1olQsPD8ckVtbxSDfNphlRf8Ah6GWIX0Uit7niutsv91ubu8CPY8QxyTWe5Wy5tq2eGYQ7TbLJt5L/Y3bQ3e439zDd7duG6SbhuUe52E1xD+mNwKLCO5Rb/77ohVSnvclXDEg2U0aOcmPn3e5XarNFtNcqjvyBZKyitIppFuObmwovF4e+IL94jwu5MLaIcizuVVSjRP+r4Rp/NcXw/nZ7Pc7e89w3LcJ+H+/qEUB1e5lXv655FWy7xckm1Wy0lUC5r+WKs959Nc3MqAr+KSLWu3Wfd4skW6gq2tlIXc9cl+vGFfVL/vgjFEf8ionQOezguWdmt2NoXGqm7pfP3NL9/vK21vKFy20kq/dpn7rKJTEuRC1Limt+Zy4fpb7cF1mi1X/AKq3C95D265M33Bqr+bmv4ITFuVvIrj3M8CWClX8xmmrUtCP5ng0zQrL50OX3ELRJ/vojFVvIvJ5pdUnvr97FJalJijsNLe6k6oBSP8A1SNXucyjuWzqrJ3hFV/zV/NyYd23hG2p2rf0X8u1zKWh7tdTGVHh2wwtLW82++vt0trJ2m921zJebhHZrmmEEKdziVYL3+2SiDcre5ttr3P/AFyvt4trJe5bhDfSXd7BYoj8RWyl3G4RW67mdNrAiVEkP6dhEE3iG2hXDPHcRSexYKVbXa1hEUAWrdb3craxTD4gtpVzTxW8Q8Q20j8Mf4lcb/bRS2V/b3yP98sI7q0dA9HiHR0U+t9bzeYDzS6pdyozOalvbXHU+H+qk8b2NQvdkiIT3hFE/wA1ukfMg8QbVNfvY9luYLnaYiEuf6PxC5LqGJe1JTNuviONHuW6rUt7h/tPh18N7NCiPbdlATuO06bnsX0tzv0KBd3iE3G/bhDHLZ2ka7zw/PP+kokXaoto3i1Tb7ZLDGLDw5/iEnsWdt7ztdzeqn2i8iEG5xJTc+Id9hjXYXK13FjPbwqtttWuLYNsud0gtLGHcjuv++VHSgn+a1Lo8XglpQA9yXRPtTf6rvNt501</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Amplifier dsppa</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Amplifier dsppa</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAYGBgYHBgcICAcKCwoLCg8ODAwODxYQERAREBYiFRkVFRkVIh4kHhweJB42KiYmKjY+NDI0PkxERExfWl98fKcBBgYGBgcGBwgIBwoLCgsKDw4MDA4PFhAREBEQFiIVGRUVGRUiHiQeHB4kHjYqJiYqNj40MjQ+TERETF9aX3x8p//CABEIA+gD6AMBIgACEQEDEQH/xAAwAAEBAAMBAQEAAAAAAAAAAAAAAQIDBAUGBwEBAQEBAAAAAAAAAAAAAAAAAAECA//aAAwDAQACEAMQAAAC+qAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIVr0nU8/Qeu8HQfS4/K6j6/L4/qPpnkdh1pQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYGbm0ne8rQe4+d0n02r5mH0Wjwx6+jzh1adQymIykoQCFQW402dnnj3ez5en19+T7T33m9huAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAATWbXJoPSePpPefNaT6fV80Pe0eOPS08Y24YwykFQWQVBYBKAQpAACkKQpAJQAqHR2+VT6Hs+Sp9g+Y7j2XH1GQAAAAAAAAAAAAAAAAAAAAAAAAAADHSdDh0nqPF0H0OPzOo+n0/Oj3NPkw9DRzDOYiyCoKQAIKQqCoLEKCWAAUgAAAKQsCoAAECwFgqCpDLLAd/d4Q+p6fjth9c+e7T1GjeAAAAAAAAAAAAAAAAGOg6Xn6D13haD6TH5bWfTaPAh7ejy4d+jQMmIqCpDJBUFQWIUhQAEpAAAEogALKQABBUFQVKACFAAAlEURRFgAUQEthKADfph6vb87T6/P47oPqXh952scgAAAAAw0HU8/nPYeBoPptfyuB9Rz/PD2tHlju0aBmwGcxGUgtxGTGgFgUhSFQUAhQCFQUAhUoQVBYFlgAAlhUpFhYAhQAAAKAAAABAoASoLBUFlgSlYwyuIykFY4G/r8rE+l7fisT7To+C9s+oBwef0eCejz8e8yxCAiiAgBCgEKAlAKgpCgAoFxoBYFgAAAAAAAAAJRFgsoBFEWApFEURRFgAAsCwAEFgWAAspDAyacTpvFgd180duvmptwxABRKGXteL7p9KDzPD97wCc/SOfdjpOlp3CUYggAABBZQlABCgWCoLcRkxGUCygAAUiiAAAAAAAAIKgqCoKlFgAELLAAABKEuJbp1nVOPWehj5w7cOYbsMAAAspALu0gACygF+h+e+kPfBw/OfT/MkQVKatPXDVt0YHU17CAiiAlCAAoJYCgACygABYKgqCpSpRKIABLACwBCpQgqCoFgJQUjPAGJnNWs6nDgejj5sO/DjHRhqGUgsCpQBUKlJnhvMfW87ccMB3cOw9PyezjJQAAoL9L819Qe2DR8t9Z8mYy4lBUFxo0Y9WAy5x0MciAIACCkKBYKlFgWCpRKBSUEoSgQWCwBACwLLAQpCoLGJk1azpvFrPRw86HfjxDo16hlAAFJQAAWABQAAAbdXUava8yHV5eeoymvrNF7tZzLAACpTL6r5X6w9YE+R+v8AkzTjliAUgASlwyHNl0ajY5NxsUQEAAABQVBUFSlQVBUFQWAIUhQADEyatZ0uPWehj50O7DkHRqusQEoAAJSUBQAAAAAACgAAAbMNhl6fl7i+bt1nRhIacncaGUIAClL9f8h9gekB8t9T82cMyxBCprNslICyggato5d2ek6Jy7zMEAShKVBUFQVBYhkwyKgpCtes33k1noTzcD0dfGOnXr2GGPfsPMvqeofMdHvaTzOn3NRo6dww+Y935051gAAAABQAAFgAUSykBSCgABduncZ7NMOfDPEvoeb2G3o4qZas9RAAUGX2Xxv2h3AfPfQ+CeXjlBFJy9XKYdPNpPTmnaZSwEALAmjoHN0Y6TpaNpkQWQoKCMcDc5dZ29Pi4np6eIdWvLcceO3acrbrGf1+J8/v+l5Dx+q9Rqz1azb3eNrPW2+BuOzkZmGfqYHjurmO3we3gNQCAsLAAWUAAKEtMWew0vT7DwH0fEeQolAAAUbtO0er5Ax0b9Bn0acj6DyJrGuwAWClMvtvifuDpA8X2vJPDxyxAJzdPMY6N+k3a8odO3zeo3scgAAgso16ekac8dJ0a+AdmHNTPAABmNv0PEb+3z/QNWrt5jt+Y6PVOz4v6z5I+k5/Dh9LweUPQ08m89Xdnwnq5fP6D1t/zm09LnvScPP7+0+b6Pd5zzuD0/PMAAAJRGQjLsOK+zvPn77npHzXd9DwHnd2PMev5vHxH09+SxPf8zigAAAKRROnn2l9rwsSwNeWQqABQlBZTL7r4X702AeZ6fnnzmOWIuNGvYOfR3aTnzw2GjbryMtmGo9BxdZkCTKAAhly9Og4FEoFEUOjnp+h/P8Al+wc2n1oef6HLwH1HjeBiZYAZ9RxX1es+ev01PB6e3kN3X5Os93Dycjp5fMh2adNMsLkXbhmagL6nrnyu76/M+Y7PSyOPLVrNP0PyWk+q5vmB6jy4dPPBUFQLAAAAoAIpCGSDJBTMxduByWUJQBZTL774L74yA4+zmPlccsACkAMMN9ODDs5jPVtwNe3VmdwIsFgAatus84FSgpALBbj3HHPb2ngdPq6TR0c/Oexn87qPoebxqejz6tpl1YbzPn3bTXN40auvUaebs4znzwzMDIZ4Zmqwe/n88Pa5OAbtWIqACgAAAAFIsBQQoADr6zyZ7PikSGTWPa9P5MfQ8XPrJQAAWU2fffB/eFA1bYfG4Z4EBYGrd5vUdNxowzGjV2azibdR6CUSiLABhnieYolUgAEuJsy0bDbPT3HjaeracvpbcTl5urRHParv7OLebsuTWd+Hm4Ho4edtOnTq9E87D1cDj7Ng87V18osprAspFEAAKAAFEURYAALPXPLz+i8w8qIZMKezt8GnpeYhjjcBhaX6b57A+h8Xmpv2aNxbKAAdH3Xw/3BQAfG6unmEsKDhXA29GjQepNG4ssMdHTCZQUApCAHlqAAAGOWJM8Mz0/R8IdPFn0nH37eaOjztmqpcek1Yd3CdHXzescGrZid/Pu1nP1+d3jTz6z08+LUa8NuJriEUAAAQCyi45EoAAQCIWSGe7mG7DGiMAx1m26u80To5zDHPA179G4uONJsdhQTHOGIFlOv7b4z7MoAPleL0vOJLCpTk0d/GbdG7UZ56tpv2ed0m+ykAspUAAHlssQAAoY5QWiZTcOfs2HBl6Wcefn0K0Tu84wm6Hb0eXrN2vXsOzRphs14wYZjDMAACCoKbTU6+QgCC9/n5mWIAAJYTHLExxuAxnQXdpxMsKNevdpO7k2aS54dZNXZied16NhpmeJs7uPsKBjcSJRZT0PsPkvrTIAHz/l/W/OHHjniSgwzhp0dus49+rYapnrOndzDrad4BQACnm4bMCUAAAMjIxuymrPLWduvkxN7n2m26IbtFGFyEoAAJYALOo5p6/kkSGTEZdfFT0fPQRAwhsujI6LYFgKSZQxmcNWvfrNHZx9RoY5G7ptjRyehrrVz9WRx+hp6prLXs0S6te7ZrGnHpwjT2Y5t7NN1xlhGsWzeasvd9s8L6O0AAato+Z8/7LxTztcxJAAx1bxx6u3lLnq2k6+XqFgyQUCynn69usSiKAAG3VTbjgLhaRRKAACAsF2dPtHg7PT848+WBIZbNI7eXGiISTEyasjZnvhpwzhr17NZv2bOU3Y6MzfkpAAJRjM4aNnfyHNOurluwxx1w6+JvjYCxCIN2lW7W3mh6vefN7fruo+R7/o6eT29WRhmAAAACUeZ4P2PMfIO/hIABr2Q5b0azV183SQoyxpUospxad+kQABQQUAAIsAN/X05nJp2cpolxKmJtuim2YZCITFgVhuJnt2HPFNevbrL6XnZmDHIyz27Dk09esw1bsDHu4e8s6NE1MbLkogAOjQACWAFZ9Rw4+76B8nv+v2nyvoe5mcXbsooAAAAAAAAAAa/F97E+Lx+k8E0UIsFlMNkEKVKLBUpy6OjnEolBLAQtxp3+j5eZxRBEDHE2XVTawyGOWJjjdZZPTOPfr2GqMjXq3ajP0/KyMLNg27Mjn19OBom3I5urTuOib9Od4MdusYYbtRN+mzXRoglluQBSGRjl1d54r6ruPjez67M+c7/AFBo25AAAAAAAAAAAAAAAABy9Q+V4vs/DPHmeJLKCAFsFAuNNHP08wABJYSXEMIbbppuY5ExywMcMtYz7g16MjKMjVq36jZ18MFm8x27Bow34nPdtOXqwzOib9OemGKa59vFv0GVxS9XPgUq5FEuJTcap6XoHzu363sPke76XI8ju6RjkAAAAAAAAAAAAAAAAAAAAADHIeX4H2fIfJO3iEsCUoKgqZGjn6uUAQJLDHDPAwxu0x3et4p6PFpptxyGnVv0no8OzQZbJ2Gm7Yacdg0OvUcvZjnNbtfRomsMU1z9rxrBlJHRpxLKWUBAbeo4Hu958t0fX9J8p6Pujg6dwxyAAAAAAAAAAAAAAAAAAAAAAAAAAADV4f0MPicfpPANKiuvkAFlMOTr5AACTIa8NuJz9GrcY65S7s9hqm7A1Ybdxy6e/XGjrw6J0x1567Mc9a49LzVJnjJduoAsVCpmYTt7TxM/p+4+R7fq9p893+mObZtGGVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADj7B8lx/aeEcnIACymPH3cJQAJRjMhjNvaedp6bLltmc66cMteuM6+SnRzg26ktxLAFkMpn0HJj7foHy/R9b0ny3oe9keb09I15ZCKAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGOQ8nwvs+Q+TnZyEWF4u3jAIogIoz7OAFhnMZKFghWOZJ1dh4+X0vafJdf1e8+c9D1xy78xFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGvwfosT4ufQ+Ea+Ts5DFRFEURRFgZ7zlw9jvPmNv1/SfI9/0uZ4/b1jXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABx9g+R877n548V2aznd3aeHfq+0+O7PrMj5/u9Ic+7IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJRqbRKAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH/8QAAv/aAAwDAQACAAMAAAAhAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAEMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEIEI04Yo8IMEIoAwgEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIMIIocok8gMAQYA4ogoIYscAgY0IAAAAAAAAAAAAAAAAAAAAAAAAAAAAIMIQAk8o8sAw8088EAgAY8MQwEYMUgccMAE8MAAAAAAAAAAAAAAAAAAAAMEc88Qgw0kAAU0AAI4wwIYwAIAcIMIAMQUwQQ408AMks8gYEIIAAAAAEEMYQwMsQYkIgUEU8A0wEMAEIAAEQEIUIwQEAQ48gAAAAMggkoMU4MMMcwEQAgQYwgIoU4EE8wMEw8woQQYwkUMsMYEAQ0oAw0IQwAw0wMIIMUcwow4s8oAUgEcAcY4IAokAUEoIIMws8sMcwYwow8wAAAAAAMIMM4goEUcwwQY0UswAQAo8oAkgcoAQQQwoMowosowgkw88QA0sMcIIQ4AQwQ04MIMs4004UsgsMMcMckIogYsggE8Q4AAEQAEEwo4I4M0AMYokIc4gQQEsMk8cU0AA484QA8E84g88s8kIc8s4sMQAA8cEAQUcE84MA444gg88kMM4cc4Y4g0w0c8EgsUMQgAIgYEA8w888cQgU0UQAwsAUQMAQgkoc8w4848goY4EAIUwY080wE00AgMgEs08MME8Qs808wo8EgIcMsAgMMgUU8AU4YYEQQkwYMokAEwA4EIEcsMYsUAU8oE8IwM0M8o880Y0w44gAAYEcEkkU8sYMAAQ0oI408IAcwsc0owkcsYIAscQ8k8cwMQYAoAc0cAQA0wAkAMsYw0UE0M8g84oAEcY8MIUEME00E8wsw4EUo4gQsEYEokskEgcoco0g8E8sIssY8gAY0AAUAoc84kAEkwEsoQQUAwEAIsIQEsAUs8s8UYYQMwE4IsIAsA8AkM8840wEAAAM448wgc8oAAUAwY4UccQAQEE8w488sI8oIeME4QggwA4w8ow8A48cww04g8YcIc4kQQcQoIUIAA0UQcwc0ws0YMMAAAEAswwjwI4McgoEckAwQAI8gsoAA4cQAUkk0Ys0oMMYUogAA0UY08wUoQYMMAsIMwQoQcSw0Mk88YwQEAMME4wQoUogAwAUMUQ4o8o08JIcsUAAIQoEYk08gQQo8YgMMs8scAQAAAgY8U0oQ8MAw4oYQkIQgQcpScp5v4ek2csMwAAAM4c0cgg0kEUk8QwE84wYQgEEcsUEwwwIA448QYAg0M8Yw0sagkbmgEsIs4gAAAAQgwAE0kg4gYAQc04Ewss00Aw0k4YoIgQIYoY4I48BUwsMkMUQA4oEUgAAAAAAAAAAEIg04o4IEYc8sU8oQEY84wwkcowcgw0gwFbM47QoAAEocgQQAAAAAAAAAAAAAAAAAEQoEkkAMkIAcwsQgEEsww4EgAo0l6YESNQYU8AAAggAAAAAAAAAAAAAAAAAAAAAQUkU4QEYkAcswEk8sIUA0sEOZsU3jgEkwEIwwAAAAAAAAAAAAAAAAAAAAAAAAAAAAkU4EA0IMMQwI4og43u8QoSSAkEYgkAQgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ48IQ0AgQ0M+gAIEKIckUcMoQgQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgQ0QA08wsEOoEcYgIAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA0AAQ84800QgwgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA40gYgQwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQQgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//EAAL/2gAMAwEAAgADAAAAEPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPMPMMNONPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPONNOMGIBGNDJDCIEHOPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPMNMNDMAIAGHDHKAMMLEDOGCMAAMOMPPPPPPPPPPPPPPPPPPPPPPPPPPPNOPHCEMKEMBPDLICBFIGEAIHHABBKAODLDDEDHNMPPPPPPPPPPPPPPPPNNNPFDCEDBEGBBDOMKHPLKEDCLJLJBCANNEDELBJCFHFLDBGGONPPPPOMNMPILEODEDCMCBFNMAINNNMIOIEFKANCNHNDEPOIIEAMDIGICDEOLIHFOPAPCOOBECHLBHMCFMPNNECOCFCEKNBECEBENKAMJKIFMIBPILMJHEPLALBDKINMLJPENEBGLGLDNLDMNOLHLDHEDEEAJBOIAIEABDDECIAAFLABFMJNHAIIFIPIDGKMOPMAMGGADKECDHGLMBGEELJLDLCEJIFOHPKPJPMDEMENGEEMFHKMJCJOGBOMMNDPPNEMPHMEAOLADLNLICMEGGJBFIIGPPCMJADHBJDDNOICMIAJLNPLEOPLFKCBDLCPDDMNOKMFCBKMFFFEIAFMANAEHEKCLFMBLECPHDLPOGLEFIBHAJCOJEGFKFGPOJPOICKEKEJLGFDGKINEFFFLDBLLBHJOBNBJBAAMMOFBENJDMKPNLMJCHOVKIKNNDPLEOIFSBAHOFDFABMDEHMPKKHPFOEBANECCBLNFEBNDGGMJINKPPMAEBGLDDDEEPOEALIbYIMIAEOLHKPGOBJHCGBAPMANAFGIMELFEBCFOEHGDPNHPMJJKPLPNILFPLKLENHUYeGMEIOONENIGCOBCGKMLNLJAEIBMJBLMGNEDDDHNHIAGHDBNFKKBIBPKGABHMKWTTLKCJHDCGDGGJFFDGKGKDEEOOAHFIIPPCNPMONGBIILPIGLOLIAFIPLKCKCZPBEUMNDJNIPPOJ7HMawJDEOOMNLBMLMCKAHLMENPMKJMGECOWVXbDABNPPEAAAZRHJEFPBJMADGLHJFYsbbIOJKEKHONLEBICDKAIJEHPGCFSWLDYfTOICEPPNFDOUQaAIOLOHIBNFDHEIU3RSPBGAOMCLENDBKLOLHDFEPR0RJVcSKWTLCICFPPAIENHKedeEPGCPLEMOHDBIMNNGFPKNONOBAOFCAECJKNJIffE2FFyyH9E7DOHPPPHBCODMWZLAKCOFLGDGKCNMOOPIPBAAADLCDZWDY9aMDMJIQf4XKowHJBAPHPPPPPMKPMDKdMDCOHHCNLLHAMMNKDEGFCFA4YLQV4KbaV3OOCPODMECLPFPPPPPPPPPPPLHPMPJPABPBGNENIECJBMRHH3SZGW6wLAMAlOKB7JGPJAKJHDPPPPPPPPPPPPPPPLJFANGCAHGBAKIHIBIA/eQJTcTFIERcLO1AMEEDDLPPPPPPPPPPPPPPPPPPPPPPPLOACDPDGIACHBKQXCOdScCEYizJFmZEDIJHJPDPPPPPPPPPPPPPPPPPPPPPPPPPPPHNAPLKHPIMGIIMIKLw1ACBGhABNCBLPHPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPHMBBOJDDPGFEzHcHIdJNMAGBHDDPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPGBNKAABLBMJkPOJKDJLPHPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPHIBLBBBOMCFADLPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPLIIGNLLLHPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPDHPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPPP/xAAnEQACAQMEAQIHAAAAAAAAAAABAhEAA1AQEiFBMSBRMDJhcaChsP/aAAgBAgEBPwD+Bqc/zgwZy5Or3AFJirJY2wToZq4zBDA5q0hRAO+8cfgEmiGe8vkDUgRUdeBkzxSOGmPfKz6ZpLm9mHQ71ZCQQDSIEQL+8tI8TSXC1xxHA1IB+lW0CCBkvHo3jmassz7iflmANSJpECqIypJFPdAUz7Va3bBu86lQeCKCqohRlS0dUzlnRF+59BRWiRm9omQOfw1//8QALhEAAgEDAgQEBAcAAAAAAAAAAQIDAAQRIVAQEiAxBUFRYRMiQKAUMDIzcHGR/9oACAEDAQE/APvaB/B2Kxsw+nBrOzj6jSsms/TDo8qFHt0YyQP8pkdCAwwejz/IGw69Y4hSQSASAMk8F10zUNs0s0SA5DGvEhCt06RqFC4AA4AjPYGrVIGnj5pOVeYZJrxC4E907L+gaD+htWOnHWAjDBYj0NRslv4bOQ6mSU4A9BR4K7KQQSMajBoliSSck6knbR0isHNXdo9qyByMsucDdB0iiD6Vc2f4eCB2b5pBnl9uAOveoJ0SWNpI+YKc4q6uDcTvKRjPYeg248B1FGA7aeVXNpHBa27EkSyake3FJmUjOGA8jV3dyXTh2wMAAAbqKMEnylRzD2rxG3htlt41/c5AZD7nikjo2QauLiW4dWkOcDA3VMZGTVtYyTzogOUJyx9qvvgC6kEIwgOOMcskTBkZlIORUsskrl3JLHud1RFcY5wG8gatrVIrWe4uE0ClUHqaOOMc8sRJRiMjBA3tpZWQIXJUdlP2a/8A/8QARhAAAQMCAgUIBwYGAQIHAQAAAQACAwQREjEFEyFBURAgIjAyQmFxFCMzNHKBkUBDUFJgoRUkRGKxwYKS0VNUc4Sw8PHh/9oACAEBAAE/Av8A5/PGwZuAQe13ZcD+tLp00Tc5Go1tMPvPojpOEZNcUdK8Ik7Sc+4NCdXVR+8Rnldm931Vyg4jIplbUM7/ANVHpY99n0TK6mf3reaBB2gg/qkuAzIRqacZyhGvp+JPyR0nHuYUdKP3RhHSNQd4HyTquc/eORkccyVdX6tsjm5EhM0hUN71/NR6Ub32fRMq6d+Ug+av+njIwZvaPmjV0wzlHyR0jT/3FHSY3RfVHSU25rQjXVJ79kZ5XZyO+qv9numzSM7LiEzSU47XSUek4u80hMnhf2ZB+lDLE3ORv1RraUd+6OkYNwcUdJ8I/wB0dJT7sITq2oP3hRle7Nx+qur/AIDdMqZmZPKZpOXvtBUekoDndqZLG/svB/RF0Z4W5yN+qNdTDvXR0lFuY4o6TO6MJ2kag8B8k6rnd94UZHnNxPJf8MBITKyoZlIUzSp77LqOvpnb7eaD2u7JB/HS4DMo1MAzkajX047xPyR0ozdGU7Skm5gR0hUHvAeSdUznORyLicyr/jAeW5Gyjr6hnfv5qPSo78f0TKymf959diBuNn4kXNGbgnVUA+9COkKfiT8kdJt3Rn6p2lJdzWp1fUnvfsnVEzs5HK5/Qd02WRnZcQo9JVDcziTNKRntNIUdTA/KQfhGONubwjV0zc5QnaRpxliPyR0oN0f1KOk5tzWhOrqk/eIzSnOR31V1f9HMqJmdl5CZpSYdoByj0lAe0CEyaF/ZeD9tMkY7T2hGspR94jpKnGQcU7SnCL90dJTcGhOrqk/eFGaR2byfmrq/Lf8ASt1HV1DMnlR6Ud32ApmkaZ2ZLfNNex3ZcD9iMsbc3t+qNdSt+8TtJwbg4p2leEX7o6Sn/tCdW1B+8KMshzeT81dX/UYcRkbJlfUM79/NR6VHfj+ibXUzh2reaOkqQd5QzxTC8bwbc26MrG5vaEa2mH3n0TtJwDIOKOleEf1R0nPuDQnV1S770oyyOzefqrq/6iyVxx5twMyEZYxvRqGbmleknc0LXycVjcd/JoQn0l3wclbWejYRhuSv4rM7KwRrKg/eFGWQ5uKv+qdqAjBJcGnzWtp2vuGtt+VOqGF1w1ekcGozSHesR3nqNCe8v/8AT5NKjbH5J0e8ISFuwoEHL9S7OKMkY7yM7OBXpB3NWvk4ovccz12hPbSfByaVHRi+fI5oKMbm5IS8UDf9O/NayMd5a9nijUcGozvRe4977JoTtzfCOTSfsWn+7mOYCi1zMk2Xj+ly9g7wRnjHivSf7Vr5EXvPe690L2xxv/OCfp1eg/v/AJcmkR/LnzCPNdGCumxNlB/R5ewd4Izx8Uang1Gof5IyPPeV+tYwvcGgZqSGSIjG218vFN0UMBdrchtFuZQsa6faL4GOdbiQqOZ0kkTbdFkT8fker0H2Z/lyVw/lZEee+LggXtTZAf0HgltfB+6Ecx7o+vKXsGblr4xvXpI3NRqH+CMsh7yufscEupfisqio1tgBsCdpCoIFrN2buZFK+J7XsO0KSse9jmBjGA9rCM+qC0H7Kb4uSqHqJfhR6iydFwQe5uaa8H8fxsHeRnjQqsJuwEH6L0mTdsRlkPeWInM/aY4nyvwtCkhkjID22vl4oaLg3yOO0cFWwwxwMwR2u/Pfly3CuOr0H7CX4+SUXjkH9pR6otBToyMkJCM0HA/i5ewd5GaMb16SNzUah+6yMshzcrn7fS1GofiVTUa3CBew4r0you4h9ruxG3FPkkebvcTyXubBRQAdtY2DK30TsDtyIt1AWhfdn/HyOyPknZ9Y5gKLHNyTZeKBB/D8TBm4IzR8V6Q3c1GofuARlkPeVzx/BY43SOsE+B8b2td3rW+abQ0+Nou89MtO7IblXiBs5bELAbD5pxULQzzU0+4IXdm5WezaCmuDx1Oh/cv+Z5ZR03efXOjBVnNTZeP4RiaM3BGeMb0alu5qNS/cAjNId6xE7+YInu7LSfl+DxymM3AupJS8g2tbJPrqp/3n02JxJuSUza4ngnOsPPJSU5ao4yStW21rHzJQiwm4Ts+o0Rsom/EeWpFppPiP2B0fBXexNlB/ALtGZRmjG9ekt3NRqXcEZpDvRc47zzMJO5No6l0ZkETsFr4lBQTTQPlbbC1Q6NxwwSmT2kmG3BM0dRxmqL2ueIyP8KOip4quTCzYYLgHbZUp1MNAxmT+19FXANq5wPzn8GiidK6wTqaRkjGOt07WPmq2BkMgDL2w32o5KPsq/rGeCMnQwj5lRtxPazibKrkDp3Yey3ojyC3J2fUaK9yj+fLXC1TJ587WWkwHeOrsE6Pgg9zc02QH7FcLEOPMsVsGbgjNF+Zeks3Ar0l25oRqJDvWN57x5bcmqkGG7HC+WzNSaOqomBz47Am3/wCp2jnsdUtc4XiZi80+hA0cyp24if2X8PhZKxwZ0XU52H8y9IZRso2H2T4bv2ZkqpbfRlKdbhAaej+ZaLZahYLdvEqdpFHStt2an/aLTI7SLG5nD/hOmjFc5pcBan2/VU9bR6inL5cLob7OKqZNbNJJ+Z1/waKUxG4F1JO57mnK2SllkmdieblP7JUfZRHrUMuXgjnzwtG+4w+XLpEWqXc6X3iJMcW6/wACmSBwaeI6stunR2yQkLc01wd1+EkIeg6twfDhduIN1rKZt7ta5a+IbA0r0k7mhGol4oyPPePNETy3EGkgb1HoyrfJq8GE4cW3gnaJnZLC1zm2kdbENqqKKlhmiiEznP1gDhbIKooqQR1OCMtMJb0r53VW4w1EIMQFNiaSQ1PNR6TTh9pInT4mP/0r9HStz96P8qqwOZWnvsjLT5ZhPYz0N1Pj6XooOBMnbrNU49qmDgo5qUtpJ3Ss9VHYs3p9RRyUcLHl+JmLYBvKZpN7W0rYoz6rP+5QT6TLn6pmyS79uXyQirta1pkLTMTfb+XivQWbMUjsRh1mWxRUEGvkZqb2a22J3aupwwTSBnZxG34NDC6Um24bVJE+KUxmxPgqKkjNtZFd2JwIKkAu4Diot4RHSa7kgbLF6K2Jux7cUj7blOWGWQt7OI2WQ8T1AVB7jB8PLpQevHw86f2kPxIe0qB4I+wiPBy1h1xZ4XQcCLjq3MBRY4ZISkZoOB59issyEZIx3kaiLxK9K4MRqZFrHnvHlsmUlQ/swvPyX8Nrf/LvT4ZI+2wjzCp6SSoxCPDcbr2PyUkMkTsL2lp4clCzDR0hZE04u35cVK1gpK4MyEv/AGWz0/8A9v8A7Utojo9jOxre0tIvHp0Q1VsMjbv4qvcZYqyP/wAJzXfJaRbeWOV7wYQG3Zi2p9VTU0WGGTWeuD2jc1VFfA5kwgjdimcC+/8ApGatnnn1cJ9Yyzm+C/npXTS4ukyzX7vBHRr8eGWbvhn1FwjQxxxzEtL3MDb7bAXzWkqaCGJmCMA4rC2/ZvQhbFLTHDlC5hU5jiZawcGQHYfAptSxxo55JWXaX4xv6SdXMuztFop8Fv7ipdIXdI6OPCXhtzf8vBSyayR77AYjf7LhJyUUEkrwxjbu4IaMns4vwswm23iv4OMTBrr9MB4tZegUsbYsTCcclsd8lpVrGytY2AR4Ru39ZHM6O9rbeKe9z3XKD3NFg4gcjgWm4QIt4IX8wtdNq9Xjdh/LfYstpWfUBUWykg+Dl0qOlH5c6p7h/uX9RJ4sX9L5OKPvMfi1RktbPbcUyUFrCe91hYCi1zUJeK1jL5oyRDN6NRENxKNVwYvSZeNlrJD3zzmtLiABe+VlJBJFJq3ts7gqTQpcMc7sI/LvRqdFUeyNoc7w2/ujpuR3s6X/AO/JfxyoaelA1U1dT1wMT49tsjtCqWCCqkbG7su2FTQek6PGtHT1eK/jyPmczQkBY8tN7bFo+qpvRpoJ3YQ43un6XhFZrA0lgjwhHSb9VEzAOg/ECqnSVTUABxFgb7OKYZaicNdIbyOAJTtF4GOJf0teGfJCmpoa8w4A4PtgxcN/zTGRtaxgYLNEbxfO+JOP8xD0nffDpZ//AItGTRRxziRwAJapa+lL7l1/WMdsHAKWvilbJjhN3ht7G3SCnrpJrgtAu4O8iBZOrKhxdeQ9I3Pmi8nNyAc7JpKbQ1b8oT89il0fUxxl7g22/b9hDTwTaOodf1Z2EA7tpQ0PUY2Bzmbb+NrKj0bHK2Nz3HpSEW8AoKKmOE6gj11rO27GqmHtT6tvrLDCO6FQP1lZUv1XQfsNu7dOY5sULD07z7XndtUlZT6yNxlaLY9nipq2id6PfE8NG1ltn/6q6q9JlxWsALDrIIDNi22AUsLo5cFweB3FUUEWqu+JtxvO244o8mHghsVz1QVL7tB8A5dKj2fz51V7P5r+pHixf08vg5H2lMfAJvaqAj7tGeBRkOvDdzgmvDsjln1j4wclMMLG2359U0XKMH8NoTJb1ztl+F1ocMfW3kzsSPNaXq5jO+G5DG7uKpaGjp4GyzlpJF7nII6ZombGhx8gq7SNHPSOAHT3AjJUc+qaRDG507tl+A8FRaJwu1tRn+X/ALrStc2KN0LT03Db4Dkvzad4ZNE85BwKk0tTm3QcekD9F/FHkhzoo3G2/wADcFGvqSzBj338eKknlkdifISeKumQzv7MTym6MrHZtDfMpuiHd+YfJM0VTDPE5augh7sYXp9M3sn6BP0o3cz6lT6RkkYWWbZ3BObht1dl/D6rperthZi28EzQ8hc4GRvRw38io9HU1qe4kdrTnkLLScFPFHFgiwPxHZxatQGQUUVuzK0n6XTw27QO9K0lQ1eunqGjCwNa61zmTvUNXTQQQtMgu2N+X5lDpRkccALXOLcWPzKbpN0dhFGGtDnEA7c1HUzRYtW8txZovedhcevjnfF2bJ73SOuVc7Bf7BB7CL4By6THqmfEjzZBibZOb6+PyQHQqB4o9mmPkh7eX4V/SnwcU728BUeyWfyUcvqsTuNusqewPPqoHhksbjkHAp7IamCx6THBSaEnY7FBID+xU9LpWUNEkeLDv2XX8N0k8NaY3WGVzkmaErD2sDfndRaDhb7SRzv2V6Kib3Gf5VXppzrtgGEfmOaLiSSeeMRyBKZR1b8oT/hN0XUntOY1N0SzvzOPkE3R9EwbWX+IrW0UOWqb5J2lIN1yn6X/ACsHzR0nKT2j/wAR/wB0+rxfmPm5CoeMrD5J8kjzdzieTcpO75c3DfYm00zrWjdtdhHmhoyfC5zyxgabbTvR0NbKcF2IAi3FR0Gj9a1o24cWNpPBMpIxQRdAYnSNP1KrfW6Ww/3tCnLSx9u/hH72T3Rh1XikAMgIb5NCNXSxvpj6TdrGWwAb7KsrWTup3YT0B0r70/StS6+XauPDZZOqqhxuZXfgwUfs2fCOXSQ/lv8Alz991g6Mnini0MPmv6o+LUPd5R/cnH3Y+SHvMnwpnsJR/ctYWRQkLEMWH6dVUez+fV0tfUU3Yds/KckzT478H0K/jtN/4b0dPQ7oXJ+npO5C0eZUulayT723w7EXE7SeYIpnZRu+iZo6rd3APNM0Se/MPkm6LpRmXuWooYu5H80a6kZk7/pCfpWPcwlO0rL3WgI1NbJe2P5BMiqZiBxbiF94Cio8WrOt2Ofh2KWijYyfabsO/ZsVlbkwqyC3KTdy0FJFIySWYnA0gbNm0qmoaNpvgEge92En8oVNTxCOmsB0CT9VBgMUZ/vL/wDqUgLo6carEHT3xfl2qWqgEkBdIABM7F9N6NXQwulw9JxYbvAzJT9M7mxdEOGG/gpqx8k4mDWscOHHin1Ezu1I4/NX+3sje8gNaSTkhQz4cRwtHifkqqldTloLgbjqWpvZHly14/lX/JHqHsxABFv8wD4Jo6FR5p3sYCv6vzamdmceKd7qxSe3hPVT+yPXXCAc7JpKbSVLso/qm6MnObmhN0VH3pHFCho2Zt+pWso48sCdpGEZXTtKcGp2kJzkU6ondm8qGKSdzmg7cJPnbcjQ4LXcTx/6br0alaellZuZ2/NRSRsdJjw9i3R/0nVZfiAY4jCAEJaoBtow3DfDxAKtUOzlDdt7NFs1qB3nOKMUQHZUoGBNG3kI2oI5KTu+XLQy0nobmTSAesu4HeE3SdMynbha7G0ODW7tq/i7wAGxjZb9hZHSNTYAPta2XgnTzObhMjrcLq6v+A3WjWMfrsQHd/Yp7om4RjZfE7EDs2PXpVOxmEPPZztfJ91W1IqJA6xyt1LMx5octWP5aXyR6rB0ZPFSNtTsHine8xpnbnC/pPmpP6c+XVTeyd1e05ZKnoxML6xN0fTDO5+aAoo9zEaynGX7BO0iBkz6lO0lLusnVkzu+5GR538wBNhkOTSo4KiPaDhWpe7a+Z23/SFLHisgyOxswCyFr/JO2Agq4vt7S7yfZSZFNVwt/K/d+BxUU8rQ4YQ07ybKPRbsbWvfY2Js0XyXoUMesv07QYtpsL3tzLq61hG9BziUKWrtfVFZGx2dTF7RnxDmTi8EvwlHnRy4m3PG3Ne3EAE9vroyNyaPXS+Sb7vJ8Sk9lAfLqpfZu8uqOSe/otaMh/lMldHk47VrJHNLsLiBmdqeJg4t1diMxZSwuYyJ+O+MfRWTGjE0HK4uhDSsxB1th433qqEbpfUt6Nlqzhvy0vZd5oFFxVxhF/ku/nuRk6PS+S1zdvkjKLWCMw35ozjijN4IyF3BRUskmTT9E3RNW7u/VTQPhdhdbzG0Hk4p+77a1jnGzQSeAT4JmMa9zCGuyPNo6qKGKO52gv2eYTtJQgi2sOxw4Zm91JpJ77+qj2twnfs5t0xpc6yoWU8TMW+2071LpZh7MWziSpZMZuRZMO7qKf20XxjmPHQd5I877mbwchLZ0Q/MEDfm4ekT4IMtFKn+7Rrh1L+w7y6p2SOak7RVPPHFDhlt0miwG3snMqSqwwzSBxOtmfh8RaymlxNjjAcGsyBz2qlptcXXcGgLU6Ni9pUg+SNbotnYhc9SaWuC1lOxoVPtph4Tj9wnCziPHkpSLOWssnSr0i28Iz+aM5KxSOy/ZejVRBOqeo4MdyXBrRvPFMpqIHpTYtm5E6MZ9zI/huCETY5psG5gLd9sSpKipncI3VBaLdqyrYnNZFed73knFt4Ko9nTf+n/AL5Dkn7vtmi2Rkyl4b3cxfMrV4GwNbbY3C+xs4X2qtLDEw61r33tdu9vE+PMvzTytbiK2NyRe45lYliTWl2SwuG+/PpfeIfjHNk7bvPnd2pC/wDKlM2S1HkopQ9rTx5pyIUkfqgEMh1Lsj5dU7JFOzWj44ZNjoATftEm30UL8WNsWBjsBtZo2Ecc1pD3kjETsbcnebJwuz5ptFUvPRic7yCi0JWHtMAHiUdE0rPa1rG+DdqexrJ7RF5jvmdnK17m3sjI871HR1EttmeV1/CXN2yTMYPFSUVMGHVVON4F7eSaWwNiOpa/ELkuWsr9RrmRRMjwYgc0ZqoVgY+ckB48k8epkaB985UUzaaLp0+J2O91U62qOLUhgaPIZozR659z0SxrbjwTG042tjkPja3+U90jWueImC3E3Ke9z3YnG55HNNgi6/2yKeWK+B5bizRcTmSfPm3V1fmHkZsYT8uTCrFRsxHqaL3qH4xzakWmkH9x53fqB4L7qnPih7zL8K/pPJ61tnsb+YK/MO3qjl1RyXBOzUM7osVt7SPqhK8MDQbAIlzjcm5VNUmDFa23iLp+kpz97J+zf8LXSuvYfW5Re/e8N/ZY4t7yfJOni2YYz8yqSSFzumzb+y0jhjqmNi2dDIJubfMKp2VLyHHadv1Qj0SwjoukOI+KijdGZSR0cDlg1scVnDY2x22sQhqtW1rqrogWtf8A7KWSCM3EZLtxdsUc8jMRBG3O+3atdftVJts7OzNSuYTscXbc732LA/gvSJsIaZBYbk52I7XvK6P5R81j8U7bkevAJyVururq6vzCVdbVSiC95TsCmkpifVhyvyHkaOivJYk3ahsHMPNoPe4Pi5tcLVMvxc63rpfhX9NH4OX9UfgQ92lH9yd26Y+SYTr5go5BI2/XHM9SUBdoTs+QKUMhcWuddwzAWt4MWObds8lqKl2eKyZQOO8f5XokLc5P9JopGnK/yunTNtYM2fRYuDWj/PJHM17nWgu87Tt2Jz5mxuIbGLeF81LNLJ2pC4fsmEB7Ta9ijO7HibHbZvyUj3vtiflsG9Wb4n9kZGj7sfPatdJu2I4zmVhVzx+xaOJFbDY707aSTx6y6uoonSZKSnki7TT9OU8jQxsA/M7/AAncgN0Izxt4JzSEVH2ByxgFw5p5ujffYfi5ukR/NP52Ha4+Ce21N/yR95j8WpvsqgeKd2aYoe9SfCme7SeDkJbNixd4dZuTu07z6kpnYCdu5IsGsbiyWrpsRLnnPJB1G3JhctZNhu2CwWorH5ua3h47LqanfGy7nudl8tl9q1dI2RwcRhtsINzt3r0qBuHA03wAGwtcjasLpHkhuZToS3vArV8V0W7cdkXx8XFa4bmoS+KxjgsZVzx6+GF0z8LbXsT9EaW1G2ovm+wHhzxs65kN48f0TZ3x3Dfqta92bifmr8h5DfV8sTBne/I4XaU4KE7k8YTyRdrkseU83RfvsXz5ulG/zH/Ec97btsnN9dGeCaPeU73eHzX9X/xTPZ1A8U/3eEovIqWjcQmvBv4Z9W/tu8+pKj7AR5kbsEjXcCnVb3Xwxht7/unTVBABf8kQ45lYQtnBXKx/3J1ysPisIVvsdHIyOcF5sMLhfPMJ9Zel9H2EAjC61tg5t1dX6w8jpDgaNwC2KyjYTtKsOA+iczgnBDpR8rMgntACKssBBuFYPC9Hfu2oNe09lM6Vk/hyE80LRVNKJ9Y5hDQN/NngjmZZ3yKqaV8DtuXHlDScRAyFzzcHtE9tqZvmne9R+SZ/UBH3RvgU/wBvAVH7xL5KCQvYb7j1Unbd1UXZ+astX4j/ACsLOJXR4f7Rlb/92LW8AschXS4rE5XPH7DRsZJVQMcLgvAIUOH0aqZgGxriNme3j4c66vzrq6CbDJhv1VkRySdgcgX04cojc/stJ8kG4clhYcwtQNzvqomO2XUh2px5GML3WCliMZG0G4uCN6ueKEjvNNe2+0IvCLuYyLFmqakpO9G53moo4m9iMN8hz5Iw9pBFwqmjdHtbtbyQB5xhlsWwqa2teQN/Ne27bJ7fXRngme1n8l/SH4lJ2qc+SHvTvJU33vn1UvbPVNOG6DhdYmrGOCxFW65kUkhsxhcfBNpZnRvkDei0G/yUtGY4GyYwcrjhfbzo5HRyNe3NpuE+snc1zMVmnNo2DnXWJYudBA6Z9h81I1sbrL0qbIPI8FjJzQN+psnMTNrcJRjeNyGeSaL7FJkAiqeRjWN9aWYX4iPzJxxOceJ5QSMir8sUmAno3BFiFJJjN7WAFgOa2GV2TUzR07tyj0Q7vKPRkTc0ylib3UGNG7qXMBVVQZuZ9F0o35eYRNzfnb7oM6TysNqZ/mpPZwHyX9WPJU/tJuql7fy+2aPw+mQ3yv8A6Wrez0VkYuATjGWy906SIOki1relFJ0t2JzlUPg9HhjjkJw9rZv48y6ur866uhdQRRkXkdZSRsB6D2nlPJTTaphtmU44iTyNDnINaMxfqoaeN2DG8jWGzLC/zKIsSOCueKuD2mgqPVjwT3i/VXCFzk1MpZ35NUeiZ3ZqPQzB2imaOp291NgYMmhYVZW6wtBCqaNsg8eKlhfEbEdQ5vqyFMw6uMJ3vUah9vL1U3b+X2SOCR7cTW7MQbfxKdo97IpHOe3E2/R8jZVNJFTtYbud6zC/6XVfHHFUvawWbZpA+XNY9zTdpsVrHnNxV+ddYkCeaVGwveGjeqlkUTWgIuO9XQ5CEU0dC/KANlhbZynqI6mVjMIw77G20X4dXdBshyam0kzkzRpOai0ZHvCio4m91NY0bvss0DXgghVNG+LaNreoIunNvK0pnvEh8Oqm7Q+yaOmiZBJjI9oD9BdSz0frXCXa+YOcAM2jcpauOSGRjozcyOcDfK6nmdNJjNr2A+nNurq/PELsOLcoXRxm7xdSywOPRa4DlIRUTi11wpJC47TyAXKYzDt3o7UWosTNmwpzS08gRaAzx+wbFfwuhFK7JiZo6oeo9DHvJmiYmptFGNy9HbwWpCEaw/Z3sBCqqDvR/REEHqA3pE9VPmOso6YT6/i2O7fNOpqeOSaPVD3TEDwI591fnXV1dRxufsAT4JI8+UoqBmORrfqqqRjW2b8h4K/ILk7FhdvCsiFF2lIOmeSHfyuUcbpDYf8A8ClhdGbOtlcEZFBFrHZj5hRM8bqQ7UeruEMRyaU2lqH5NTNEzOzUehmb1Ho6BvdTYI25NWEfbyLqqomybd/FSwvjNnD7DPu6ykqjTl5AuSP9p9fM5+LYDgLPkeddXWJYhynkKG1eiYIsTs/8IS4OzmvSpjmb+FlfbyFOUd77E87eRjbnwQbbkcFZFm24RbjTo3tzCgyTBZt+Ryhka3GHg4XixtmppA8jCLNa2zR1l0GSOyYo6GpfuUehnntFR6IhbmmUcDe6hGwblYK34JNTskbYhVFG+LaNrfsE/wDvqr8l+ffkDUyla4XLv2T2Fh5SiqbCJAXblV1GssL5crW3WE8b8hao9j1KOlyRZIAnLkcmtLnNaMybKSKDVy4MeKIgEnJ3ICQhqr3tZPe22wou6q4XkCmwzOyamaNqHZqPQ3FR6LiG5MpYm7lhaN34W+MOCqqDNzPoi0jPrpsurusSxoHmHko6XWm57I/dVJYH2bt4rE7ig91rXTeVwUQvdO7RvyRt38p5C0FWuLFao7jdRbx+yZsbdFOQUlRNKAHO/a23q7hdI5NTaad+QUeipXZqPQ7d6j0dC3cmwMbuWEfiBbdVVE2TwPFSRPjdZw62bLrGxPNzbLMqOMYulknw0xb0HDF5rfblK3qOpLIcLVnt5GtJ3IR8VbkITei5SDbfkj7ITWYgeQ8krMEcwLGCDD6s7ydxvy347U6UW2Inqbq6DJHZNTKKoeo9DvOaj0OwZplBC3uoRMGQWFW/FZ6dsjbEKopHw7c29ZL2eqKp49ZI1qqXxQxtjaN2z/unE7+XdyFEJwszYrpgBc0HK68BkMua+CVrQ50bg05Ejk1bHdk4fBMa4dEhO6LLchPWXHFbdzSmwTOyamaNmdmo9EcVHoyIJlLE3uoMaN344+MOCqqC3Sj+iI3dVL2epKcqfELkKV5c/byAE5bU2LisHKW3TdrcJVrZqLtcj2YbchO1Qua2WNzhsDhdTvY2Kca/WulcD5Af75WyOanSYtyv1N0GvOTU2knduTNEyuzUeh2jNM0dE3cm0zBuWrHBYVb8fc0EKqoWybcipInxus4cmafGwtkLbAsts8OdJ2eqIUGR80dhPIwADZynkhhfKSG22Zk7AFNA+F1nWyuCMiEDxAKEQvdn0KjbvKeblE9ZcLyCbDM7JqZo6dyj0RxUei4xuTKOJvdTYmjcg39Dz0zJBYhVFI+H4ePI/CY3SDvAc5/Z6qyAwm6fHfaFa3Jg6N+R3JBJEI5I5cVnWN25gtVRK2RzQ1tmMbhaPDl1rrWVz1N0GvOTUyjqH7lHoiR2aj0MwZpmjoW7kKaMblq2rCFZW/RT4w4Kq0fa7o/orW2ftznZdU1pc4NAuSbBSUTWskLZ2vdH22q5B2I4H57DxTWHepDuR6y44q/AIRyuyamUFQ5R6HO9R6LjamUkbe6hGBuVv0kW3VVQtk2jY5SRvY6zhzTl1UUhilY8ZtN1LVRlsgihwaztm9/kOVry1F5O/qbhdI5NTaed25M0ZK7NR6H4qPRcTdyZSRN3IRtCsrfpaynpmSNsQp6V8J/t48zct5+xXCv4IMldk1MoZ38VHoh5zUeiWDNMoIm91NgaNyDAFb9OyRtduVVQFvSjy4cw5nrsQXSOTU2nnduTNGSuzUeh+Kj0VENyZRxN3IRsG5WH6jLQVVUIf0m7HJ8bmOIcLchzPU7FfgEGSuyam0NQ7imaIec1HohozTNHxN3JtOwbkGNCt+qailZKNoU9O+E2OW4p3aPNuEA85NKbSVDu6maJmdmo9Ct3pmjIG7k2mibk1BrRu/WEkTXixF1V6NeH3jGz/CNJKM16PJuCbQTvUehj3lHomJuabSQtHZWBoyH62LQUaeNaiMblhA/+f9//xAAsEAACAQQBAwQCAgIDAQAAAAAAAREQITFBUSBhcTCBkbGhwdHwUGBA4fGw/9oACAEBAAE/If8A7+M0f5DNCqfDOSf9zs2jBD3OfeB/BoO1e7GfopNpXixngJnsdSxEcptcXGhvuOYvYJ4J2F/s7MEvLSPxbTkX+sFsv3sXUXy5Md4gyfzGRXvRPkkkvSaTRMTuOp8YyPlFDdmruMQH7BSUpz/rysh/MgKY+AW/cP8AvQfrZGeIbsljbJrNJFSemFI06KmiaHE+6Fvh5WGf5wXqS+H/AKhNZSMdB+tkLfwh/wB+HMPZMj7VjPMOhLJG0SSSXJ6n0Q+uFVyTcl96SJhudaPo2bOd7iKfBP8A0aaNVlpGIQ2vwQv/AABr7y5MA/EMt9J+ZBkkiSSepkv1lI6R0TWRdNhVaWcMzoXe6LWDwsJVLuFE+Ev/AJyWYJR+5UmO8AK5nlwMY/5MV4Ayq9zLDJySya6peiLeg49DZf0WKk9M9Ny8F6SSSOpb4CSLPF5ZAxqJ8AiRk12/yWFHlpGX9kXVvCG/vMBnA/JxvxAyA9xuyxNksmkk0no+CSSS8Ek9SaqlTVbCp/IyS5akl6Pomtx1vS3RMF+1ZE2YjwSPgTui1PO1z7fW/wAQ1pV9z6gXoAK5w/7lGwLwoM6A3mT3DZNJJGySRsmmi1LF/Qt0zW9Fikuqpfoub6IpNLRS1bx6FqueqRNzQWikq+BvDf5QoT7NP/LklIufuhnVfi59IECf5g/j2En6atTKOlJNEsktBImWohVsOsqluueiS5JPR3LeiySTgmkqKS59G3RekMirrYgikUguSJ0fa64j8orEVIBKn4Rk+vJJclgqxfhSIr8IcN7h7C9r+TJ+1Y/O0GZEkjZJPcsT5pNJFS/Taly9NUv6DJJdY6YPst0XpL6LF6XnodddEi6GaN0sS/QRCrJLJoz3JHssbtY4u4uP3Jz55YDdJs+8DeotDjXTYfkoZm0fyP4JD/vw99BJpjxYzl8jMkJsbG2SSNkkk9E1bJFS3RYt03mlpprpvVsXTum/SuQcU1SFSRZFNEixama2pJot7VsMmjGSqMkbZLHA7AkmkWGkLlvhGwB6QN/Hwbzv3JZG5tP7EWRnOyMR/bLf8FjIv3Gzd2NsvSei5LpP0Wreslyepkqsom1dm6TWxJI80kuQ/Sm/uX6tk0eTUDIIuRcdIQ6s+6WpeOhlxzSaTTBI2SS7Eksc9y5AkwkZE9LfL8jpBXCshtoRwkbchNWqJMQvzKLdrcervsOhzoeSOmKMim+lH8imazerg0fwLodE6WrJeSDfoosaNEmiKWrFtdN6OtyFR4pajWB4rN/R0X5IsXmipcScDaZUy3wNJw9INmpkEkl9KFWwjZl9n2ITN3SiO48lx6solLOjo5o26b9FdNqKkqk0kmlqT16rJNZI70U1m1FPRea7GTWR0t06o0WJ6dnxWLEEMcJXRD1o9SYZNj3GdpGQYbJRc16e6oQt/wDpIhP7miRDk042kJxYJp0Yxqmq2q56J6INiqqt0zTQjXQiSa2no5o/Q1XZBfosfwSJkk0kmkWLncQqOC8EHkyAcgG2vmPmRlGG70l+o8UNJI0mi4/RR9dEjuChJJJctSLhnLMVyKWI6Nkjpulyb9SRK6L1T6LkiIpJer6XSaOmuuVTfRJIyZGWJvS5JosZQEuQrZ7mjATZDd5bd6S/TkpMKCwS/DsSQzc6uClx0ODXFW0LDQKlfB3r+449FGZ3pl9gzJN0kiw0oEZGVOHksMtS1NdMkiHFFWUS+hUm4qTerrNJpaqpZssWpYvJNb1tFLwWLU3WXEjaiK0/6wPHFpXwgvMQiOTAA+Y8IcwtYSCS7ew3ZbfTf0ZVd0zs7RYROFNEuXcXjKstzKib9EDR9i+T+y99bl6LpWs7KSK7jMcVmr9xq1DGbFsGzrcknqhzRqUKslkIRIo3R0sIVI9GxNyxJI6ZZem6bJJpKrJNIHjQ89BN2bZ5whMO8mg89zaPYeUOtuhGvRQjXTovBODZwG13CycokPCP/RqIbvIQcVassRWjo30ogv7MU7yULgciJFP5pcRNLaSxbCplFiEbGy1b+gm6XMURN6WLdqfAorqkrsSSiacluhk+jch9jIKbYxgtaDIA2ZboyS1ZLkf8GOmRg7qLZEsrohteeOQ9M7c3extDe5tjabuw1Y+APqJ+IJHoZFrv6tRJX3GccGeiXJPQxCMJGk8IaGqST0SieixJJInSUSRSxImoJJJsSSNl+iSbE11TFIGAJ8x7gawDKMNmQi9JXoKCPV/n04JuRXCUGfMoPp5/90/AgD3bEPI3WWXBhsnJvjuw1wTn5Q+lCFkX5VYF95ouX6MxR4FTdSb9sCcBQ8MhjRBBssPphmqRSeRssaJtSa2rKNUmlookRRmFquNoZpI232HlMJMSbIFbt2YZjVbejHXfqgtVejExIh41EZSK4UMJBvLZe/iMs5sCRb5fc2aJLPSBLPcPKE6iQh/6nNVJg6XLQKKTWwsU1SE0LdwmCwuzEQQmWH5JJpKFJNiWSTR5r/JJ80ktBJYkvRT3IY8RRy3wNWRmkpLfUyDiCGQJCzWyQEyTSOTIuZl3ccCI4SYlgyN2ZL05C/S96CYtJaQpcM5CwoS6KPUmsdUdFvR7AzibBwG/zpyj3Fr92NEvyFtMr/8ABCUUKMf+XBR5H1dSFkt832r8hjHS9GieQQmmkxV1WVRMbBchnlQ7TRmqXQ6aM0UFq/NGjLSEzT5JonQbwARe/gexD1I4r4HkULkvwRL0N/uSh7CIdOUxOLBNclbiYnjyK84Eud70hFkjbeJUmgIVreV/CxM1sj9yXhtadsQ5dliLybEGr96HYaTfQspEkPWRum6uPV30vqMuRAUuPp5H3v0QPvJlRZAmk3Dyz9Bb5H3XzFJjqz+SxveDNNyMDcRronoQxAZcLUMMQQaJpPSyMHBDGBIlf34xPS76+CHKj/chjVeDIfKS6xofGahwsjyHTHA7K5aeRlaWUkFfd+M+1cUX20HkmGr8Utmhln3DQyxHdcGoJ4hiLyQqF/vTiGXEafuzi0IXiqhbSclkoOM2s7EYSaiFk7Zk9vvK+wSKSdf6J2IZP8OW7sY1CvHp160siiIokyCOmxbpQOEzGMCQ2s5E7QbglWjjiTSiUUUXdwySA+A/NPhLwkJJui9htsb6RVyLU/1esHgjHkufxSxnYICz/uLkGu4hSZ0XmipJNMkhrcWgILMaGaNUSYu4OMB7mXX2EMIG+j3YztL2HnuE+RSJhF+akKm14H0ezgzmFZyA98+hK4hrzJNF1cEXrVXOQ1D3G9dvKV3JEas53evY3yh1acznW1zmEWBz0NV4FxLC7ewaEpMX5Xg0cmE5Q8BVb2C7vyhE7/3lZb2HkzzXdl78pF1RLumEmWGxanEK3v4IhLOjsAlrJbpw3lP4DnDDWSxfosR6Cx0xSBMZPwO5uEzt754KBKYWyliVJYbud4pZt8nscQLpr1HcLbCwucdjJTLJxkZ8hhu67CraUCtRx7gbbT6GQq8JW5r+5HI8dFq4lNYPMTXv6QbiSkP6h+ei0dF63/Arkuqk1CwRxB7GEBxnuN6w8B54S3meiBsdmhMmxggEcnfwLvZL7PRYnOMvkPsy8thwiXmURKc14XZjbEW7K9+wty18RFIoIEJXIcSxBt/tvwdk/M3eZuPKzz/s5gTXoqliwnc8/fkUwGi/dnkdG+J7L+yBaOqEyxbbL2mprW/poUAGuyT1LOSf+8SbL21cosUSZZ/YB0pyx2uUF/c/Lk/GUjFHuDchNJQOS1bdMVuQQQxnDXf5LNXfWGEjDK408CbmB7NY2zGZKyUH7HyuxaUZY8jErTz2OWxboyP4Kxl7WzR6WQ8ZoXzCzfQhEdOt3cLkt6bzEZbJVxoNgit/l7yTkRSxpEU5EgvTiQj+8VtP4DGIvRc+0fzgk4RfyfoF9oh/7nIicSWRoEDL1YmaG/omqkzHD0EUahJO7EoUcX64lpN875+T2Nm+bEpsS82kh1CPGh/du1mG5kfPR2pXacjkXZys78me3E7r9sbuS5cEsmkmRh3hM0l8O7Ma2WildwCOBTwrWttuC3v4TPRCT6GKUw9hdkkyfzOBbyXLn7GrkNL9OjQ/pHuCrFYZBBDIZObpiychkEBzkivd9hCW7OCl7+UJ5LLRzBtn7OBkw5nvaSn9C0GJeXRJjlmcV1wjD1557ojbyA/dGb8Ii2RXDZI36G+ma2ZTUko7kyY0LC48C9J9C2Qh4+it47qkTT3wX7gOEbwmFhfIdyX4osXkPfBkE096LFqOkmqbFn0F3XM8zwi2uSTX2Z4GVLjL/ct+4jgSdMBren+mC7dhVo3t08bfsRN/6BLQ5Btt3fTYlcoRvxik+xo+0ST+0L3JN5Qr6ASxS3szhXlJfSl2A2Ur+9hQMZX2j+yWG7iEvyQ9DdIYmaCc8E1eUxFu0m8jzk0oIkKVvYDLlvnKebETcu4vH8IkyF2sRngMvj9</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Poe Switch Gigabit</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>poe switch gigabit</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAQGAQUHAwgC/8QASBAAAgECBAIFBwgHBAsAAAAAAAECAxEEBQYSITEHE0FR0hQVFyJhcZEIFiNCYoGT0TNEVFaSlKEYgsHhJCYyNmVyc6KzwvD/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABURAQEAAAAAAAAAAAAAAAAAAAAB/9oADAMBAAIRAxEAPwD6pAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAN2AAJ3AAAAAAAAuhdAALoXQAC4uAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACo9Ievci0NlaxWdYq1aafUYSnxrV33Rj3d8nZLvAs2OxlDAYWricZWpUMNRi51KtWSjGEVzbb4JHznr/5R0qOZLDaJweFxOFpt78bjYy21X9iCaaj9p8+xdpyXpN6Ts819i5Rx9RYXKYy3UcupSvCPc5v68va+C7EijXA7SvlH6z/AGLIv5ep4zP9o/WX7FkX4FTxnFOF+aM3RR2r+0frL9jyL+XqeML5R2s3+p5F/L1PGcUbTXBo/cGB22Pyi9ZP9TyP8Cp4z1j8obWMv1TJPwKnjOK0+ZKpK/YwOzQ+UDq988Jkn4FTxkql086tnzweTfgVPGcapR9hsKMH3MDsdDpu1VUfrYTKPwZ+M2+C6XtR1rKeFyz+7Sn4jjWDhJtWT+BZcqpTbXqyf3BK7BgekbOq7W+hgVfupyX/ALFiwOrcwrtb6WGXui/zOYZVQqcPo5v7i5ZXRqbY+pP4AXjD53WmlvjSu+5f5k2GZSfZH4FdwlGpZfRy+9GxhSqW/RyuRWylmLS5RImJzqdNNxVP70yNVhUUf0c/garHb1F/RsDYYbVsKeI2ZgqcKMuVWN7R/wCZd3t7C1QmpxjKLUotXTTumcWzmclf1WmRNN68xGm8QqGNjUxGVN8YLjOj7Yd6+z8O5h3YEPKMxwma5fSxuX16eIwtVXhUpu6a/wAPdzRMAAAAAAAAAAAAAAAAAAAAAAAAAAAA+R8y9J2DwOI6SM1ePweHrp1adPrKqk3GOyFuTvZXbt7XbifTR8zdKCjPpFzOFWbp0pYinBz4K30cO9pcvagNNX05kVNSnLDZZClGN3UqUMTFJ2fD28bLhyuVzUmHyjL6WJ8hwOVYnZFOFelGpsu2uSk0+HtN1mWBwydRYXFVpxcnGkq86K38e1qpw+BWs9w1VZTXk3SaaSWytCTb3K3BO/8AQo8qWU4VSUMRHqnZO86fO/sS4DF5Vl9OFJ0ZxrSkrySSW37yXUVGDtGfWLYvWlLc07O6T95iUqTb9WlzfNPvYS15UclwE4OUm5WtbYopvn2StYgSwOG47aXC/ejaXpfWWHffdN9sf8/6kSo311oqk00r3bSXBfF94VEWBwy+oZlgqCpqTpuz4p9j9zJdd0YzpunBytK87NtPjySfsJFXMMyrYjPqOPzDBYnLrKOXwpYOFOU26kWpJqnFw2wTT3NX7Lgaqo8mo53muWurXUcvp1KksR1H6TZbfFQ3XVuxt8fYQZZpk9PJ8LmFRV061adGVCMU3T2KLlJSvaXCcWlZX4rha5f4661fQzXNI0NQYOOWdVPyKby6DvNpbE11bkrdrlde18yPPpC1+8lw+zPMHHMZVp9bS830fo6bUVFt9VtdmpN7bu0lz7Ar9CnlNTUWKyaOIq9dRoTqxrKi9s5Rp79m290tv1uPHstxFbzVSz3A5S69fr8TRp1JVeraVKU4blDbuvJW+tw9ifMttfXmpsbmuY0sZnmFqZHVwtWEU8BCM6spU9qgtsFOL3O920rdvYYwmtdT4HH5RhsDn2HoZBQw1GnUh5BGc6TjCzp8YOUnuV7ptW7VyAotLM8pq5TjMdS8oth6sKUKUpNdbvvtk5qXqf7Mrqzs7Ljcn4XE5TWzbJ8CsTiUsxVNqs4u9LrG4x9TfefHnZ8FZq5Y8Pr/AF/5qxcamocN5x62n5PGOX0rTgk93Hq9qveLV+PB8idhtfaz865R1mpsFLAJUvL6jy6NotNudvo9zuuC29t+QFRzWrl2Vwy/yivWlUxjnuinKPUwjU2bleX0jbT9VWsu2/AwsXlSx2Z4Z4if+gU6k5VNzl1mySjJbd14WbSTbd1x4WsWTD6s1LlmWZXhdO53hMJh4yqPE0auCjUcN1Zve5ShJtOMuUW3fhbtcz5/61eNzRx1Fg/JKlOosFJ5ZTupOacbpU78I3Tcu1rnzApWIzbKqWV0MbKfCtUqU3SVVvq1DbulGe61SylGytG93ysTdQToZPXlCngZ5hSpVNu+l1lN1FZNNpt7edrd/eWKvrnX3mqjCjqHA+cIzqddGeW00owutrb6rbwtJvbe11z7IWbZ/qHD53meL0xjKPlWPqONatLDq1aF1J7Yzi9t2r8V9y5AVryyHmqljvNdWpvfHDpyU1G9v/n7T2wEqGPwixNTATwjcpJUqjbas7X481+Rt6mqNXzxDzeliaMdQ16Xk1Wt1Edjp8I2Udu1erGPGx44jNs6zdUq+pa0a2YU4dRvjTUF1cW9qskk7XfGwHePk1RjDSmbQgkorMJWS/6cDr5yD5NbvpnOn/xF/wDjgdfJQAAAAAAAAAAAAAAAAAAAAAAAAAAB8io6j0LprP8AFzrZzkuExtSU9zlVUuLsleydr2VrluPzKF3ftA53Loj0Cr/6p5X/AAS/MeijQkJKcNK5ZGad01CV7/E6H1aHVoCi+jXR/ZpzAfwy8Rj0aaP7dN4D+GXiL31aHVrsAovo00d+7mX/AMMvEYfRpo/928vf92XiL31aHVrsAoj6M9Hfu3l/8MvEY9GujXKSWnMBw+zLj/UvnVjZw5gUP0aaNUmnpzL/AH7Zcf8AuMejXRtlL5t5f7tsvEX7b7vgY2PvXwAoi6NNGp2+bmX8PsS8Rn0a6O3JfNzL7tcW4S/Mvbi7cxtfegKH6N9HWv8ANzL/AHbJfmfpdHGj1JL5vYDj27ZcP6l5UH3r4Gdr718AKN6OdIK19PYC7+zLh/ULo50gpO2nsAmu3bJf4l5UbIbXZ8vgBR/R5pJJPzBgrX5Wlw93rGZdHuk48Hp/Av7peIu+196+A2c3wdwKO+j3Sm2709gbe6XiEejzScl/u9gbe1S/Mu+zj2BwTd2BqtN5JluR4SrQynA0MFRnU6yUKSspSsld+3gjcGIpRVkZAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/9k=</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
